--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -1238,49 +1238,52 @@
     <t>${aw.user_id}</t>
   </si>
   <si>
+    <t>${aw.currencyposition}</t>
+  </si>
+  <si>
+    <t>${aw.claimamount}</t>
+  </si>
+  <si>
+    <t>${aw.telephone}</t>
+  </si>
+  <si>
+    <t>${aw.equipment}</t>
+  </si>
+  <si>
+    <t>${aw.commdepartment}</t>
+  </si>
+  <si>
+    <t>${aw.commission}</t>
+  </si>
+  <si>
+    <t>${aw.plan}</t>
+  </si>
+  <si>
+    <t>${aw.remarks}</t>
+  </si>
+  <si>
+    <t>${aw.valuation}</t>
+  </si>
+  <si>
+    <t>${aw.individual}</t>
+  </si>
+  <si>
+    <t>${aw.custojapanese}</t>
+  </si>
+  <si>
     <t>${aw.deliverydate}</t>
-  </si>
-  <si>
-    <t>${aw.currencyposition}</t>
-  </si>
-  <si>
-    <t>${aw.claimamount}</t>
-  </si>
-  <si>
-    <t>${aw.telephone}</t>
-  </si>
-  <si>
-    <t>${aw.equipment}</t>
-  </si>
-  <si>
-    <t>${aw.commdepartment}</t>
-  </si>
-  <si>
-    <t>${aw.commission}</t>
-  </si>
-  <si>
-    <t>${aw.plan}</t>
-  </si>
-  <si>
-    <t>${aw.remarks}</t>
-  </si>
-  <si>
-    <t>${aw.valuation}</t>
-  </si>
-  <si>
-    <t>${aw.individual}</t>
-  </si>
-  <si>
-    <t>${aw.custojapanese}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1768,7 +1771,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1961,105 +1964,378 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2078,36 +2354,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,252 +2371,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2689,28 +2698,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="G1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="G1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="62" t="s">
@@ -2720,8 +2729,8 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
@@ -2733,8 +2742,8 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
@@ -2744,8 +2753,8 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="63" t="s">
@@ -2757,8 +2766,8 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="63" t="s">
@@ -2770,8 +2779,8 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
@@ -2781,8 +2790,8 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -2795,8 +2804,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
@@ -2808,8 +2817,8 @@
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
@@ -2821,8 +2830,8 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="61" t="s">
@@ -2834,8 +2843,8 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="61" t="s">
@@ -2845,8 +2854,8 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="61" t="s">
@@ -2856,8 +2865,8 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="61" t="s">
@@ -2867,8 +2876,8 @@
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -2878,21 +2887,21 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>123</v>
+      <c r="B17" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -2902,34 +2911,34 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>125</v>
+      <c r="B20" s="69" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
@@ -2939,8 +2948,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
@@ -2950,8 +2959,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="62" t="s">
@@ -2961,8 +2970,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="62" t="s">
@@ -2972,8 +2981,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="62" t="s">
@@ -2985,8 +2994,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="62" t="s">
@@ -2998,14 +3007,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
@@ -3026,8 +3035,8 @@
       <c r="F28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="66" t="str">
@@ -3039,8 +3048,8 @@
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="66" t="str">
@@ -3052,8 +3061,8 @@
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="66" t="str">
@@ -3065,8 +3074,8 @@
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="66" t="str">
@@ -3078,8 +3087,8 @@
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -3096,34 +3105,34 @@
       <c r="B35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="97" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="106"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="36" t="s">
@@ -3131,18 +3140,18 @@
       </c>
       <c r="B37" s="47">
         <f ca="1">TODAY()</f>
-        <v>43894</v>
-      </c>
-      <c r="C37" s="96" t="s">
+        <v>43895</v>
+      </c>
+      <c r="C37" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="37" t="s">
@@ -3150,88 +3159,88 @@
       </c>
       <c r="B38" s="47">
         <f ca="1">B37+2</f>
-        <v>43896</v>
-      </c>
-      <c r="C38" s="95" t="s">
+        <v>43897</v>
+      </c>
+      <c r="C38" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="196"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
+        <v>131</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
+        <v>132</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="88" t="s">
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="90" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="39" t="s">
         <v>59</v>
       </c>
@@ -3244,8 +3253,8 @@
       <c r="F43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="38"/>
@@ -3258,7 +3267,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="84">
+      <c r="G44" s="91">
         <f>SUM(E44:E47)</f>
         <v>0</v>
       </c>
@@ -3278,7 +3287,7 @@
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="85"/>
+      <c r="G45" s="92"/>
       <c r="H45" s="49">
         <f>E45*F45</f>
         <v>0</v>
@@ -3295,7 +3304,7 @@
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="85"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="49">
         <f>E46*F46</f>
         <v>0</v>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="86"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="49">
         <f>E47*F47</f>
         <v>0</v>
@@ -3345,10 +3354,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="46">
         <f>SUM(C44:C48)</f>
         <v>0</v>
@@ -3424,7 +3433,9 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3469,12 +3480,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="171" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="132" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3484,104 +3495,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="129"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="121"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="180">
+      <c r="C4" s="128"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="142">
         <f ca="1">記入!B37</f>
-        <v>43894</v>
-      </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="182"/>
+        <v>43895</v>
+      </c>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="127" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="172">
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="133">
         <f ca="1">記入!B38</f>
-        <v>43896</v>
-      </c>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="174"/>
+        <v>43897</v>
+      </c>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="135"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="175" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="176"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="179"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="141"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3592,76 +3603,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="128"/>
-      <c r="N9" s="125" t="str">
+      <c r="M9" s="120"/>
+      <c r="N9" s="188" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="126"/>
+      <c r="O9" s="189"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="149" t="str">
+      <c r="C10" s="146" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="127" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120" t="str">
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="124" t="str">
+      <c r="K11" s="187" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="122" t="str">
+      <c r="L11" s="185" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="123"/>
-      <c r="N11" s="133" t="str">
+      <c r="M11" s="186"/>
+      <c r="N11" s="171" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="134"/>
+      <c r="O11" s="172"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3672,44 +3683,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="136" t="s">
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="176"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="155" t="str">
+      <c r="C13" s="152" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="122" t="str">
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="185" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="123"/>
-      <c r="N13" s="133" t="str">
+      <c r="M13" s="186"/>
+      <c r="N13" s="171" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="134"/>
+      <c r="O13" s="172"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="145" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3727,7 +3738,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="148"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3745,7 +3756,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="148"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3764,7 +3775,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="148"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3783,7 +3794,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="148"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3802,7 +3813,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="148"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3818,7 +3829,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="148"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3836,219 +3847,219 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="148"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="100" t="str">
+      <c r="E21" s="159"/>
+      <c r="F21" s="177" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="148"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="148"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="100" t="str">
+      <c r="E23" s="159"/>
+      <c r="F23" s="177" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="148"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="148"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="108"/>
-      <c r="F25" s="100" t="str">
+      <c r="E25" s="159"/>
+      <c r="F25" s="177" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="148"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="148"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="142">
+      <c r="E27" s="160"/>
+      <c r="F27" s="180">
         <f>記入!B14</f>
         <v>0</v>
       </c>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="111" t="s">
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="144">
+      <c r="J27" s="182">
         <f>記入!B15</f>
         <v>0</v>
       </c>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="145"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="183"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="148"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="145"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="148"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="113" t="s">
+      <c r="E29" s="162"/>
+      <c r="F29" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="114"/>
-      <c r="H29" s="117" t="s">
+      <c r="G29" s="162"/>
+      <c r="H29" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="99"/>
-      <c r="K29" s="119" t="s">
+      <c r="J29" s="191"/>
+      <c r="K29" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="114"/>
-      <c r="M29" s="113" t="s">
+      <c r="L29" s="162"/>
+      <c r="M29" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="114"/>
+      <c r="N29" s="162"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="148"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="118"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="202"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="140" t="str">
+      <c r="K30" s="165"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="178" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="141"/>
+      <c r="N30" s="179"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="148"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="100">
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="177">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G31" s="100"/>
+      <c r="G31" s="177"/>
       <c r="H31" s="40">
         <f>記入!B44</f>
         <v>0</v>
@@ -4061,28 +4072,28 @@
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K31" s="101">
+      <c r="K31" s="192">
         <f>記入!G44</f>
         <v>0</v>
       </c>
-      <c r="L31" s="102"/>
-      <c r="M31" s="107">
+      <c r="L31" s="193"/>
+      <c r="M31" s="170">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N31" s="107"/>
+      <c r="N31" s="170"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="148"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="100">
+      <c r="D32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="177">
         <f>記入!A45</f>
         <v>0</v>
       </c>
-      <c r="G32" s="100"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="40">
         <f>記入!B45</f>
         <v>0</v>
@@ -4095,25 +4106,25 @@
         <f>記入!E45</f>
         <v>0</v>
       </c>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="107">
+      <c r="K32" s="194"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="170">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N32" s="107"/>
+      <c r="N32" s="170"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="148"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="100">
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="177">
         <f>記入!A46</f>
         <v>0</v>
       </c>
-      <c r="G33" s="100"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="40">
         <f>記入!B46</f>
         <v>0</v>
@@ -4126,25 +4137,25 @@
         <f>記入!E46</f>
         <v>0</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="107">
+      <c r="K33" s="194"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="170">
         <f>記入!H46</f>
         <v>0</v>
       </c>
-      <c r="N33" s="107"/>
+      <c r="N33" s="170"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="148"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="100">
+      <c r="D34" s="163"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="177">
         <f>記入!A47</f>
         <v>0</v>
       </c>
-      <c r="G34" s="100"/>
+      <c r="G34" s="177"/>
       <c r="H34" s="40">
         <f>記入!B47</f>
         <v>0</v>
@@ -4157,25 +4168,25 @@
         <f>記入!E47</f>
         <v>0</v>
       </c>
-      <c r="K34" s="105"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="107">
+      <c r="K34" s="196"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="170">
         <f>記入!H47</f>
         <v>0</v>
       </c>
-      <c r="N34" s="107"/>
+      <c r="N34" s="170"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="148"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="100" t="str">
+      <c r="D35" s="163"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="177" t="str">
         <f>記入!A48</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="100"/>
+      <c r="G35" s="177"/>
       <c r="H35" s="40" t="str">
         <f>記入!B48</f>
         <v>-</v>
@@ -4188,28 +4199,28 @@
         <f>記入!E48</f>
         <v>-</v>
       </c>
-      <c r="K35" s="100" t="str">
+      <c r="K35" s="177" t="str">
         <f>記入!G48</f>
         <v>-</v>
       </c>
-      <c r="L35" s="100"/>
-      <c r="M35" s="107">
+      <c r="L35" s="177"/>
+      <c r="M35" s="170">
         <f>記入!H48</f>
         <v>10000</v>
       </c>
-      <c r="N35" s="107"/>
+      <c r="N35" s="170"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="148"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="108" t="s">
+      <c r="D36" s="165"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4217,143 +4228,143 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="108">
+      <c r="K36" s="159">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="108"/>
-      <c r="M36" s="135">
+      <c r="L36" s="159"/>
+      <c r="M36" s="173">
         <f>SUM(M31:N35)</f>
         <v>10000</v>
       </c>
-      <c r="N36" s="135"/>
+      <c r="N36" s="173"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="148"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="139" t="s">
+      <c r="D37" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="139"/>
-      <c r="F37" s="98" t="s">
+      <c r="E37" s="160"/>
+      <c r="F37" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="139" t="str">
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="160" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="148"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="108" t="str">
+      <c r="D38" s="159" t="str">
         <f>記入!A29</f>
         <v/>
       </c>
-      <c r="E38" s="108"/>
-      <c r="F38" s="110" t="str">
+      <c r="E38" s="159"/>
+      <c r="F38" s="199" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v/>
       </c>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="107" t="str">
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="170" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v/>
       </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="170"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="148"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="108" t="str">
+      <c r="D39" s="159" t="str">
         <f>記入!A30</f>
         <v/>
       </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="110" t="str">
+      <c r="E39" s="159"/>
+      <c r="F39" s="199" t="str">
         <f>IF(記入!E30="","",記入!E30)</f>
         <v/>
       </c>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="107" t="str">
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="170" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v/>
       </c>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="148"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="108" t="str">
+      <c r="D40" s="159" t="str">
         <f>記入!A31</f>
         <v/>
       </c>
-      <c r="E40" s="108"/>
-      <c r="F40" s="110" t="str">
+      <c r="E40" s="159"/>
+      <c r="F40" s="199" t="str">
         <f>IF(記入!E31="","",記入!E31)</f>
         <v/>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="107" t="str">
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="170" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v/>
       </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="148"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="108" t="str">
+      <c r="D41" s="159" t="str">
         <f>記入!A32</f>
         <v/>
       </c>
-      <c r="E41" s="108"/>
-      <c r="F41" s="110" t="str">
+      <c r="E41" s="159"/>
+      <c r="F41" s="199" t="str">
         <f>IF(記入!E32="","",記入!E32)</f>
         <v/>
       </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="107" t="str">
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="170" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v/>
       </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="148"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4361,18 +4372,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="130">
+      <c r="J42" s="167">
         <f>SUM(J38:N41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="132"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="169"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="148"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4390,13 +4401,13 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="148"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="158" t="s">
+      <c r="E44" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="158"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="20" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4411,13 +4422,13 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="148"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="158" t="s">
+      <c r="E45" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="158"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="20" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4432,7 +4443,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="148"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="52"/>
@@ -4448,122 +4459,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="148"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="185" t="str">
+      <c r="G47" s="109" t="str">
         <f>記入!E35</f>
         <v>無</v>
       </c>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185" t="s">
+      <c r="H47" s="109"/>
+      <c r="I47" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-      <c r="L47" s="185"/>
-      <c r="M47" s="185"/>
-      <c r="N47" s="185"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="148"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="185" t="s">
+      <c r="G48" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="185"/>
-      <c r="I48" s="192" t="str">
+      <c r="H48" s="109"/>
+      <c r="I48" s="116" t="str">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="193"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="194"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="118"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="148"/>
+      <c r="B49" s="145"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="187" t="s">
+      <c r="G49" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="188"/>
-      <c r="I49" s="189" t="str">
+      <c r="H49" s="112"/>
+      <c r="I49" s="113" t="str">
         <f>IF(G47="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J49" s="190"/>
+      <c r="J49" s="114"/>
       <c r="K49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="191" t="str">
+      <c r="L49" s="115" t="str">
         <f>IF(G47="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M49" s="190"/>
-      <c r="N49" s="188"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="112"/>
       <c r="O49" s="17"/>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="148"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="185" t="s">
+      <c r="G50" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="185"/>
-      <c r="I50" s="186" t="str">
+      <c r="H50" s="109"/>
+      <c r="I50" s="110" t="str">
         <f>IF(G47="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="186"/>
-      <c r="K50" s="186"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="186"/>
-      <c r="N50" s="186"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
       <c r="O50" s="17"/>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="148"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="185" t="s">
+      <c r="G51" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="185"/>
-      <c r="I51" s="186" t="str">
+      <c r="H51" s="109"/>
+      <c r="I51" s="110" t="str">
         <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="186"/>
-      <c r="K51" s="186"/>
-      <c r="L51" s="186"/>
-      <c r="M51" s="186"/>
-      <c r="N51" s="186"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
       <c r="O51" s="17"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="148"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="52"/>
@@ -4582,7 +4593,7 @@
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="148"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="52"/>
@@ -4601,7 +4612,7 @@
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="148"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="59"/>
@@ -4618,212 +4629,212 @@
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="148"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="183" t="str">
+      <c r="F55" s="107" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="183"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="183"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="183"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
       <c r="O55" s="17"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="148"/>
+      <c r="B56" s="145"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="184"/>
-      <c r="H56" s="184"/>
-      <c r="I56" s="184"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="184"/>
-      <c r="L56" s="184"/>
-      <c r="M56" s="184"/>
-      <c r="N56" s="184"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="148"/>
-      <c r="C57" s="147" t="s">
+      <c r="B57" s="145"/>
+      <c r="C57" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147" t="s">
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147" t="s">
+      <c r="G57" s="157"/>
+      <c r="H57" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147" t="s">
+      <c r="I57" s="157"/>
+      <c r="J57" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147" t="s">
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="147"/>
-      <c r="O57" s="147"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="148"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="146"/>
-      <c r="O58" s="146"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="148"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="146"/>
-      <c r="M59" s="146"/>
-      <c r="N59" s="146"/>
-      <c r="O59" s="146"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="148"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
-      <c r="N60" s="146"/>
-      <c r="O60" s="146"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="148"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
-      <c r="M61" s="146"/>
-      <c r="N61" s="146"/>
-      <c r="O61" s="146"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="148"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="146"/>
-      <c r="N62" s="146"/>
-      <c r="O62" s="146"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="148"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="146"/>
-      <c r="O63" s="146"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="148"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="146"/>
-      <c r="N64" s="146"/>
-      <c r="O64" s="146"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="148"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="146"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="146"/>
-      <c r="N65" s="146"/>
-      <c r="O65" s="146"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="148"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="146"/>
-      <c r="M66" s="146"/>
-      <c r="N66" s="146"/>
-      <c r="O66" s="146"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">
@@ -4832,29 +4843,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M64:O66"/>
+    <mergeCell ref="C57:E66"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J61:L63"/>
+    <mergeCell ref="J64:L66"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="M61:O63"/>
     <mergeCell ref="B14:B66"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -4879,68 +4929,29 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D29:E36"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="F55:N56"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -42,6 +42,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(items="ba1", var="r", lastCell="F32")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -71,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1272,6 +1286,26 @@
   </si>
   <si>
     <t>${aw.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimamount}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1970,6 +2004,48 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2030,9 +2106,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2042,44 +2115,260 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2116,261 +2405,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2683,7 +2717,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2698,14 +2732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="70"/>
+      <c r="G1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="97"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
@@ -2718,8 +2752,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="62" t="s">
@@ -2729,8 +2763,8 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
@@ -2742,8 +2776,8 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
@@ -2753,8 +2787,8 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="63" t="s">
@@ -2766,8 +2800,8 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="63" t="s">
@@ -2779,8 +2813,8 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
@@ -2790,8 +2824,8 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -2804,8 +2838,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
@@ -2817,8 +2851,8 @@
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
@@ -2830,8 +2864,8 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="61" t="s">
@@ -2843,8 +2877,8 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="61" t="s">
@@ -2854,8 +2888,8 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="61" t="s">
@@ -2865,8 +2899,8 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="61" t="s">
@@ -2876,8 +2910,8 @@
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -2887,8 +2921,8 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="61" t="s">
@@ -2900,8 +2934,8 @@
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -2911,8 +2945,8 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="61" t="s">
@@ -2924,8 +2958,8 @@
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="61" t="s">
@@ -2937,8 +2971,8 @@
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
@@ -2948,8 +2982,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
@@ -2959,8 +2993,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="62" t="s">
@@ -2970,8 +3004,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="62" t="s">
@@ -2981,8 +3015,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="62" t="s">
@@ -2994,8 +3028,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="62" t="s">
@@ -3007,14 +3041,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
@@ -3035,21 +3069,31 @@
       <c r="F28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="66" t="str">
         <f>IF(B29="","","第一回")</f>
-        <v/>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+        <v>第一回</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="66" t="str">
@@ -3061,8 +3105,8 @@
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="66" t="str">
@@ -3074,8 +3118,8 @@
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="66" t="str">
@@ -3087,8 +3131,8 @@
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="2"/>
@@ -3105,16 +3149,16 @@
       <c r="B35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="104" t="s">
+      <c r="D35" s="79"/>
+      <c r="E35" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="36" t="s">
@@ -3123,16 +3167,16 @@
       <c r="B36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="104" t="s">
+      <c r="D36" s="80"/>
+      <c r="E36" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="36" t="s">
@@ -3142,16 +3186,16 @@
         <f ca="1">TODAY()</f>
         <v>43895</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104" t="s">
+      <c r="D37" s="80"/>
+      <c r="E37" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="37" t="s">
@@ -3161,16 +3205,16 @@
         <f ca="1">B37+2</f>
         <v>43897</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="70" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="37" t="s">
@@ -3179,16 +3223,16 @@
       <c r="B39" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="79" t="s">
+      <c r="D39" s="88"/>
+      <c r="E39" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="37" t="s">
@@ -3197,12 +3241,12 @@
       <c r="B40" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="37" t="s">
@@ -3211,36 +3255,36 @@
       <c r="B41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="95" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="90" t="s">
+      <c r="H42" s="71" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="39" t="s">
         <v>59</v>
       </c>
@@ -3253,8 +3297,8 @@
       <c r="F43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="38"/>
@@ -3267,7 +3311,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="91">
+      <c r="G44" s="104">
         <f>SUM(E44:E47)</f>
         <v>0</v>
       </c>
@@ -3287,7 +3331,7 @@
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="92"/>
+      <c r="G45" s="105"/>
       <c r="H45" s="49">
         <f>E45*F45</f>
         <v>0</v>
@@ -3304,7 +3348,7 @@
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="92"/>
+      <c r="G46" s="105"/>
       <c r="H46" s="49">
         <f>E46*F46</f>
         <v>0</v>
@@ -3321,7 +3365,7 @@
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="93"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="49">
         <f>E47*F47</f>
         <v>0</v>
@@ -3354,10 +3398,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="46">
         <f>SUM(C44:C48)</f>
         <v>0</v>
@@ -3387,6 +3431,10 @@
     <protectedRange sqref="H48" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3402,10 +3450,6 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G44:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -3480,12 +3524,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="180" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3495,104 +3539,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="121"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="142">
+      <c r="C4" s="176"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="189">
         <f ca="1">記入!B37</f>
         <v>43895</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="144"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="191"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="119" t="s">
+      <c r="C5" s="176"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="138"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="133">
+      <c r="G6" s="170"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="181">
         <f ca="1">記入!B38</f>
         <v>43897</v>
       </c>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="135"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="183"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="136" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="185"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="141"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="188"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3603,76 +3647,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="184" t="s">
+      <c r="K9" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="119" t="s">
+      <c r="L9" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="188" t="str">
+      <c r="M9" s="137"/>
+      <c r="N9" s="134" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="189"/>
+      <c r="O9" s="135"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="146" t="str">
+      <c r="C10" s="158" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="119" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155" t="str">
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="187" t="str">
+      <c r="K11" s="133" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="185" t="str">
+      <c r="L11" s="131" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="186"/>
-      <c r="N11" s="171" t="str">
+      <c r="M11" s="132"/>
+      <c r="N11" s="142" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="172"/>
+      <c r="O11" s="143"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3683,44 +3727,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="174" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="176"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="147"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="152" t="str">
+      <c r="C13" s="164" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="185" t="str">
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="131" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="186"/>
-      <c r="N13" s="171" t="str">
+      <c r="M13" s="132"/>
+      <c r="N13" s="142" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="172"/>
+      <c r="O13" s="143"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="157" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3738,7 +3782,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="145"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3756,7 +3800,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="145"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3775,7 +3819,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="145"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3794,7 +3838,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="145"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3813,7 +3857,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="145"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3829,7 +3873,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="145"/>
+      <c r="B20" s="157"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3847,219 +3891,219 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="145"/>
+      <c r="B21" s="157"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="159"/>
-      <c r="F21" s="177" t="str">
+      <c r="E21" s="117"/>
+      <c r="F21" s="109" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="145"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="145"/>
+      <c r="B23" s="157"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="177" t="str">
+      <c r="E23" s="117"/>
+      <c r="F23" s="109" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="145"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="145"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="177" t="str">
+      <c r="E25" s="117"/>
+      <c r="F25" s="109" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="145"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="145"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="160"/>
-      <c r="F27" s="180">
+      <c r="E27" s="148"/>
+      <c r="F27" s="151">
         <f>記入!B14</f>
         <v>0</v>
       </c>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="158" t="s">
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="182">
+      <c r="J27" s="153">
         <f>記入!B15</f>
         <v>0</v>
       </c>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="183"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="154"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="145"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="183"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="154"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="145"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="162"/>
-      <c r="F29" s="161" t="s">
+      <c r="E29" s="123"/>
+      <c r="F29" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="162"/>
-      <c r="H29" s="201" t="s">
+      <c r="G29" s="123"/>
+      <c r="H29" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="190" t="s">
+      <c r="I29" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="K29" s="203" t="s">
+      <c r="J29" s="108"/>
+      <c r="K29" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="162"/>
-      <c r="M29" s="161" t="s">
+      <c r="L29" s="123"/>
+      <c r="M29" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="162"/>
+      <c r="N29" s="123"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="145"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="202"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="165"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="178" t="str">
+      <c r="K30" s="124"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="149" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="179"/>
+      <c r="N30" s="150"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="145"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="177">
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="109">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G31" s="177"/>
+      <c r="G31" s="109"/>
       <c r="H31" s="40">
         <f>記入!B44</f>
         <v>0</v>
@@ -4072,28 +4116,28 @@
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K31" s="192">
+      <c r="K31" s="110">
         <f>記入!G44</f>
         <v>0</v>
       </c>
-      <c r="L31" s="193"/>
-      <c r="M31" s="170">
+      <c r="L31" s="111"/>
+      <c r="M31" s="116">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N31" s="170"/>
+      <c r="N31" s="116"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="145"/>
+      <c r="B32" s="157"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="177">
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="109">
         <f>記入!A45</f>
         <v>0</v>
       </c>
-      <c r="G32" s="177"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="40">
         <f>記入!B45</f>
         <v>0</v>
@@ -4106,25 +4150,25 @@
         <f>記入!E45</f>
         <v>0</v>
       </c>
-      <c r="K32" s="194"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="170">
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="116">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N32" s="170"/>
+      <c r="N32" s="116"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="145"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="177">
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="109">
         <f>記入!A46</f>
         <v>0</v>
       </c>
-      <c r="G33" s="177"/>
+      <c r="G33" s="109"/>
       <c r="H33" s="40">
         <f>記入!B46</f>
         <v>0</v>
@@ -4137,25 +4181,25 @@
         <f>記入!E46</f>
         <v>0</v>
       </c>
-      <c r="K33" s="194"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="170">
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="116">
         <f>記入!H46</f>
         <v>0</v>
       </c>
-      <c r="N33" s="170"/>
+      <c r="N33" s="116"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="145"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="177">
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="109">
         <f>記入!A47</f>
         <v>0</v>
       </c>
-      <c r="G34" s="177"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="40">
         <f>記入!B47</f>
         <v>0</v>
@@ -4168,25 +4212,25 @@
         <f>記入!E47</f>
         <v>0</v>
       </c>
-      <c r="K34" s="196"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="170">
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116">
         <f>記入!H47</f>
         <v>0</v>
       </c>
-      <c r="N34" s="170"/>
+      <c r="N34" s="116"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="145"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="177" t="str">
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="109" t="str">
         <f>記入!A48</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="177"/>
+      <c r="G35" s="109"/>
       <c r="H35" s="40" t="str">
         <f>記入!B48</f>
         <v>-</v>
@@ -4199,28 +4243,28 @@
         <f>記入!E48</f>
         <v>-</v>
       </c>
-      <c r="K35" s="177" t="str">
+      <c r="K35" s="109" t="str">
         <f>記入!G48</f>
         <v>-</v>
       </c>
-      <c r="L35" s="177"/>
-      <c r="M35" s="170">
+      <c r="L35" s="109"/>
+      <c r="M35" s="116">
         <f>記入!H48</f>
         <v>10000</v>
       </c>
-      <c r="N35" s="170"/>
+      <c r="N35" s="116"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="145"/>
+      <c r="B36" s="157"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="159" t="s">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4228,143 +4272,143 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="159">
+      <c r="K36" s="117">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="159"/>
-      <c r="M36" s="173">
+      <c r="L36" s="117"/>
+      <c r="M36" s="144">
         <f>SUM(M31:N35)</f>
         <v>10000</v>
       </c>
-      <c r="N36" s="173"/>
+      <c r="N36" s="144"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="145"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="160" t="s">
+      <c r="D37" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="160"/>
-      <c r="F37" s="190" t="s">
+      <c r="E37" s="148"/>
+      <c r="F37" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="160" t="str">
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="148" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="145"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="159" t="str">
+      <c r="D38" s="117" t="str">
         <f>記入!A29</f>
-        <v/>
-      </c>
-      <c r="E38" s="159"/>
-      <c r="F38" s="199" t="str">
+        <v>第一回</v>
+      </c>
+      <c r="E38" s="117"/>
+      <c r="F38" s="119" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
-        <v/>
-      </c>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="170" t="str">
+        <v>${r.supportdate}</v>
+      </c>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="116" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
-        <v/>
-      </c>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170"/>
+        <v>${r.claimamount}</v>
+      </c>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="145"/>
+      <c r="B39" s="157"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="159" t="str">
+      <c r="D39" s="117" t="str">
         <f>記入!A30</f>
         <v/>
       </c>
-      <c r="E39" s="159"/>
-      <c r="F39" s="199" t="str">
+      <c r="E39" s="117"/>
+      <c r="F39" s="119" t="str">
         <f>IF(記入!E30="","",記入!E30)</f>
         <v/>
       </c>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="170" t="str">
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="116" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v/>
       </c>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="145"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="159" t="str">
+      <c r="D40" s="117" t="str">
         <f>記入!A31</f>
         <v/>
       </c>
-      <c r="E40" s="159"/>
-      <c r="F40" s="199" t="str">
+      <c r="E40" s="117"/>
+      <c r="F40" s="119" t="str">
         <f>IF(記入!E31="","",記入!E31)</f>
         <v/>
       </c>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="170" t="str">
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="116" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v/>
       </c>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="145"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="159" t="str">
+      <c r="D41" s="117" t="str">
         <f>記入!A32</f>
         <v/>
       </c>
-      <c r="E41" s="159"/>
-      <c r="F41" s="199" t="str">
+      <c r="E41" s="117"/>
+      <c r="F41" s="119" t="str">
         <f>IF(記入!E32="","",記入!E32)</f>
         <v/>
       </c>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="170" t="str">
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="116" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v/>
       </c>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="145"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4372,18 +4416,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="167">
+      <c r="J42" s="139">
         <f>SUM(J38:N41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="169"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="141"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="145"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4401,13 +4445,13 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="145"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="137" t="s">
+      <c r="E44" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="137"/>
+      <c r="F44" s="167"/>
       <c r="G44" s="20" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4422,13 +4466,13 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="145"/>
+      <c r="B45" s="157"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="137" t="s">
+      <c r="E45" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="137"/>
+      <c r="F45" s="167"/>
       <c r="G45" s="20" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4443,7 +4487,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="145"/>
+      <c r="B46" s="157"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="52"/>
@@ -4459,122 +4503,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="145"/>
+      <c r="B47" s="157"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="109" t="str">
+      <c r="G47" s="194" t="str">
         <f>記入!E35</f>
         <v>無</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109" t="s">
+      <c r="H47" s="194"/>
+      <c r="I47" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="194"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="145"/>
+      <c r="B48" s="157"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="109" t="s">
+      <c r="G48" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="109"/>
-      <c r="I48" s="116" t="str">
+      <c r="H48" s="194"/>
+      <c r="I48" s="201" t="str">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="118"/>
+      <c r="J48" s="202"/>
+      <c r="K48" s="202"/>
+      <c r="L48" s="202"/>
+      <c r="M48" s="202"/>
+      <c r="N48" s="203"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="145"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="111" t="s">
+      <c r="G49" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="113" t="str">
+      <c r="H49" s="197"/>
+      <c r="I49" s="198" t="str">
         <f>IF(G47="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J49" s="114"/>
+      <c r="J49" s="199"/>
       <c r="K49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="115" t="str">
+      <c r="L49" s="200" t="str">
         <f>IF(G47="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M49" s="114"/>
-      <c r="N49" s="112"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="197"/>
       <c r="O49" s="17"/>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="145"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="109" t="s">
+      <c r="G50" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="109"/>
-      <c r="I50" s="110" t="str">
+      <c r="H50" s="194"/>
+      <c r="I50" s="195" t="str">
         <f>IF(G47="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
+      <c r="J50" s="195"/>
+      <c r="K50" s="195"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="195"/>
       <c r="O50" s="17"/>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="145"/>
+      <c r="B51" s="157"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="109" t="s">
+      <c r="G51" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="109"/>
-      <c r="I51" s="110" t="str">
+      <c r="H51" s="194"/>
+      <c r="I51" s="195" t="str">
         <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="195"/>
       <c r="O51" s="17"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="145"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="52"/>
@@ -4593,7 +4637,7 @@
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="145"/>
+      <c r="B53" s="157"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="52"/>
@@ -4612,7 +4656,7 @@
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="145"/>
+      <c r="B54" s="157"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="59"/>
@@ -4629,212 +4673,212 @@
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="145"/>
+      <c r="B55" s="157"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="107" t="str">
+      <c r="F55" s="192" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="192"/>
+      <c r="K55" s="192"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="192"/>
       <c r="O55" s="17"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="145"/>
+      <c r="B56" s="157"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="193"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="193"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="145"/>
-      <c r="C57" s="157" t="s">
+      <c r="B57" s="157"/>
+      <c r="C57" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157" t="s">
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157" t="s">
+      <c r="G57" s="156"/>
+      <c r="H57" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157" t="s">
+      <c r="I57" s="156"/>
+      <c r="J57" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157" t="s">
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="145"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="145"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="145"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="145"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="145"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="145"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="155"/>
+      <c r="O63" s="155"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="145"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="156"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
+      <c r="N64" s="155"/>
+      <c r="O64" s="155"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="145"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="156"/>
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="155"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="145"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="156"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="155"/>
+      <c r="O66" s="155"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">
@@ -4843,35 +4887,62 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="F55:N56"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B14:B66"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F61:G63"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H61:I63"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="H64:I66"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F58:G60"/>
+    <mergeCell ref="H58:I60"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E36"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M64:O66"/>
+    <mergeCell ref="C57:E66"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J61:L63"/>
+    <mergeCell ref="J64:L66"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="M61:O63"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="J38:N38"/>
     <mergeCell ref="J39:N39"/>
@@ -4896,62 +4967,35 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="B14:B66"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F61:G63"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H61:I63"/>
-    <mergeCell ref="F64:G66"/>
-    <mergeCell ref="H64:I66"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -52,7 +52,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="ba1", var="r", lastCell="F32")</t>
+          <t>jx:each(items="num", var="r", lastCell="F29")</t>
         </r>
       </text>
     </comment>
@@ -1201,9 +1201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無</t>
-  </si>
-  <si>
     <t>5．備考</t>
     <rPh sb="2" eb="4">
       <t>ビコウ</t>
@@ -1231,81 +1228,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${aw.pjnamechinese}</t>
+  </si>
+  <si>
+    <t>${aw.user_id}</t>
+  </si>
+  <si>
+    <t>${aw.currencyposition}</t>
+  </si>
+  <si>
+    <t>${aw.claimamount}</t>
+  </si>
+  <si>
+    <t>${aw.telephone}</t>
+  </si>
+  <si>
+    <t>${aw.commdepartment}</t>
+  </si>
+  <si>
+    <t>${aw.commission}</t>
+  </si>
+  <si>
+    <t>${aw.plan}</t>
+  </si>
+  <si>
+    <t>${aw.valuation}</t>
+  </si>
+  <si>
+    <t>${aw.individual}</t>
+  </si>
+  <si>
+    <t>${r.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.custochinese}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.placejapanese}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.placechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.pjnamejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.custojapanese}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.deployment}</t>
-  </si>
-  <si>
-    <t>${aw.pjnamejapanese}</t>
-  </si>
-  <si>
-    <t>${aw.pjnamechinese}</t>
-  </si>
-  <si>
-    <t>${aw.user_id}</t>
-  </si>
-  <si>
-    <t>${aw.currencyposition}</t>
-  </si>
-  <si>
-    <t>${aw.claimamount}</t>
-  </si>
-  <si>
-    <t>${aw.telephone}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.remarks}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.equipment}</t>
-  </si>
-  <si>
-    <t>${aw.commdepartment}</t>
-  </si>
-  <si>
-    <t>${aw.commission}</t>
-  </si>
-  <si>
-    <t>${aw.plan}</t>
-  </si>
-  <si>
-    <t>${aw.remarks}</t>
-  </si>
-  <si>
-    <t>${aw.valuation}</t>
-  </si>
-  <si>
-    <t>${aw.individual}</t>
-  </si>
-  <si>
-    <t>${aw.custojapanese}</t>
-  </si>
-  <si>
-    <t>${aw.deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.extrinsic}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1552,7 +1561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1769,28 +1778,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1805,7 +1792,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,13 +1991,82 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,12 +2081,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2046,75 +2096,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2405,6 +2386,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2715,9 +2705,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2732,28 +2722,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="G1" s="73" t="s">
+      <c r="B1" s="94"/>
+      <c r="G1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="62" t="s">
@@ -2763,21 +2753,21 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
@@ -2787,34 +2777,34 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
@@ -2824,61 +2814,61 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="62" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="61" t="s">
@@ -2888,8 +2878,8 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="61" t="s">
@@ -2899,8 +2889,8 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="61" t="s">
@@ -2910,8 +2900,8 @@
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -2921,21 +2911,21 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -2945,34 +2935,34 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
@@ -2982,8 +2972,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
@@ -2993,8 +2983,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="62" t="s">
@@ -3004,8 +2994,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="62" t="s">
@@ -3015,8 +3005,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="62" t="s">
@@ -3028,8 +3018,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="62" t="s">
@@ -3041,14 +3031,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
@@ -3069,8 +3059,8 @@
       <c r="F28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="66" t="str">
@@ -3078,230 +3068,244 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="53" t="s">
+      <c r="F29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
+    </row>
+    <row r="30" spans="1:8" ht="6.75" customHeight="1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="202" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="204"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="66" t="str">
-        <f>IF(B30="","","第二回")</f>
-        <v/>
-      </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="66" t="str">
-        <f>IF(B31="","","第三回")</f>
-        <v/>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="66" t="str">
-        <f>IF(B32="","","第四回")</f>
-        <v/>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-    </row>
-    <row r="33" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="36" t="s">
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B34" s="47">
         <f ca="1">TODAY()</f>
         <v>43895</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C34" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81" t="s">
-        <v>127</v>
-      </c>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="A35" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="47">
+        <f ca="1">B34+2</f>
+        <v>43897</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="100"/>
+      <c r="E35" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A37" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5">
+      <c r="H37" s="82"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A38" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="47">
-        <f ca="1">B37+2</f>
-        <v>43897</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A39" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="14.25">
+      <c r="A39" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D39" s="88"/>
-      <c r="E39" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A40" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="72" t="s">
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H39" s="90" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="40" spans="1:8" ht="14.25">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="38"/>
+      <c r="C41" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="91">
+        <f>SUM(E41:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="49">
+        <f>E41*F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="49">
+        <f>E42*F42</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="49">
+        <f>E43*F43</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
         <v>88</v>
@@ -3311,156 +3315,99 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="104">
-        <f>SUM(E44:E47)</f>
-        <v>0</v>
-      </c>
+      <c r="G44" s="93"/>
       <c r="H44" s="49">
         <f>E44*F44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="C45" s="40" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="49">
-        <f>E45*F45</f>
+        <v>63</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="86"/>
+      <c r="C46" s="46">
+        <f>SUM(C41:C45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="49">
-        <f>E46*F46</f>
+      <c r="D46" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="46">
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="49">
-        <f>E47*F47</f>
+      <c r="F46" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="46">
+        <f>SUM(G41:G45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="50">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="46">
-        <f>SUM(C44:C48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="46">
-        <f>SUM(E44:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="46">
-        <f>SUM(G44:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="51">
-        <f>SUM(H44:H48)</f>
+      <c r="H46" s="51">
+        <f>SUM(H41:H45)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A44:F47" name="範囲3"/>
-    <protectedRange sqref="H48" name="範囲4"/>
+    <protectedRange sqref="A41:A44 C41:F44 B42:B44" name="範囲3"/>
+    <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G44:G47"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="E39:H41"/>
+    <mergeCell ref="C36:D38"/>
+    <mergeCell ref="E36:H38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G41:G44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
       <formula1>"内,外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38">
       <formula1>"和文1通,無し"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
-      <formula1>"有,無"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3524,12 +3471,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="180" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="178" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3539,104 +3486,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="136" t="s">
+      <c r="L3" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="138"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="189">
-        <f ca="1">記入!B37</f>
+      <c r="C4" s="174"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="187">
+        <f ca="1">記入!B34</f>
         <v>43895</v>
       </c>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="191"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="189"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="136" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="138"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="180" t="s">
+      <c r="C6" s="174"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="181">
-        <f ca="1">記入!B38</f>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="179">
+        <f ca="1">記入!B35</f>
         <v>43897</v>
       </c>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="183"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="184" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="185"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="188"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="186"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3647,76 +3594,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="129" t="s">
+      <c r="I9" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="129" t="s">
+      <c r="J9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="130" t="s">
+      <c r="K9" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="136" t="s">
+      <c r="L9" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="134" t="str">
-        <f>記入!B39</f>
+      <c r="M9" s="135"/>
+      <c r="N9" s="132" t="str">
+        <f>記入!B36</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="135"/>
+      <c r="O9" s="133"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="158" t="str">
+      <c r="C10" s="156" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="136" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="138"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129" t="str">
-        <f>記入!B35</f>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127" t="str">
+        <f>記入!B32</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="133" t="str">
-        <f>記入!B36</f>
+      <c r="K11" s="131" t="str">
+        <f>記入!B33</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="131" t="str">
+      <c r="L11" s="129" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="142" t="str">
+      <c r="M11" s="130"/>
+      <c r="N11" s="140" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="143"/>
+      <c r="O11" s="141"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3727,44 +3674,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="145" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="147"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="145"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="164" t="str">
+      <c r="C13" s="162" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="131" t="str">
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="129" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="142" t="str">
+      <c r="M13" s="130"/>
+      <c r="N13" s="140" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="143"/>
+      <c r="O13" s="141"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="155" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3782,7 +3729,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="157"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3800,7 +3747,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="157"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3819,7 +3766,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="157"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3838,7 +3785,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="157"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3857,7 +3804,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="157"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3873,7 +3820,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="157"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3891,380 +3838,380 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="157"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="109" t="str">
+      <c r="E21" s="115"/>
+      <c r="F21" s="107" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="157"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="157"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="109" t="str">
+      <c r="E23" s="115"/>
+      <c r="F23" s="107" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="157"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="157"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="109" t="str">
+      <c r="E25" s="115"/>
+      <c r="F25" s="107" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="157"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="157"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="151">
+      <c r="E27" s="146"/>
+      <c r="F27" s="149">
         <f>記入!B14</f>
         <v>0</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="120" t="s">
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="153">
+      <c r="J27" s="151">
         <f>記入!B15</f>
         <v>0</v>
       </c>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="157"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="154"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="152"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="157"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="122" t="s">
+      <c r="E29" s="121"/>
+      <c r="F29" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="126" t="s">
+      <c r="G29" s="121"/>
+      <c r="H29" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="128" t="s">
+      <c r="J29" s="106"/>
+      <c r="K29" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="123"/>
-      <c r="M29" s="122" t="s">
+      <c r="L29" s="121"/>
+      <c r="M29" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="123"/>
+      <c r="N29" s="121"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="157"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="127"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="149" t="str">
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="147" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="150"/>
+      <c r="N30" s="148"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="157"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="109">
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="107">
+        <f>記入!A41</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="107"/>
+      <c r="H31" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="40" t="str">
+        <f>記入!C41</f>
+        <v>-</v>
+      </c>
+      <c r="J31" s="40">
+        <f>記入!E41</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="108">
+        <f>記入!G41</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="109"/>
+      <c r="M31" s="114">
+        <f>記入!H41</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="114"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B32" s="155"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="107">
+        <f>記入!A42</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="107"/>
+      <c r="H32" s="40">
+        <f>記入!B42</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="40" t="str">
+        <f>記入!C42</f>
+        <v>-</v>
+      </c>
+      <c r="J32" s="40">
+        <f>記入!E42</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="114">
+        <f>記入!H42</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="114"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B33" s="155"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="107">
+        <f>記入!A43</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="40">
+        <f>記入!B43</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="40" t="str">
+        <f>記入!C43</f>
+        <v>-</v>
+      </c>
+      <c r="J33" s="40">
+        <f>記入!E43</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="114">
+        <f>記入!H43</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="114"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B34" s="155"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="107">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G31" s="109"/>
-      <c r="H31" s="40">
+      <c r="G34" s="107"/>
+      <c r="H34" s="40">
         <f>記入!B44</f>
         <v>0</v>
       </c>
-      <c r="I31" s="40" t="str">
+      <c r="I34" s="40" t="str">
         <f>記入!C44</f>
         <v>-</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J34" s="40">
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K31" s="110">
-        <f>記入!G44</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="111"/>
-      <c r="M31" s="116">
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="114">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N31" s="116"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="157"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="109">
+      <c r="N34" s="114"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B35" s="155"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="107" t="str">
         <f>記入!A45</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="40">
+        <v>経費</v>
+      </c>
+      <c r="G35" s="107"/>
+      <c r="H35" s="40" t="str">
         <f>記入!B45</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="40" t="str">
+        <v>-</v>
+      </c>
+      <c r="I35" s="40" t="str">
         <f>記入!C45</f>
         <v>-</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J35" s="40" t="str">
         <f>記入!E45</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="116">
+        <v>-</v>
+      </c>
+      <c r="K35" s="107" t="str">
+        <f>記入!G45</f>
+        <v>-</v>
+      </c>
+      <c r="L35" s="107"/>
+      <c r="M35" s="114">
         <f>記入!H45</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="109">
-        <f>記入!A46</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="109"/>
-      <c r="H33" s="40">
-        <f>記入!B46</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="40" t="str">
-        <f>記入!C46</f>
-        <v>-</v>
-      </c>
-      <c r="J33" s="40">
-        <f>記入!E46</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="116">
-        <f>記入!H46</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="116"/>
-      <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="157"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="109">
-        <f>記入!A47</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="109"/>
-      <c r="H34" s="40">
-        <f>記入!B47</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="40" t="str">
-        <f>記入!C47</f>
-        <v>-</v>
-      </c>
-      <c r="J34" s="40">
-        <f>記入!E47</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="116">
-        <f>記入!H47</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="157"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="109" t="str">
-        <f>記入!A48</f>
-        <v>経費</v>
-      </c>
-      <c r="G35" s="109"/>
-      <c r="H35" s="40" t="str">
-        <f>記入!B48</f>
-        <v>-</v>
-      </c>
-      <c r="I35" s="40" t="str">
-        <f>記入!C48</f>
-        <v>-</v>
-      </c>
-      <c r="J35" s="40" t="str">
-        <f>記入!E48</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="109" t="str">
-        <f>記入!G48</f>
-        <v>-</v>
-      </c>
-      <c r="L35" s="109"/>
-      <c r="M35" s="116">
-        <f>記入!H48</f>
         <v>10000</v>
       </c>
-      <c r="N35" s="116"/>
+      <c r="N35" s="114"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="157"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="117" t="s">
+      <c r="D36" s="122"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4272,143 +4219,143 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="117">
+      <c r="K36" s="115">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="144">
+      <c r="L36" s="115"/>
+      <c r="M36" s="142">
         <f>SUM(M31:N35)</f>
         <v>10000</v>
       </c>
-      <c r="N36" s="144"/>
+      <c r="N36" s="142"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="157"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="148" t="s">
+      <c r="D37" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="148"/>
-      <c r="F37" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="148" t="str">
+      <c r="E37" s="146"/>
+      <c r="F37" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="146" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="157"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="117" t="str">
+      <c r="D38" s="115" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E38" s="117"/>
-      <c r="F38" s="119" t="str">
+      <c r="E38" s="115"/>
+      <c r="F38" s="117" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="116" t="str">
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="114" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="157"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="117" t="str">
-        <f>記入!A30</f>
-        <v/>
-      </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="119" t="str">
-        <f>IF(記入!E30="","",記入!E30)</f>
-        <v/>
-      </c>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="116" t="str">
-        <f>IF(記入!F30="","",記入!F30)</f>
-        <v/>
-      </c>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
+      <c r="D39" s="115" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="115"/>
+      <c r="F39" s="117" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="114" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="157"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="117" t="str">
-        <f>記入!A31</f>
-        <v/>
-      </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="119" t="str">
-        <f>IF(記入!E31="","",記入!E31)</f>
-        <v/>
-      </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="116" t="str">
-        <f>IF(記入!F31="","",記入!F31)</f>
-        <v/>
-      </c>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
+      <c r="D40" s="115" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="115"/>
+      <c r="F40" s="117" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="114" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="157"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="117" t="str">
-        <f>記入!A32</f>
-        <v/>
-      </c>
-      <c r="E41" s="117"/>
-      <c r="F41" s="119" t="str">
-        <f>IF(記入!E32="","",記入!E32)</f>
-        <v/>
-      </c>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="116" t="str">
-        <f>IF(記入!F32="","",記入!F32)</f>
-        <v/>
-      </c>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
+      <c r="D41" s="115" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="115"/>
+      <c r="F41" s="117" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="114" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="157"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4416,18 +4363,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="139">
+      <c r="J42" s="137" t="e">
         <f>SUM(J38:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="141"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="139"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="157"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4445,15 +4392,15 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="157"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="167" t="s">
+      <c r="E44" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="167"/>
+      <c r="F44" s="165"/>
       <c r="G44" s="20" t="str">
-        <f>記入!B40</f>
+        <f>記入!B37</f>
         <v>${aw.valuation}</v>
       </c>
       <c r="H44" s="25"/>
@@ -4466,15 +4413,15 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="157"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="167" t="s">
+      <c r="E45" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="167"/>
+      <c r="F45" s="165"/>
       <c r="G45" s="20" t="str">
-        <f>記入!B41</f>
+        <f>記入!B38</f>
         <v>${aw.individual}</v>
       </c>
       <c r="H45" s="25"/>
@@ -4487,7 +4434,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="157"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="52"/>
@@ -4503,122 +4450,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="157"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="194" t="str">
-        <f>記入!E35</f>
-        <v>無</v>
-      </c>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194" t="s">
+      <c r="G47" s="192" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="194"/>
-      <c r="K47" s="194"/>
-      <c r="L47" s="194"/>
-      <c r="M47" s="194"/>
-      <c r="N47" s="194"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="157"/>
+      <c r="B48" s="155"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="194" t="s">
+      <c r="G48" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="194"/>
-      <c r="I48" s="201" t="str">
+      <c r="H48" s="192"/>
+      <c r="I48" s="199" t="e">
         <f>IF(G47="有",記入!B7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J48" s="202"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="202"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="203"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="201"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="157"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="196" t="s">
+      <c r="G49" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="197"/>
-      <c r="I49" s="198" t="str">
+      <c r="H49" s="195"/>
+      <c r="I49" s="196" t="e">
         <f>IF(G47="有",F27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J49" s="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J49" s="197"/>
       <c r="K49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="200" t="str">
+      <c r="L49" s="198" t="e">
         <f>IF(G47="有",J27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M49" s="199"/>
-      <c r="N49" s="197"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="197"/>
+      <c r="N49" s="195"/>
       <c r="O49" s="17"/>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="157"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="194" t="s">
+      <c r="G50" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="194"/>
-      <c r="I50" s="195" t="str">
-        <f>IF(G47="有",記入!E36,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="195"/>
-      <c r="N50" s="195"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193" t="e">
+        <f>IF(G47="有",記入!E33,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J50" s="193"/>
+      <c r="K50" s="193"/>
+      <c r="L50" s="193"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="193"/>
       <c r="O50" s="17"/>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="157"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="194" t="s">
+      <c r="G51" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="194"/>
-      <c r="I51" s="195" t="str">
-        <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195"/>
-      <c r="N51" s="195"/>
+      <c r="H51" s="192"/>
+      <c r="I51" s="193" t="e">
+        <f>IF(G47="有",記入!E34&amp;記入!E35,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J51" s="193"/>
+      <c r="K51" s="193"/>
+      <c r="L51" s="193"/>
+      <c r="M51" s="193"/>
+      <c r="N51" s="193"/>
       <c r="O51" s="17"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="157"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="52"/>
@@ -4637,7 +4584,7 @@
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="157"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="52"/>
@@ -4656,7 +4603,7 @@
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="157"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="59"/>
@@ -4673,212 +4620,212 @@
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="157"/>
+      <c r="B55" s="155"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="192" t="str">
-        <f>記入!E39</f>
+      <c r="F55" s="190" t="str">
+        <f>記入!E36</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="192"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="192"/>
-      <c r="K55" s="192"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="192"/>
-      <c r="N55" s="192"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="190"/>
       <c r="O55" s="17"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="157"/>
+      <c r="B56" s="155"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="193"/>
-      <c r="L56" s="193"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="193"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="191"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="157"/>
-      <c r="C57" s="156" t="s">
+      <c r="B57" s="155"/>
+      <c r="C57" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156" t="s">
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156" t="s">
+      <c r="G57" s="154"/>
+      <c r="H57" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156" t="s">
+      <c r="I57" s="154"/>
+      <c r="J57" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156" t="s">
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="157"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="153"/>
+      <c r="O58" s="153"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="157"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="153"/>
+      <c r="O59" s="153"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="157"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="153"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="157"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
+      <c r="O61" s="153"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="157"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
-      <c r="N62" s="155"/>
-      <c r="O62" s="155"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="157"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="155"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="155"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="153"/>
+      <c r="O63" s="153"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="157"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
-      <c r="N64" s="155"/>
-      <c r="O64" s="155"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="153"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="157"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
+      <c r="N65" s="153"/>
+      <c r="O65" s="153"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="157"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="155"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="153"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -56,6 +56,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="A41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(items="alist", var="t", lastCell="F41")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -85,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1290,31 +1304,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${r.completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${r.supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.equipment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.extrinsic}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${r.deliverydate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.equipment}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.extrinsic}</t>
+    <t>${t.budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outcommunity}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1792,7 +1822,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1991,6 +2021,75 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2036,66 +2135,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,14 +2426,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2707,8 +2743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2722,14 +2758,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="79"/>
+      <c r="G1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="97"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
@@ -2742,8 +2778,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="62" t="s">
@@ -2753,8 +2789,8 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
@@ -2766,8 +2802,8 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
@@ -2777,8 +2813,8 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="63" t="s">
@@ -2790,8 +2826,8 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="63" t="s">
@@ -2803,8 +2839,8 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
@@ -2814,8 +2850,8 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -2828,8 +2864,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
@@ -2841,8 +2877,8 @@
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
@@ -2854,8 +2890,8 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="61" t="s">
@@ -2867,8 +2903,8 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="61" t="s">
@@ -2878,8 +2914,8 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="61" t="s">
@@ -2889,8 +2925,8 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="61" t="s">
@@ -2900,8 +2936,8 @@
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -2911,8 +2947,8 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="61" t="s">
@@ -2924,8 +2960,8 @@
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -2935,8 +2971,8 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="61" t="s">
@@ -2948,8 +2984,8 @@
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="61" t="s">
@@ -2961,8 +2997,8 @@
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
@@ -2972,8 +3008,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
@@ -2983,8 +3019,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="62" t="s">
@@ -2994,8 +3030,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="62" t="s">
@@ -3005,8 +3041,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="62" t="s">
@@ -3018,8 +3054,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="62" t="s">
@@ -3031,14 +3067,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
@@ -3059,8 +3095,8 @@
       <c r="F28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="66" t="str">
@@ -3068,22 +3104,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="E29" s="53" t="s">
         <v>135</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>136</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -3100,16 +3136,16 @@
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="202" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="204"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="36" t="s">
@@ -3118,16 +3154,16 @@
       <c r="B33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="36" t="s">
@@ -3137,16 +3173,16 @@
         <f ca="1">TODAY()</f>
         <v>43895</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102" t="s">
+      <c r="D34" s="86"/>
+      <c r="E34" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="1:8" ht="13.5">
       <c r="A35" s="37" t="s">
@@ -3156,16 +3192,16 @@
         <f ca="1">B34+2</f>
         <v>43897</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="95"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A36" s="37" t="s">
@@ -3174,16 +3210,16 @@
       <c r="B36" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A37" s="37" t="s">
@@ -3192,12 +3228,12 @@
       <c r="B37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A38" s="37" t="s">
@@ -3206,36 +3242,36 @@
       <c r="B38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="95" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="39" t="s">
         <v>59</v>
       </c>
@@ -3248,26 +3284,35 @@
       <c r="F40" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="205" t="s">
+        <v>141</v>
+      </c>
       <c r="C41" s="40" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="91">
+      <c r="E41" s="206" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="206" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="76">
         <f>SUM(E41:E44)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="49" t="e">
         <f>E41*F41</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
@@ -3281,7 +3326,7 @@
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="92"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="49">
         <f>E42*F42</f>
         <v>0</v>
@@ -3298,7 +3343,7 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="92"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="49">
         <f>E43*F43</f>
         <v>0</v>
@@ -3315,7 +3360,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="93"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="49">
         <f>E44*F44</f>
         <v>0</v>
@@ -3348,10 +3393,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="46">
         <f>SUM(C41:C45)</f>
         <v>0</v>
@@ -3370,9 +3415,9 @@
         <f>SUM(G41:G45)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="51" t="e">
         <f>SUM(H41:H45)</f>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3381,6 +3426,13 @@
     <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D38"/>
+    <mergeCell ref="E36:H38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G41:G44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="G39:G40"/>
@@ -3393,13 +3445,6 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D38"/>
-    <mergeCell ref="E36:H38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G41:G44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3471,12 +3516,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="178" t="s">
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="181" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3486,104 +3531,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="134" t="s">
+      <c r="L3" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="187">
+      <c r="C4" s="177"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="190">
         <f ca="1">記入!B34</f>
         <v>43895</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="189"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="192"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="134" t="s">
+      <c r="C5" s="177"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178" t="s">
+      <c r="C6" s="177"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="179">
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="182">
         <f ca="1">記入!B35</f>
         <v>43897</v>
       </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="181"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="182" t="s">
+      <c r="C7" s="177"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="183"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="186"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="186"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="189"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3594,76 +3639,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="134" t="s">
+      <c r="L9" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="135"/>
-      <c r="N9" s="132" t="str">
+      <c r="M9" s="138"/>
+      <c r="N9" s="135" t="str">
         <f>記入!B36</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="133"/>
+      <c r="O9" s="136"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="156" t="str">
+      <c r="C10" s="159" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="134" t="s">
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="136"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127" t="str">
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130" t="str">
         <f>記入!B32</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="131" t="str">
+      <c r="K11" s="134" t="str">
         <f>記入!B33</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="129" t="str">
+      <c r="L11" s="132" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="140" t="str">
+      <c r="M11" s="133"/>
+      <c r="N11" s="143" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="141"/>
+      <c r="O11" s="144"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3674,44 +3719,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="143" t="s">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="145"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="148"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="162" t="str">
+      <c r="C13" s="165" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="129" t="str">
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="132" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="130"/>
-      <c r="N13" s="140" t="str">
+      <c r="M13" s="133"/>
+      <c r="N13" s="143" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="141"/>
+      <c r="O13" s="144"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="158" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3729,7 +3774,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="155"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3747,7 +3792,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="155"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3766,7 +3811,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="155"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3785,7 +3830,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="155"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3804,7 +3849,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="155"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3820,7 +3865,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="155"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3838,219 +3883,219 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="155"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="107" t="str">
+      <c r="E21" s="118"/>
+      <c r="F21" s="110" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="155"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="155"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="107" t="str">
+      <c r="E23" s="118"/>
+      <c r="F23" s="110" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="155"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="155"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="107" t="str">
+      <c r="E25" s="118"/>
+      <c r="F25" s="110" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="155"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="155"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="146"/>
-      <c r="F27" s="149">
+      <c r="E27" s="149"/>
+      <c r="F27" s="152">
         <f>記入!B14</f>
         <v>0</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="118" t="s">
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="154">
         <f>記入!B15</f>
         <v>0</v>
       </c>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="155"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="152"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="155"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="155"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="120" t="s">
+      <c r="E29" s="124"/>
+      <c r="F29" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="124" t="s">
+      <c r="G29" s="124"/>
+      <c r="H29" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="106"/>
-      <c r="K29" s="126" t="s">
+      <c r="J29" s="109"/>
+      <c r="K29" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="121"/>
-      <c r="M29" s="120" t="s">
+      <c r="L29" s="124"/>
+      <c r="M29" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="121"/>
+      <c r="N29" s="124"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="155"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="125"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="128"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="147" t="str">
+      <c r="K30" s="125"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="150" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="151"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="155"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="107">
+      <c r="D31" s="169"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="110" t="str">
         <f>記入!A41</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="107"/>
+        <v>${t.budgetcode}</v>
+      </c>
+      <c r="G31" s="110"/>
       <c r="H31" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4059,32 +4104,32 @@
         <f>記入!C41</f>
         <v>-</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="40" t="str">
         <f>記入!E41</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="108">
+        <v>${t.outsource}</v>
+      </c>
+      <c r="K31" s="111">
         <f>記入!G41</f>
         <v>0</v>
       </c>
-      <c r="L31" s="109"/>
-      <c r="M31" s="114">
+      <c r="L31" s="112"/>
+      <c r="M31" s="117" t="e">
         <f>記入!H41</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="114"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="117"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="155"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="107">
+      <c r="D32" s="169"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="110">
         <f>記入!A42</f>
         <v>0</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="110"/>
       <c r="H32" s="40">
         <f>記入!B42</f>
         <v>0</v>
@@ -4097,25 +4142,25 @@
         <f>記入!E42</f>
         <v>0</v>
       </c>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="114">
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="117">
         <f>記入!H42</f>
         <v>0</v>
       </c>
-      <c r="N32" s="114"/>
+      <c r="N32" s="117"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="155"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="107">
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="110">
         <f>記入!A43</f>
         <v>0</v>
       </c>
-      <c r="G33" s="107"/>
+      <c r="G33" s="110"/>
       <c r="H33" s="40">
         <f>記入!B43</f>
         <v>0</v>
@@ -4128,25 +4173,25 @@
         <f>記入!E43</f>
         <v>0</v>
       </c>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="114">
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="117">
         <f>記入!H43</f>
         <v>0</v>
       </c>
-      <c r="N33" s="114"/>
+      <c r="N33" s="117"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="155"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="107">
+      <c r="D34" s="169"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="110">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G34" s="107"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="40">
         <f>記入!B44</f>
         <v>0</v>
@@ -4159,25 +4204,25 @@
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="114">
+      <c r="K34" s="115"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="117">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N34" s="114"/>
+      <c r="N34" s="117"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="155"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="107" t="str">
+      <c r="D35" s="169"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="110" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="107"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="40" t="str">
         <f>記入!B45</f>
         <v>-</v>
@@ -4190,28 +4235,28 @@
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="107" t="str">
+      <c r="K35" s="110" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="107"/>
-      <c r="M35" s="114">
+      <c r="L35" s="110"/>
+      <c r="M35" s="117">
         <f>記入!H45</f>
         <v>10000</v>
       </c>
-      <c r="N35" s="114"/>
+      <c r="N35" s="117"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="155"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="115" t="s">
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4219,143 +4264,143 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="115">
+      <c r="K36" s="118">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="115"/>
-      <c r="M36" s="142">
+      <c r="L36" s="118"/>
+      <c r="M36" s="145" t="e">
         <f>SUM(M31:N35)</f>
-        <v>10000</v>
-      </c>
-      <c r="N36" s="142"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="145"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="155"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="146" t="s">
+      <c r="D37" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="105" t="s">
+      <c r="E37" s="149"/>
+      <c r="F37" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="146" t="str">
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="149" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="155"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="115" t="str">
+      <c r="D38" s="118" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E38" s="115"/>
-      <c r="F38" s="117" t="str">
+      <c r="E38" s="118"/>
+      <c r="F38" s="120" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="114" t="str">
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="117" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="155"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="115" t="e">
+      <c r="D39" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="117" t="e">
+      <c r="E39" s="118"/>
+      <c r="F39" s="120" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="114" t="e">
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="155"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="115" t="e">
+      <c r="D40" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="117" t="e">
+      <c r="E40" s="118"/>
+      <c r="F40" s="120" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="114" t="e">
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="155"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="115" t="e">
+      <c r="D41" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="117" t="e">
+      <c r="E41" s="118"/>
+      <c r="F41" s="120" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="114" t="e">
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="155"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4363,18 +4408,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="137" t="e">
+      <c r="J42" s="140" t="e">
         <f>SUM(J38:N41)</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="139"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="142"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="155"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4392,13 +4437,13 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="155"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="165" t="s">
+      <c r="E44" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="165"/>
+      <c r="F44" s="168"/>
       <c r="G44" s="20" t="str">
         <f>記入!B37</f>
         <v>${aw.valuation}</v>
@@ -4413,13 +4458,13 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="155"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="165" t="s">
+      <c r="E45" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="165"/>
+      <c r="F45" s="168"/>
       <c r="G45" s="20" t="str">
         <f>記入!B38</f>
         <v>${aw.individual}</v>
@@ -4434,7 +4479,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="155"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="52"/>
@@ -4450,122 +4495,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="155"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="192" t="e">
+      <c r="G47" s="195" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192" t="s">
+      <c r="H47" s="195"/>
+      <c r="I47" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
+      <c r="J47" s="195"/>
+      <c r="K47" s="195"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="195"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="155"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="192" t="s">
+      <c r="G48" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="192"/>
-      <c r="I48" s="199" t="e">
+      <c r="H48" s="195"/>
+      <c r="I48" s="202" t="e">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="200"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="201"/>
+      <c r="J48" s="203"/>
+      <c r="K48" s="203"/>
+      <c r="L48" s="203"/>
+      <c r="M48" s="203"/>
+      <c r="N48" s="204"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="155"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="194" t="s">
+      <c r="G49" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="195"/>
-      <c r="I49" s="196" t="e">
+      <c r="H49" s="198"/>
+      <c r="I49" s="199" t="e">
         <f>IF(G47="有",F27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="197"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="198" t="e">
+      <c r="L49" s="201" t="e">
         <f>IF(G47="有",J27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="M49" s="197"/>
-      <c r="N49" s="195"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="198"/>
       <c r="O49" s="17"/>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="155"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="192" t="s">
+      <c r="G50" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193" t="e">
+      <c r="H50" s="195"/>
+      <c r="I50" s="196" t="e">
         <f>IF(G47="有",記入!E33,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="193"/>
-      <c r="K50" s="193"/>
-      <c r="L50" s="193"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="196"/>
+      <c r="M50" s="196"/>
+      <c r="N50" s="196"/>
       <c r="O50" s="17"/>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="155"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="192" t="s">
+      <c r="G51" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="192"/>
-      <c r="I51" s="193" t="e">
+      <c r="H51" s="195"/>
+      <c r="I51" s="196" t="e">
         <f>IF(G47="有",記入!E34&amp;記入!E35,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="193"/>
-      <c r="K51" s="193"/>
-      <c r="L51" s="193"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
+      <c r="M51" s="196"/>
+      <c r="N51" s="196"/>
       <c r="O51" s="17"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="155"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="52"/>
@@ -4584,7 +4629,7 @@
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="155"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="52"/>
@@ -4603,7 +4648,7 @@
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="155"/>
+      <c r="B54" s="158"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="59"/>
@@ -4620,212 +4665,212 @@
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="155"/>
+      <c r="B55" s="158"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="190" t="str">
+      <c r="F55" s="193" t="str">
         <f>記入!E36</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="190"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="190"/>
+      <c r="G55" s="193"/>
+      <c r="H55" s="193"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="193"/>
+      <c r="K55" s="193"/>
+      <c r="L55" s="193"/>
+      <c r="M55" s="193"/>
+      <c r="N55" s="193"/>
       <c r="O55" s="17"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="155"/>
+      <c r="B56" s="158"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="191"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
+      <c r="L56" s="194"/>
+      <c r="M56" s="194"/>
+      <c r="N56" s="194"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="155"/>
-      <c r="C57" s="154" t="s">
+      <c r="B57" s="158"/>
+      <c r="C57" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154" t="s">
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154" t="s">
+      <c r="G57" s="157"/>
+      <c r="H57" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154" t="s">
+      <c r="I57" s="157"/>
+      <c r="J57" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="154"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154" t="s">
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="153"/>
-      <c r="O58" s="153"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="153"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="153"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="155"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="153"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="155"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="155"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="155"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="153"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="155"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
-      <c r="N64" s="153"/>
-      <c r="O64" s="153"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="155"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="153"/>
-      <c r="N65" s="153"/>
-      <c r="O65" s="153"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="155"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="153"/>
-      <c r="O66" s="153"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1345,6 +1345,18 @@
   </si>
   <si>
     <t>${t.outcommunity}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${endtime}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2021,6 +2033,57 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,60 +2153,261 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2162,36 +2426,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,237 +2443,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2743,8 +2755,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2758,14 +2770,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="G1" s="81" t="s">
+      <c r="B1" s="96"/>
+      <c r="G1" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="82"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="61" t="s">
@@ -2778,8 +2790,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="62" t="s">
@@ -2789,8 +2801,8 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="61" t="s">
@@ -2802,8 +2814,8 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="61" t="s">
@@ -2813,8 +2825,8 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="63" t="s">
@@ -2826,8 +2838,8 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="63" t="s">
@@ -2839,8 +2851,8 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="61" t="s">
@@ -2850,8 +2862,8 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="62" t="s">
@@ -2864,8 +2876,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="61" t="s">
@@ -2877,8 +2889,8 @@
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="61" t="s">
@@ -2890,21 +2902,21 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="61" t="s">
@@ -2914,30 +2926,34 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -2947,8 +2963,8 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="61" t="s">
@@ -2960,8 +2976,8 @@
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -2971,8 +2987,8 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="61" t="s">
@@ -2984,8 +3000,8 @@
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="61" t="s">
@@ -2997,8 +3013,8 @@
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
@@ -3008,8 +3024,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="61" t="s">
@@ -3019,8 +3035,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="62" t="s">
@@ -3030,8 +3046,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="62" t="s">
@@ -3041,8 +3057,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="62" t="s">
@@ -3054,8 +3070,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="62" t="s">
@@ -3067,14 +3083,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="65" t="s">
@@ -3095,8 +3111,8 @@
       <c r="F28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="66" t="str">
@@ -3118,8 +3134,8 @@
       <c r="F29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -3136,16 +3152,16 @@
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="87" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="36" t="s">
@@ -3154,16 +3170,16 @@
       <c r="B33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="90" t="s">
+      <c r="D33" s="103"/>
+      <c r="E33" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="36" t="s">
@@ -3173,16 +3189,16 @@
         <f ca="1">TODAY()</f>
         <v>43895</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="90" t="s">
+      <c r="D34" s="103"/>
+      <c r="E34" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="1:8" ht="13.5">
       <c r="A35" s="37" t="s">
@@ -3192,16 +3208,16 @@
         <f ca="1">B34+2</f>
         <v>43897</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="93" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="95"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A36" s="37" t="s">
@@ -3210,16 +3226,16 @@
       <c r="B36" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="102" t="s">
+      <c r="D36" s="76"/>
+      <c r="E36" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A37" s="37" t="s">
@@ -3228,12 +3244,12 @@
       <c r="B37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A38" s="37" t="s">
@@ -3242,36 +3258,36 @@
       <c r="B38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="80" t="s">
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="75" t="s">
+      <c r="H39" s="92" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="39" t="s">
         <v>59</v>
       </c>
@@ -3284,14 +3300,14 @@
       <c r="F40" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="70" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="40" t="s">
@@ -3300,13 +3316,13 @@
       <c r="D41" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="206" t="s">
+      <c r="E41" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="206" t="s">
+      <c r="F41" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="93">
         <f>SUM(E41:E44)</f>
         <v>0</v>
       </c>
@@ -3326,7 +3342,7 @@
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="77"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="49">
         <f>E42*F42</f>
         <v>0</v>
@@ -3343,7 +3359,7 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="77"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="49">
         <f>E43*F43</f>
         <v>0</v>
@@ -3360,7 +3376,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="78"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="49">
         <f>E44*F44</f>
         <v>0</v>
@@ -3388,15 +3404,13 @@
       <c r="G45" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="50">
-        <v>10000</v>
-      </c>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="71"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="46">
         <f>SUM(C41:C45)</f>
         <v>0</v>
@@ -3426,13 +3440,6 @@
     <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D38"/>
-    <mergeCell ref="E36:H38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G41:G44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="G39:G40"/>
@@ -3445,6 +3452,13 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D38"/>
+    <mergeCell ref="E36:H38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G41:G44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3516,12 +3530,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="181" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="135" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3531,104 +3545,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="137" t="s">
+      <c r="L3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="190">
+      <c r="C4" s="131"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="145">
         <f ca="1">記入!B34</f>
         <v>43895</v>
       </c>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="137" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="124"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="181" t="s">
+      <c r="C6" s="131"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="182">
+      <c r="G6" s="125"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="136">
         <f ca="1">記入!B35</f>
         <v>43897</v>
       </c>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="184"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="138"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="185" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="186"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="141"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="144"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3639,76 +3653,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="130" t="s">
+      <c r="I9" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="130" t="s">
+      <c r="J9" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="131" t="s">
+      <c r="K9" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="137" t="s">
+      <c r="L9" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="138"/>
-      <c r="N9" s="135" t="str">
+      <c r="M9" s="123"/>
+      <c r="N9" s="191" t="str">
         <f>記入!B36</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="136"/>
+      <c r="O9" s="192"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="159" t="str">
+      <c r="C10" s="149" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="137" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130" t="str">
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158" t="str">
         <f>記入!B32</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="134" t="str">
+      <c r="K11" s="190" t="str">
         <f>記入!B33</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="132" t="str">
+      <c r="L11" s="188" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="133"/>
-      <c r="N11" s="143" t="str">
+      <c r="M11" s="189"/>
+      <c r="N11" s="174" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="144"/>
+      <c r="O11" s="175"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3719,44 +3733,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="146" t="s">
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="148"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="179"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="165" t="str">
+      <c r="C13" s="155" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="132" t="str">
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="188" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="143" t="str">
+      <c r="M13" s="189"/>
+      <c r="N13" s="174" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="144"/>
+      <c r="O13" s="175"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="148" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3774,7 +3788,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="158"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3792,7 +3806,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="158"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3811,7 +3825,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="158"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3830,7 +3844,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="158"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3849,7 +3863,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="158"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3865,7 +3879,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="158"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3883,219 +3897,219 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="158"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="110" t="str">
+      <c r="E21" s="162"/>
+      <c r="F21" s="180" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="158"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="158"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="110" t="str">
+      <c r="E23" s="162"/>
+      <c r="F23" s="180" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="158"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="158"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="110" t="str">
+      <c r="E25" s="162"/>
+      <c r="F25" s="180" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="158"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="158"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="152">
+      <c r="E27" s="163"/>
+      <c r="F27" s="183" t="str">
         <f>記入!B14</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="121" t="s">
+        <v>${statime}</v>
+      </c>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="154">
+      <c r="J27" s="185" t="str">
         <f>記入!B15</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
+        <v>${endtime}</v>
+      </c>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="186"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="158"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="155"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="186"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="158"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="123" t="s">
+      <c r="E29" s="165"/>
+      <c r="F29" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="127" t="s">
+      <c r="G29" s="165"/>
+      <c r="H29" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="109"/>
-      <c r="K29" s="129" t="s">
+      <c r="J29" s="194"/>
+      <c r="K29" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="124"/>
-      <c r="M29" s="123" t="s">
+      <c r="L29" s="165"/>
+      <c r="M29" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="124"/>
+      <c r="N29" s="165"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="158"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="128"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="205"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="125"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="150" t="str">
+      <c r="K30" s="168"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="181" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="151"/>
+      <c r="N30" s="182"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="158"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="110" t="str">
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="180" t="str">
         <f>記入!A41</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="110"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4108,28 +4122,28 @@
         <f>記入!E41</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="111">
+      <c r="K31" s="195">
         <f>記入!G41</f>
         <v>0</v>
       </c>
-      <c r="L31" s="112"/>
-      <c r="M31" s="117" t="e">
+      <c r="L31" s="196"/>
+      <c r="M31" s="173" t="e">
         <f>記入!H41</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="117"/>
+      <c r="N31" s="173"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="158"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="110">
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="180">
         <f>記入!A42</f>
         <v>0</v>
       </c>
-      <c r="G32" s="110"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="40">
         <f>記入!B42</f>
         <v>0</v>
@@ -4142,25 +4156,25 @@
         <f>記入!E42</f>
         <v>0</v>
       </c>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="117">
+      <c r="K32" s="197"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="173">
         <f>記入!H42</f>
         <v>0</v>
       </c>
-      <c r="N32" s="117"/>
+      <c r="N32" s="173"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="158"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="110">
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="180">
         <f>記入!A43</f>
         <v>0</v>
       </c>
-      <c r="G33" s="110"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="40">
         <f>記入!B43</f>
         <v>0</v>
@@ -4173,25 +4187,25 @@
         <f>記入!E43</f>
         <v>0</v>
       </c>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="117">
+      <c r="K33" s="197"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="173">
         <f>記入!H43</f>
         <v>0</v>
       </c>
-      <c r="N33" s="117"/>
+      <c r="N33" s="173"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="158"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="110">
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="180">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G34" s="110"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="40">
         <f>記入!B44</f>
         <v>0</v>
@@ -4204,25 +4218,25 @@
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K34" s="115"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="117">
+      <c r="K34" s="199"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="173">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N34" s="117"/>
+      <c r="N34" s="173"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="158"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="110" t="str">
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="180" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="110"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="40" t="str">
         <f>記入!B45</f>
         <v>-</v>
@@ -4235,28 +4249,28 @@
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="110" t="str">
+      <c r="K35" s="180" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="110"/>
-      <c r="M35" s="117">
+      <c r="L35" s="180"/>
+      <c r="M35" s="173">
         <f>記入!H45</f>
-        <v>10000</v>
-      </c>
-      <c r="N35" s="117"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="173"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="158"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="118" t="s">
+      <c r="D36" s="168"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4264,143 +4278,143 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="118">
+      <c r="K36" s="162">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="118"/>
-      <c r="M36" s="145" t="e">
+      <c r="L36" s="162"/>
+      <c r="M36" s="176" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="145"/>
+      <c r="N36" s="176"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="158"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="108" t="s">
+      <c r="E37" s="163"/>
+      <c r="F37" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="149" t="str">
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="163" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="163"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="163"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="158"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="118" t="str">
+      <c r="D38" s="162" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E38" s="118"/>
-      <c r="F38" s="120" t="str">
+      <c r="E38" s="162"/>
+      <c r="F38" s="202" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="117" t="str">
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="173" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="158"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="118" t="e">
+      <c r="D39" s="162" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="120" t="e">
+      <c r="E39" s="162"/>
+      <c r="F39" s="202" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="117" t="e">
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="158"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="118" t="e">
+      <c r="D40" s="162" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="120" t="e">
+      <c r="E40" s="162"/>
+      <c r="F40" s="202" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="117" t="e">
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="158"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="118" t="e">
+      <c r="D41" s="162" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="120" t="e">
+      <c r="E41" s="162"/>
+      <c r="F41" s="202" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="117" t="e">
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="173" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="158"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4408,18 +4422,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="140" t="e">
+      <c r="J42" s="170" t="e">
         <f>SUM(J38:N41)</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="142"/>
+      <c r="K42" s="171"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="172"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="158"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4437,13 +4451,13 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="158"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="168" t="s">
+      <c r="E44" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="168"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="20" t="str">
         <f>記入!B37</f>
         <v>${aw.valuation}</v>
@@ -4458,13 +4472,13 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="158"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="168" t="s">
+      <c r="E45" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="168"/>
+      <c r="F45" s="140"/>
       <c r="G45" s="20" t="str">
         <f>記入!B38</f>
         <v>${aw.individual}</v>
@@ -4479,7 +4493,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="158"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="52"/>
@@ -4495,122 +4509,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="158"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="195" t="e">
+      <c r="G47" s="112" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H47" s="195"/>
-      <c r="I47" s="195" t="s">
+      <c r="H47" s="112"/>
+      <c r="I47" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="195"/>
-      <c r="K47" s="195"/>
-      <c r="L47" s="195"/>
-      <c r="M47" s="195"/>
-      <c r="N47" s="195"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="158"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
-      <c r="G48" s="195" t="s">
+      <c r="G48" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="195"/>
-      <c r="I48" s="202" t="e">
+      <c r="H48" s="112"/>
+      <c r="I48" s="119" t="e">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="203"/>
-      <c r="K48" s="203"/>
-      <c r="L48" s="203"/>
-      <c r="M48" s="203"/>
-      <c r="N48" s="204"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="121"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="158"/>
+      <c r="B49" s="148"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
-      <c r="G49" s="197" t="s">
+      <c r="G49" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="198"/>
-      <c r="I49" s="199" t="e">
+      <c r="H49" s="115"/>
+      <c r="I49" s="116" t="e">
         <f>IF(G47="有",F27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="200"/>
+      <c r="J49" s="117"/>
       <c r="K49" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="201" t="e">
+      <c r="L49" s="118" t="e">
         <f>IF(G47="有",J27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="M49" s="200"/>
-      <c r="N49" s="198"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="115"/>
       <c r="O49" s="17"/>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="158"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="195" t="s">
+      <c r="G50" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="195"/>
-      <c r="I50" s="196" t="e">
+      <c r="H50" s="112"/>
+      <c r="I50" s="113" t="e">
         <f>IF(G47="有",記入!E33,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="196"/>
-      <c r="M50" s="196"/>
-      <c r="N50" s="196"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="113"/>
       <c r="O50" s="17"/>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="158"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
-      <c r="G51" s="195" t="s">
+      <c r="G51" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="195"/>
-      <c r="I51" s="196" t="e">
+      <c r="H51" s="112"/>
+      <c r="I51" s="113" t="e">
         <f>IF(G47="有",記入!E34&amp;記入!E35,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="196"/>
-      <c r="K51" s="196"/>
-      <c r="L51" s="196"/>
-      <c r="M51" s="196"/>
-      <c r="N51" s="196"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
       <c r="O51" s="17"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="158"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="52"/>
@@ -4629,7 +4643,7 @@
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="158"/>
+      <c r="B53" s="148"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="52"/>
@@ -4648,7 +4662,7 @@
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="158"/>
+      <c r="B54" s="148"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="59"/>
@@ -4665,212 +4679,212 @@
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="158"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="193" t="str">
+      <c r="F55" s="110" t="str">
         <f>記入!E36</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="193"/>
-      <c r="H55" s="193"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="193"/>
-      <c r="L55" s="193"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="193"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
       <c r="O55" s="17"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="158"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="194"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="194"/>
-      <c r="N56" s="194"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="158"/>
-      <c r="C57" s="157" t="s">
+      <c r="B57" s="148"/>
+      <c r="C57" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157" t="s">
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157" t="s">
+      <c r="G57" s="160"/>
+      <c r="H57" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157" t="s">
+      <c r="I57" s="160"/>
+      <c r="J57" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157" t="s">
+      <c r="K57" s="160"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
+      <c r="N57" s="160"/>
+      <c r="O57" s="160"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="158"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="159"/>
+      <c r="M58" s="159"/>
+      <c r="N58" s="159"/>
+      <c r="O58" s="159"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="158"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="159"/>
+      <c r="M59" s="159"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="159"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="158"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="159"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="159"/>
+      <c r="M60" s="159"/>
+      <c r="N60" s="159"/>
+      <c r="O60" s="159"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="158"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="160"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="159"/>
+      <c r="M61" s="159"/>
+      <c r="N61" s="159"/>
+      <c r="O61" s="159"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="158"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="159"/>
+      <c r="M62" s="159"/>
+      <c r="N62" s="159"/>
+      <c r="O62" s="159"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="158"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="159"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="158"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="156"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="160"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="159"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="158"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="156"/>
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="159"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="158"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="156"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="159"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">
@@ -4879,29 +4893,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M64:O66"/>
+    <mergeCell ref="C57:E66"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J61:L63"/>
+    <mergeCell ref="J64:L66"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="M61:O63"/>
     <mergeCell ref="B14:B66"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -4926,68 +4979,29 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D29:E36"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="F55:N56"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,21 +52,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="num", var="r", lastCell="F29")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="F41")</t>
+          <t>jx:each(items="alist", var="t", lastCell="F44")</t>
         </r>
       </text>
     </comment>
@@ -99,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1272,10 +1258,6 @@
     <t>${aw.individual}</t>
   </si>
   <si>
-    <t>${r.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${aw.custochinese}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1304,18 +1286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${aw.remarks}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1328,10 +1298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${t.budgetcode}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1357,6 +1323,94 @@
   </si>
   <si>
     <t>${endtime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.draftingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.scheduleddate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1960,14 +2014,8 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2021,9 +2069,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,6 +2084,54 @@
     <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2099,59 +2192,260 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2189,260 +2483,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2770,130 +2824,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="G1" s="98" t="s">
+      <c r="B1" s="70"/>
+      <c r="G1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="99"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="61" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="61" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2902,96 +2956,96 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="68" t="s">
-        <v>132</v>
+      <c r="B17" s="65" t="s">
+        <v>131</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3000,68 +3054,68 @@
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="59" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="43" t="s">
@@ -3070,11 +3124,11 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3083,303 +3137,319 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="101"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="64"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="66" t="str">
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
+    </row>
+    <row r="29" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="202" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+    </row>
+    <row r="30" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="202" t="str">
+        <f>IF(B30="","","第二回")</f>
+        <v>第二回</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+    </row>
+    <row r="31" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="202" t="str">
+        <f>IF(B31="","","第三回")</f>
+        <v>第三回</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" s="203" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="202" t="str">
+        <f>IF(B32="","","第四回")</f>
+        <v>第四回</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+    </row>
+    <row r="33" spans="1:8" ht="7.5" customHeight="1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A34" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="205"/>
+      <c r="E35" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="101"/>
-    </row>
-    <row r="30" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="109"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="36" t="s">
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="47">
-        <f ca="1">TODAY()</f>
-        <v>43895</v>
-      </c>
-      <c r="C34" s="103" t="s">
+      <c r="B37" s="206" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="107" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.5">
-      <c r="A35" s="37" t="s">
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="47">
-        <f ca="1">B34+2</f>
-        <v>43897</v>
-      </c>
-      <c r="C35" s="102" t="s">
+      <c r="B38" s="206" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="72" t="s">
+      <c r="D38" s="77"/>
+      <c r="E38" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A36" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A37" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A38" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="85"/>
       <c r="F38" s="86"/>
       <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A39" s="92" t="s">
+      <c r="H38" s="87"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A39" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="89"/>
+      <c r="E39" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A40" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A41" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
+      <c r="A42" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B42" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C42" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="97" t="s">
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H42" s="71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="39" t="s">
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D43" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E43" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="93">
-        <f>SUM(E41:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="49" t="e">
-        <f>E41*F41</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="49">
-        <f>E42*F42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="49">
-        <f>E43*F43</f>
-        <v>0</v>
-      </c>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>136</v>
+      </c>
       <c r="C44" s="40" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="49">
+      <c r="E44" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="69">
+        <f>SUM(E44:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="47" t="e">
         <f>E44*F44</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
@@ -3404,68 +3474,67 @@
       <c r="G45" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="50"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="46">
-        <f>SUM(C41:C45)</f>
+      <c r="B46" s="101"/>
+      <c r="C46" s="45">
+        <f>SUM(C44:C45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="46">
-        <f>SUM(E41:E45)</f>
+      <c r="E46" s="45">
+        <f>SUM(E44:E45)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="46">
-        <f>SUM(G41:G45)</f>
+      <c r="G46" s="45">
+        <f>SUM(G44:G45)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="51" t="e">
-        <f>SUM(H41:H45)</f>
+      <c r="H46" s="49" t="e">
+        <f>SUM(H44:H45)</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A41:A44 C41:F44 B42:B44" name="範囲3"/>
+    <protectedRange sqref="C44:F44 A44" name="範囲3"/>
     <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D38"/>
-    <mergeCell ref="E36:H38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="E39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
       <formula1>"和文1通,無し"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3530,12 +3599,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="135" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="178" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3545,104 +3614,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="145">
-        <f ca="1">記入!B34</f>
-        <v>43895</v>
-      </c>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="147"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="187" t="str">
+        <f>記入!B37</f>
+        <v>${aw.draftingdate}</v>
+      </c>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="189"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="122" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="135" t="s">
+      <c r="C6" s="174"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="136">
-        <f ca="1">記入!B35</f>
-        <v>43897</v>
-      </c>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="179" t="str">
+        <f>記入!B38</f>
+        <v>${aw.scheduleddate}</v>
+      </c>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="139" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="144"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="186"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3653,76 +3722,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="158" t="s">
+      <c r="I9" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="158" t="s">
+      <c r="J9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="187" t="s">
+      <c r="K9" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="123"/>
-      <c r="N9" s="191" t="str">
-        <f>記入!B36</f>
+      <c r="M9" s="135"/>
+      <c r="N9" s="132" t="str">
+        <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="192"/>
+      <c r="O9" s="133"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="149" t="str">
+      <c r="C10" s="156" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="122" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158" t="str">
-        <f>記入!B32</f>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127" t="str">
+        <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="190" t="str">
-        <f>記入!B33</f>
+      <c r="K11" s="131" t="str">
+        <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="188" t="str">
+      <c r="L11" s="129" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="189"/>
-      <c r="N11" s="174" t="str">
+      <c r="M11" s="130"/>
+      <c r="N11" s="140" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="175"/>
+      <c r="O11" s="141"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3733,44 +3802,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="177" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="179"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="145"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="155" t="str">
+      <c r="C13" s="162" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="188" t="str">
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="129" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="189"/>
-      <c r="N13" s="174" t="str">
+      <c r="M13" s="130"/>
+      <c r="N13" s="140" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="175"/>
+      <c r="O13" s="141"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="155" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3788,7 +3857,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="148"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3806,7 +3875,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="148"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3825,7 +3894,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="148"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3844,7 +3913,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="148"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3863,7 +3932,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="148"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3879,7 +3948,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="148"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3897,346 +3966,346 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="148"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="162"/>
-      <c r="F21" s="180" t="str">
+      <c r="E21" s="115"/>
+      <c r="F21" s="107" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="148"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="148"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="180" t="str">
+      <c r="E23" s="115"/>
+      <c r="F23" s="107" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="148"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="148"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="162"/>
-      <c r="F25" s="180" t="str">
+      <c r="E25" s="115"/>
+      <c r="F25" s="107" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="148"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="148"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="163" t="s">
+      <c r="D27" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="183" t="str">
+      <c r="E27" s="146"/>
+      <c r="F27" s="149" t="str">
         <f>記入!B14</f>
         <v>${statime}</v>
       </c>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="161" t="s">
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="185" t="str">
+      <c r="J27" s="151" t="str">
         <f>記入!B15</f>
         <v>${endtime}</v>
       </c>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="186"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="148"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="186"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="152"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="148"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="165"/>
-      <c r="F29" s="164" t="s">
+      <c r="E29" s="121"/>
+      <c r="F29" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="165"/>
-      <c r="H29" s="204" t="s">
+      <c r="G29" s="121"/>
+      <c r="H29" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="193" t="s">
+      <c r="I29" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="194"/>
-      <c r="K29" s="206" t="s">
+      <c r="J29" s="106"/>
+      <c r="K29" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="165"/>
-      <c r="M29" s="164" t="s">
+      <c r="L29" s="121"/>
+      <c r="M29" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="165"/>
+      <c r="N29" s="121"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="148"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="22"/>
       <c r="D30" s="166"/>
       <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="205"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="168"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="181" t="str">
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="147" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="182"/>
+      <c r="N30" s="148"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="148"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="22"/>
       <c r="D31" s="166"/>
       <c r="E31" s="167"/>
-      <c r="F31" s="180" t="str">
-        <f>記入!A41</f>
+      <c r="F31" s="107" t="str">
+        <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="180"/>
+      <c r="G31" s="107"/>
       <c r="H31" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I31" s="40" t="str">
-        <f>記入!C41</f>
+        <f>記入!C44</f>
         <v>-</v>
       </c>
       <c r="J31" s="40" t="str">
-        <f>記入!E41</f>
+        <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="195">
-        <f>記入!G41</f>
+      <c r="K31" s="108">
+        <f>記入!G44</f>
         <v>0</v>
       </c>
-      <c r="L31" s="196"/>
-      <c r="M31" s="173" t="e">
-        <f>記入!H41</f>
+      <c r="L31" s="109"/>
+      <c r="M31" s="114" t="e">
+        <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="173"/>
+      <c r="N31" s="114"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="148"/>
+      <c r="B32" s="155"/>
       <c r="C32" s="22"/>
       <c r="D32" s="166"/>
       <c r="E32" s="167"/>
-      <c r="F32" s="180">
-        <f>記入!A42</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="180"/>
-      <c r="H32" s="40">
-        <f>記入!B42</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="40" t="str">
-        <f>記入!C42</f>
-        <v>-</v>
-      </c>
-      <c r="J32" s="40">
-        <f>記入!E42</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="197"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="173">
-        <f>記入!H42</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="173"/>
+      <c r="F32" s="107" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="107"/>
+      <c r="H32" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J32" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="114" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="114"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="148"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="22"/>
       <c r="D33" s="166"/>
       <c r="E33" s="167"/>
-      <c r="F33" s="180">
-        <f>記入!A43</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="180"/>
-      <c r="H33" s="40">
-        <f>記入!B43</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="40" t="str">
-        <f>記入!C43</f>
-        <v>-</v>
-      </c>
-      <c r="J33" s="40">
-        <f>記入!E43</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="173">
-        <f>記入!H43</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="173"/>
+      <c r="F33" s="107" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J33" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="114" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N33" s="114"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="148"/>
+      <c r="B34" s="155"/>
       <c r="C34" s="22"/>
       <c r="D34" s="166"/>
       <c r="E34" s="167"/>
-      <c r="F34" s="180">
-        <f>記入!A44</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="180"/>
-      <c r="H34" s="40">
-        <f>記入!B44</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="40" t="str">
-        <f>記入!C44</f>
-        <v>-</v>
-      </c>
-      <c r="J34" s="40">
-        <f>記入!E44</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="199"/>
-      <c r="L34" s="200"/>
-      <c r="M34" s="173">
-        <f>記入!H44</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="173"/>
+      <c r="F34" s="107" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J34" s="40" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="114" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="114"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="148"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="22"/>
       <c r="D35" s="166"/>
       <c r="E35" s="167"/>
-      <c r="F35" s="180" t="str">
+      <c r="F35" s="107" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="180"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="40" t="str">
         <f>記入!B45</f>
         <v>-</v>
@@ -4249,172 +4318,172 @@
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="180" t="str">
+      <c r="K35" s="107" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="180"/>
-      <c r="M35" s="173">
+      <c r="L35" s="107"/>
+      <c r="M35" s="114">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N35" s="173"/>
+      <c r="N35" s="114"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="148"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="162" t="s">
+      <c r="D36" s="122"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="34" t="e">
         <f>SUM(J31:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="162">
+        <v>#REF!</v>
+      </c>
+      <c r="K36" s="115">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="162"/>
-      <c r="M36" s="176" t="e">
+      <c r="L36" s="115"/>
+      <c r="M36" s="142" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="176"/>
+      <c r="N36" s="142"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="148"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="163" t="s">
+      <c r="D37" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="163"/>
-      <c r="F37" s="193" t="s">
+      <c r="E37" s="146"/>
+      <c r="F37" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="163" t="str">
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="146" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="148"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="162" t="str">
-        <f>記入!A29</f>
-        <v>第一回</v>
-      </c>
-      <c r="E38" s="162"/>
-      <c r="F38" s="202" t="str">
-        <f>IF(記入!E29="","",記入!E29)</f>
-        <v>${r.supportdate}</v>
-      </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="173" t="str">
-        <f>IF(記入!F29="","",記入!F29)</f>
-        <v>${r.claimamount}</v>
-      </c>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="148"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="162" t="e">
+      <c r="D38" s="115" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="162"/>
-      <c r="F39" s="202" t="e">
+      <c r="E38" s="115"/>
+      <c r="F38" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="173" t="e">
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="114" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="148"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="162" t="e">
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" customHeight="1">
+      <c r="B39" s="155"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="115" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="162"/>
-      <c r="F40" s="202" t="e">
+      <c r="E39" s="115"/>
+      <c r="F39" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="203"/>
-      <c r="J40" s="173" t="e">
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="114" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="148"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="162" t="e">
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1">
+      <c r="B40" s="155"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="115" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="162"/>
-      <c r="F41" s="202" t="e">
+      <c r="E40" s="115"/>
+      <c r="F40" s="117" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="173" t="e">
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="114" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1">
+      <c r="B41" s="155"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="115" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="115"/>
+      <c r="F41" s="117" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="114" t="e">
+        <f>IF(記入!#REF!="","",記入!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="148"/>
+      <c r="B42" s="155"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4422,18 +4491,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="170" t="e">
+      <c r="J42" s="137" t="e">
         <f>SUM(J38:N41)</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="172"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="139"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="148"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4451,15 +4520,15 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="148"/>
+      <c r="B44" s="155"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="140" t="s">
+      <c r="E44" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="140"/>
+      <c r="F44" s="165"/>
       <c r="G44" s="20" t="str">
-        <f>記入!B37</f>
+        <f>記入!B40</f>
         <v>${aw.valuation}</v>
       </c>
       <c r="H44" s="25"/>
@@ -4472,15 +4541,15 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="148"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="140" t="s">
+      <c r="E45" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="140"/>
+      <c r="F45" s="165"/>
       <c r="G45" s="20" t="str">
-        <f>記入!B38</f>
+        <f>記入!B41</f>
         <v>${aw.individual}</v>
       </c>
       <c r="H45" s="25"/>
@@ -4493,11 +4562,11 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="148"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
@@ -4509,382 +4578,382 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="148"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="112" t="e">
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="192" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112" t="s">
+      <c r="H47" s="192"/>
+      <c r="I47" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="148"/>
+      <c r="B48" s="155"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="112" t="s">
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="112"/>
-      <c r="I48" s="119" t="e">
+      <c r="H48" s="192"/>
+      <c r="I48" s="199" t="e">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="121"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="201"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="148"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="114" t="s">
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="115"/>
-      <c r="I49" s="116" t="e">
+      <c r="H49" s="195"/>
+      <c r="I49" s="196" t="e">
         <f>IF(G47="有",F27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="117"/>
-      <c r="K49" s="58" t="s">
+      <c r="J49" s="197"/>
+      <c r="K49" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="118" t="e">
+      <c r="L49" s="198" t="e">
         <f>IF(G47="有",J27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="M49" s="117"/>
-      <c r="N49" s="115"/>
+      <c r="M49" s="197"/>
+      <c r="N49" s="195"/>
       <c r="O49" s="17"/>
-      <c r="R49" s="56"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="148"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="112" t="s">
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="112"/>
-      <c r="I50" s="113" t="e">
-        <f>IF(G47="有",記入!E33,"-")</f>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193" t="e">
+        <f>IF(G47="有",記入!E36,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
+      <c r="J50" s="193"/>
+      <c r="K50" s="193"/>
+      <c r="L50" s="193"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="193"/>
       <c r="O50" s="17"/>
-      <c r="R50" s="56"/>
+      <c r="R50" s="54"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="148"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="112" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="113" t="e">
-        <f>IF(G47="有",記入!E34&amp;記入!E35,"-")</f>
+      <c r="H51" s="192"/>
+      <c r="I51" s="193" t="e">
+        <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
+      <c r="J51" s="193"/>
+      <c r="K51" s="193"/>
+      <c r="L51" s="193"/>
+      <c r="M51" s="193"/>
+      <c r="N51" s="193"/>
       <c r="O51" s="17"/>
-      <c r="R51" s="57"/>
+      <c r="R51" s="55"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="148"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="56" t="s">
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="17"/>
-      <c r="R52" s="57"/>
+      <c r="R52" s="55"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="148"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="56" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="17"/>
-      <c r="R53" s="57"/>
+      <c r="R53" s="55"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="148"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
       <c r="O54" s="17"/>
-      <c r="R54" s="57"/>
+      <c r="R54" s="55"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="148"/>
+      <c r="B55" s="155"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="110" t="str">
-        <f>記入!E36</f>
+      <c r="E55" s="57"/>
+      <c r="F55" s="190" t="str">
+        <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
-      <c r="L55" s="110"/>
-      <c r="M55" s="110"/>
-      <c r="N55" s="110"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="190"/>
       <c r="O55" s="17"/>
-      <c r="R55" s="57"/>
+      <c r="R55" s="55"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="148"/>
+      <c r="B56" s="155"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="191"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="148"/>
-      <c r="C57" s="160" t="s">
+      <c r="B57" s="155"/>
+      <c r="C57" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="160" t="s">
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160" t="s">
+      <c r="G57" s="154"/>
+      <c r="H57" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="160"/>
-      <c r="J57" s="160" t="s">
+      <c r="I57" s="154"/>
+      <c r="J57" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="160"/>
-      <c r="L57" s="160"/>
-      <c r="M57" s="160" t="s">
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="148"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="159"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="159"/>
-      <c r="N58" s="159"/>
-      <c r="O58" s="159"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="153"/>
+      <c r="O58" s="153"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="148"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="160"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="159"/>
-      <c r="I59" s="159"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="159"/>
-      <c r="M59" s="159"/>
-      <c r="N59" s="159"/>
-      <c r="O59" s="159"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="153"/>
+      <c r="O59" s="153"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="148"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="159"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="159"/>
-      <c r="O60" s="159"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="153"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="148"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="160"/>
-      <c r="F61" s="159"/>
-      <c r="G61" s="159"/>
-      <c r="H61" s="159"/>
-      <c r="I61" s="159"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="159"/>
-      <c r="L61" s="159"/>
-      <c r="M61" s="159"/>
-      <c r="N61" s="159"/>
-      <c r="O61" s="159"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
+      <c r="O61" s="153"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="148"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
-      <c r="O62" s="159"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="148"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="160"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="159"/>
-      <c r="M63" s="159"/>
-      <c r="N63" s="159"/>
-      <c r="O63" s="159"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="153"/>
+      <c r="O63" s="153"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="148"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="153"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="148"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
-      <c r="O65" s="159"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
+      <c r="N65" s="153"/>
+      <c r="O65" s="153"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="148"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
-      <c r="O66" s="159"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="153"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">
@@ -4893,35 +4962,62 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="F55:N56"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B14:B66"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F61:G63"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H61:I63"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="H64:I66"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F58:G60"/>
+    <mergeCell ref="H58:I60"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E36"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M64:O66"/>
+    <mergeCell ref="C57:E66"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J61:L63"/>
+    <mergeCell ref="J64:L66"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="M61:O63"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="J38:N38"/>
     <mergeCell ref="J39:N39"/>
@@ -4946,62 +5042,35 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="B14:B66"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F61:G63"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H61:I63"/>
-    <mergeCell ref="F64:G66"/>
-    <mergeCell ref="H64:I66"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -52,7 +52,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="F44")</t>
+          <t>jx:each(items="alist", var="t", lastCell="H44")</t>
         </r>
       </text>
     </comment>
@@ -1601,11 +1601,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="FangSong"/>
       <family val="3"/>
@@ -1617,6 +1612,11 @@
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2078,425 +2078,425 @@
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2824,14 +2824,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="G1" s="73" t="s">
+      <c r="B1" s="90"/>
+      <c r="G1" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="59" t="s">
@@ -2844,8 +2844,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="60" t="s">
@@ -2855,8 +2855,8 @@
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="59" t="s">
@@ -2868,8 +2868,8 @@
       <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="59" t="s">
@@ -2879,8 +2879,8 @@
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="61" t="s">
@@ -2892,8 +2892,8 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="61" t="s">
@@ -2905,8 +2905,8 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="59" t="s">
@@ -2916,8 +2916,8 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="60" t="s">
@@ -2930,8 +2930,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="59" t="s">
@@ -2943,8 +2943,8 @@
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="59" t="s">
@@ -2956,8 +2956,8 @@
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="59" t="s">
@@ -2969,8 +2969,8 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="59" t="s">
@@ -2980,8 +2980,8 @@
       <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="59" t="s">
@@ -2993,8 +2993,8 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="59" t="s">
@@ -3006,8 +3006,8 @@
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -3017,8 +3017,8 @@
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="59" t="s">
@@ -3030,8 +3030,8 @@
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="59" t="s">
@@ -3041,8 +3041,8 @@
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="59" t="s">
@@ -3054,8 +3054,8 @@
       <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="59" t="s">
@@ -3067,8 +3067,8 @@
       <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="59" t="s">
@@ -3078,8 +3078,8 @@
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -3089,8 +3089,8 @@
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="60" t="s">
@@ -3100,8 +3100,8 @@
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="60" t="s">
@@ -3111,8 +3111,8 @@
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="60" t="s">
@@ -3124,8 +3124,8 @@
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="95"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="60" t="s">
@@ -3137,14 +3137,14 @@
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="62"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="63" t="s">
@@ -3165,11 +3165,11 @@
       <c r="F28" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="202" t="str">
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="69" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
@@ -3188,11 +3188,11 @@
       <c r="F29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-    </row>
-    <row r="30" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="202" t="str">
+      <c r="G29" s="94"/>
+      <c r="H29" s="95"/>
+    </row>
+    <row r="30" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="69" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
@@ -3211,11 +3211,11 @@
       <c r="F30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-    </row>
-    <row r="31" spans="1:8" s="203" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="202" t="str">
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="69" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
@@ -3234,11 +3234,11 @@
       <c r="F31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-    </row>
-    <row r="32" spans="1:8" s="203" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="202" t="str">
+      <c r="G31" s="94"/>
+      <c r="H31" s="95"/>
+    </row>
+    <row r="32" spans="1:8" s="70" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="69" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
@@ -3257,8 +3257,8 @@
       <c r="F32" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="2"/>
@@ -3275,16 +3275,16 @@
       <c r="B35" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="204" t="s">
+      <c r="C35" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="205"/>
-      <c r="E35" s="79" t="s">
+      <c r="D35" s="97"/>
+      <c r="E35" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="36" t="s">
@@ -3293,52 +3293,52 @@
       <c r="B36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="82" t="s">
+      <c r="D36" s="98"/>
+      <c r="E36" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="206" t="s">
+      <c r="B37" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="82" t="s">
+      <c r="D37" s="98"/>
+      <c r="E37" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="206" t="s">
+      <c r="B38" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="85" t="s">
+      <c r="D38" s="105"/>
+      <c r="E38" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="37" t="s">
@@ -3347,16 +3347,16 @@
       <c r="B39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="94" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="37" t="s">
@@ -3365,12 +3365,12 @@
       <c r="B40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="37" t="s">
@@ -3379,36 +3379,36 @@
       <c r="B41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="72" t="s">
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="71" t="s">
+      <c r="H42" s="89" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="39" t="s">
         <v>59</v>
       </c>
@@ -3421,14 +3421,14 @@
       <c r="F43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="206" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="40" t="s">
@@ -3437,13 +3437,13 @@
       <c r="D44" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G44" s="68">
         <f>SUM(E44:E44)</f>
         <v>0</v>
       </c>
@@ -3477,10 +3477,10 @@
       <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="101"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="45">
         <f>SUM(C44:C45)</f>
         <v>0</v>
@@ -3510,9 +3510,6 @@
     <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3528,6 +3525,9 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3599,12 +3599,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="178" t="s">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="182" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -3614,104 +3614,104 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="134" t="s">
+      <c r="L3" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="187" t="str">
+      <c r="C4" s="178"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="191" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="189"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="134" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="179" t="str">
+      <c r="G6" s="172"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="183" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="181"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="182" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="183"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="186"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14"/>
@@ -3722,76 +3722,76 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="134" t="s">
+      <c r="L9" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="135"/>
-      <c r="N9" s="132" t="str">
+      <c r="M9" s="139"/>
+      <c r="N9" s="136" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="133"/>
+      <c r="O9" s="137"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
-      <c r="C10" s="156" t="str">
+      <c r="C10" s="160" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="134" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="136"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="140"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127" t="str">
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="131" t="str">
+      <c r="K11" s="135" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="129" t="str">
+      <c r="L11" s="133" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="140" t="str">
+      <c r="M11" s="134"/>
+      <c r="N11" s="144" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="141"/>
+      <c r="O11" s="145"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14"/>
@@ -3802,44 +3802,44 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="143" t="s">
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="145"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="149"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="162" t="str">
+      <c r="C13" s="166" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="129" t="str">
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="133" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="130"/>
-      <c r="N13" s="140" t="str">
+      <c r="M13" s="134"/>
+      <c r="N13" s="144" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="141"/>
+      <c r="O13" s="145"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="159" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="22"/>
@@ -3857,7 +3857,7 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="155"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="22"/>
       <c r="D15" s="25" t="s">
         <v>49</v>
@@ -3875,7 +3875,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="155"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23" t="str">
@@ -3894,7 +3894,7 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="155"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="22"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23" t="str">
@@ -3913,7 +3913,7 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="155"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="str">
@@ -3932,7 +3932,7 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="155"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="25"/>
@@ -3948,7 +3948,7 @@
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="155"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
         <v>31</v>
@@ -3966,219 +3966,219 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="155"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="107" t="str">
+      <c r="E21" s="119"/>
+      <c r="F21" s="111" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="155"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="155"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="107" t="str">
+      <c r="E23" s="119"/>
+      <c r="F23" s="111" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="155"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="155"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="107" t="str">
+      <c r="E25" s="119"/>
+      <c r="F25" s="111" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="155"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="155"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="146"/>
-      <c r="F27" s="149" t="str">
+      <c r="E27" s="150"/>
+      <c r="F27" s="153" t="str">
         <f>記入!B14</f>
         <v>${statime}</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="118" t="s">
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="151" t="str">
+      <c r="J27" s="155" t="str">
         <f>記入!B15</f>
         <v>${endtime}</v>
       </c>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="156"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="155"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="152"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="156"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="155"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="120" t="s">
+      <c r="E29" s="125"/>
+      <c r="F29" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="124" t="s">
+      <c r="G29" s="125"/>
+      <c r="H29" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="106"/>
-      <c r="K29" s="126" t="s">
+      <c r="J29" s="110"/>
+      <c r="K29" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="121"/>
-      <c r="M29" s="120" t="s">
+      <c r="L29" s="125"/>
+      <c r="M29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="121"/>
+      <c r="N29" s="125"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="155"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="125"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="129"/>
       <c r="I30" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="147" t="str">
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="151" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="152"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="155"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="107" t="str">
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="111" t="str">
         <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="107"/>
+      <c r="G31" s="111"/>
       <c r="H31" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4191,28 +4191,28 @@
         <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="112">
         <f>記入!G44</f>
         <v>0</v>
       </c>
-      <c r="L31" s="109"/>
-      <c r="M31" s="114" t="e">
+      <c r="L31" s="113"/>
+      <c r="M31" s="118" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="114"/>
+      <c r="N31" s="118"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="155"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="107" t="e">
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="111" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4225,25 +4225,25 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="114" t="e">
+      <c r="K32" s="114"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="114"/>
+      <c r="N32" s="118"/>
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="155"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="107" t="e">
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="111" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="107"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4256,25 +4256,25 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="114" t="e">
+      <c r="K33" s="114"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="114"/>
+      <c r="N33" s="118"/>
       <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="155"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="107" t="e">
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="111" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="107"/>
+      <c r="G34" s="111"/>
       <c r="H34" s="40" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4287,25 +4287,25 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="114" t="e">
+      <c r="K34" s="116"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="114"/>
+      <c r="N34" s="118"/>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="155"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="107" t="str">
+      <c r="D35" s="170"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="111" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="107"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="40" t="str">
         <f>記入!B45</f>
         <v>-</v>
@@ -4318,28 +4318,28 @@
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="107" t="str">
+      <c r="K35" s="111" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="107"/>
-      <c r="M35" s="114">
+      <c r="L35" s="111"/>
+      <c r="M35" s="118">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N35" s="114"/>
+      <c r="N35" s="118"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="155"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="115" t="s">
+      <c r="D36" s="126"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="34" t="s">
         <v>90</v>
       </c>
@@ -4347,143 +4347,143 @@
         <f>SUM(J31:J35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="115">
+      <c r="K36" s="119">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="115"/>
-      <c r="M36" s="142" t="e">
+      <c r="L36" s="119"/>
+      <c r="M36" s="146" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="142"/>
+      <c r="N36" s="146"/>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="155"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="146" t="s">
+      <c r="D37" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="105" t="s">
+      <c r="E37" s="150"/>
+      <c r="F37" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="146" t="str">
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="150" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="155"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="115" t="e">
+      <c r="D38" s="119" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E38" s="115"/>
-      <c r="F38" s="117" t="e">
+      <c r="E38" s="119"/>
+      <c r="F38" s="121" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="114" t="e">
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="118" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="155"/>
+      <c r="B39" s="159"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="115" t="e">
+      <c r="D39" s="119" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="117" t="e">
+      <c r="E39" s="119"/>
+      <c r="F39" s="121" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="114" t="e">
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="118" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="155"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="115" t="e">
+      <c r="D40" s="119" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="117" t="e">
+      <c r="E40" s="119"/>
+      <c r="F40" s="121" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="114" t="e">
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="118" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="155"/>
+      <c r="B41" s="159"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="115" t="e">
+      <c r="D41" s="119" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="117" t="e">
+      <c r="E41" s="119"/>
+      <c r="F41" s="121" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="114" t="e">
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="118" t="e">
         <f>IF(記入!#REF!="","",記入!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="155"/>
+      <c r="B42" s="159"/>
       <c r="C42" s="22"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4491,18 +4491,18 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="137" t="e">
+      <c r="J42" s="141" t="e">
         <f>SUM(J38:N41)</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="139"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="143"/>
       <c r="O42" s="17"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="155"/>
+      <c r="B43" s="159"/>
       <c r="C43" s="22"/>
       <c r="D43" s="26" t="s">
         <v>32</v>
@@ -4520,13 +4520,13 @@
       <c r="O43" s="17"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="155"/>
+      <c r="B44" s="159"/>
       <c r="C44" s="22"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="165" t="s">
+      <c r="E44" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="165"/>
+      <c r="F44" s="169"/>
       <c r="G44" s="20" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4541,13 +4541,13 @@
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="155"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="22"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="165" t="s">
+      <c r="E45" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="165"/>
+      <c r="F45" s="169"/>
       <c r="G45" s="20" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4562,7 +4562,7 @@
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="155"/>
+      <c r="B46" s="159"/>
       <c r="C46" s="22"/>
       <c r="D46" s="26"/>
       <c r="E46" s="50"/>
@@ -4578,122 +4578,122 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="155"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="22"/>
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
-      <c r="G47" s="192" t="e">
+      <c r="G47" s="196" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192" t="s">
+      <c r="H47" s="196"/>
+      <c r="I47" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="196"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="196"/>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="155"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="22"/>
       <c r="D48" s="26"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="192" t="s">
+      <c r="G48" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="192"/>
-      <c r="I48" s="199" t="e">
+      <c r="H48" s="196"/>
+      <c r="I48" s="203" t="e">
         <f>IF(G47="有",記入!B7,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="200"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="201"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="205"/>
       <c r="O48" s="17"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="155"/>
+      <c r="B49" s="159"/>
       <c r="C49" s="22"/>
       <c r="D49" s="26"/>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="194" t="s">
+      <c r="G49" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="195"/>
-      <c r="I49" s="196" t="e">
+      <c r="H49" s="199"/>
+      <c r="I49" s="200" t="e">
         <f>IF(G47="有",F27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="197"/>
+      <c r="J49" s="201"/>
       <c r="K49" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="198" t="e">
+      <c r="L49" s="202" t="e">
         <f>IF(G47="有",J27,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="M49" s="197"/>
-      <c r="N49" s="195"/>
+      <c r="M49" s="201"/>
+      <c r="N49" s="199"/>
       <c r="O49" s="17"/>
       <c r="R49" s="54"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="155"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="22"/>
       <c r="D50" s="26"/>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="192" t="s">
+      <c r="G50" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193" t="e">
+      <c r="H50" s="196"/>
+      <c r="I50" s="197" t="e">
         <f>IF(G47="有",記入!E36,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="193"/>
-      <c r="K50" s="193"/>
-      <c r="L50" s="193"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="197"/>
+      <c r="L50" s="197"/>
+      <c r="M50" s="197"/>
+      <c r="N50" s="197"/>
       <c r="O50" s="17"/>
       <c r="R50" s="54"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="155"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="22"/>
       <c r="D51" s="26"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
-      <c r="G51" s="192" t="s">
+      <c r="G51" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="192"/>
-      <c r="I51" s="193" t="e">
+      <c r="H51" s="196"/>
+      <c r="I51" s="197" t="e">
         <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="193"/>
-      <c r="K51" s="193"/>
-      <c r="L51" s="193"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="197"/>
+      <c r="L51" s="197"/>
+      <c r="M51" s="197"/>
+      <c r="N51" s="197"/>
       <c r="O51" s="17"/>
       <c r="R51" s="55"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="155"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="22"/>
       <c r="D52" s="26"/>
       <c r="E52" s="50"/>
@@ -4712,7 +4712,7 @@
       <c r="R52" s="55"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="155"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="22"/>
       <c r="D53" s="26"/>
       <c r="E53" s="50"/>
@@ -4731,7 +4731,7 @@
       <c r="R53" s="55"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="155"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="22"/>
       <c r="D54" s="26"/>
       <c r="E54" s="57"/>
@@ -4748,212 +4748,212 @@
       <c r="R54" s="55"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="155"/>
+      <c r="B55" s="159"/>
       <c r="C55" s="22"/>
       <c r="D55" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="57"/>
-      <c r="F55" s="190" t="str">
+      <c r="F55" s="194" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="190"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="190"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="194"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="194"/>
       <c r="O55" s="17"/>
       <c r="R55" s="55"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="155"/>
+      <c r="B56" s="159"/>
       <c r="C56" s="22"/>
       <c r="D56" s="26"/>
       <c r="E56" s="58"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="191"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="195"/>
+      <c r="K56" s="195"/>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195"/>
+      <c r="N56" s="195"/>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="155"/>
-      <c r="C57" s="154" t="s">
+      <c r="B57" s="159"/>
+      <c r="C57" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154" t="s">
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154" t="s">
+      <c r="G57" s="158"/>
+      <c r="H57" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154" t="s">
+      <c r="I57" s="158"/>
+      <c r="J57" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="154"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154" t="s">
+      <c r="K57" s="158"/>
+      <c r="L57" s="158"/>
+      <c r="M57" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="153"/>
-      <c r="O58" s="153"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="153"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="153"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="155"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="153"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="155"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="155"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="155"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="153"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="155"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
-      <c r="N64" s="153"/>
-      <c r="O64" s="153"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="157"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="155"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="153"/>
-      <c r="N65" s="153"/>
-      <c r="O65" s="153"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="155"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="153"/>
-      <c r="O66" s="153"/>
+      <c r="B66" s="159"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="157"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="28" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloudNew\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1314,18 +1314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${aw.user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${endtime}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${num[0].claimdate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1411,6 +1399,46 @@
   </si>
   <si>
     <t>${aw.scheduleddate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1915,9 +1943,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2093,6 +2118,69 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,75 +2232,261 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2231,36 +2505,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,233 +2523,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2809,8 +2838,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2824,682 +2853,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="G1" s="92" t="s">
+      <c r="B1" s="72"/>
+      <c r="G1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="93"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
+      <c r="D2" s="11"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="206" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="206" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="95"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
-    </row>
-    <row r="29" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="69" t="str">
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="68" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="95"/>
-    </row>
-    <row r="30" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="69" t="str">
+      <c r="B29" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="68" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="F30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95"/>
-    </row>
-    <row r="31" spans="1:8" s="70" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="69" t="str">
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="68" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95"/>
-    </row>
-    <row r="32" spans="1:8" s="70" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="69" t="str">
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="1:8" s="69" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="68" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="F32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="99" t="s">
+      <c r="D35" s="80"/>
+      <c r="E35" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="101"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="102" t="s">
+      <c r="D36" s="81"/>
+      <c r="E36" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="98" t="s">
+      <c r="B37" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="102" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="105" t="s">
+      <c r="B38" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="93"/>
+      <c r="E39" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="91" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="89" t="s">
+      <c r="H42" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="39" t="s">
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="206" t="s">
+      <c r="B44" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="67">
         <f>SUM(E44:E44)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="47" t="e">
+      <c r="H44" s="46" t="e">
         <f>E44*F44</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="48"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="45">
+      <c r="B46" s="105"/>
+      <c r="C46" s="44">
         <f>SUM(C44:C45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="44">
         <f>SUM(E44:E45)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="45" t="s">
+      <c r="F46" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="44">
         <f>SUM(G44:G45)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="49" t="e">
+      <c r="H46" s="48" t="e">
         <f>SUM(H44:H45)</f>
         <v>#VALUE!</v>
       </c>
@@ -3510,6 +3539,9 @@
     <protectedRange sqref="H45" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3525,9 +3557,6 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3552,8 +3581,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3575,1416 +3604,1448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="8.25" customHeight="1">
-      <c r="E1" s="24"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="27">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="35" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="177" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="182" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="138" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="123"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="191" t="str">
+      <c r="B4" s="13"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="144" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="146"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="138" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="182" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="183" t="str">
+      <c r="G6" s="124"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="135" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="185"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="137"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="186" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="187"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="140"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="190"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="143"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="131" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="131" t="s">
+      <c r="J9" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="132" t="s">
+      <c r="K9" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="138" t="s">
+      <c r="L9" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="139"/>
-      <c r="N9" s="136" t="str">
+      <c r="M9" s="122"/>
+      <c r="N9" s="190" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="137"/>
+      <c r="O9" s="191"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="160" t="str">
+      <c r="B10" s="13"/>
+      <c r="C10" s="148" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="138" t="s">
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="140"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131" t="str">
+      <c r="B11" s="13"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="135" t="str">
+      <c r="K11" s="189" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="133" t="str">
+      <c r="L11" s="187" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="134"/>
-      <c r="N11" s="144" t="str">
+      <c r="M11" s="188"/>
+      <c r="N11" s="173" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="145"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="147" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="149"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="178"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="166" t="str">
+      <c r="B13" s="13"/>
+      <c r="C13" s="154" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="133" t="str">
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="187" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="144" t="str">
+      <c r="M13" s="188"/>
+      <c r="N13" s="173" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="145"/>
+      <c r="O13" s="174"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="15"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="159"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="147"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="17"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="159"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23" t="str">
+      <c r="B16" s="147"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22" t="str">
         <f>C10&amp;"は"</f>
         <v>${aw.deployment}は</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="17"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="159"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23" t="str">
+      <c r="B17" s="147"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="22" t="str">
         <f>記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
         <v>${aw.pjnamejapanese}において、外注開発経験活用・コストダウンのため</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="17"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="159"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="23" t="str">
+      <c r="B18" s="147"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="22" t="str">
         <f>"本プロジェクトの一部開発を"&amp; 記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
         <v>本プロジェクトの一部開発を${aw.custojapanese}へ委託するので、以下内容の通り委託個別契約書を締結する。</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="17"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="159"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="17"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="159"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="147"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="17"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="159"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="119" t="s">
+      <c r="B21" s="147"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="111" t="str">
+      <c r="E21" s="161"/>
+      <c r="F21" s="179" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="17"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="159"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="17"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="119" t="s">
+      <c r="B23" s="147"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="111" t="str">
+      <c r="E23" s="161"/>
+      <c r="F23" s="179" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="17"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="17"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="119" t="s">
+      <c r="B25" s="147"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="111" t="str">
+      <c r="E25" s="161"/>
+      <c r="F25" s="179" t="str">
         <f>記入!B12</f>
-        <v>${aw.user_id}</v>
-      </c>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="17"/>
+        <v>${aw.contractnumber}</v>
+      </c>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="179"/>
+      <c r="N25" s="179"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="159"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="17"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="179"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="150" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="153" t="str">
+      <c r="E27" s="162"/>
+      <c r="F27" s="182" t="str">
         <f>記入!B14</f>
-        <v>${statime}</v>
-      </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="122" t="s">
+        <v>${statime[0]}</v>
+      </c>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="155" t="str">
+      <c r="J27" s="184" t="str">
         <f>記入!B15</f>
-        <v>${endtime}</v>
-      </c>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="17"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="159"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="17"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="159"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="124" t="s">
+      <c r="B29" s="147"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="125"/>
-      <c r="F29" s="124" t="s">
+      <c r="E29" s="164"/>
+      <c r="F29" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="128" t="s">
+      <c r="G29" s="164"/>
+      <c r="H29" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="109" t="s">
+      <c r="I29" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="130" t="s">
+      <c r="J29" s="193"/>
+      <c r="K29" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="124" t="s">
+      <c r="L29" s="164"/>
+      <c r="M29" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="125"/>
-      <c r="O29" s="17"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="159"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="34" t="s">
+      <c r="B30" s="147"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="151" t="str">
+      <c r="K30" s="167"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="180" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="152"/>
-      <c r="O30" s="17"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="159"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="111" t="str">
-        <f>記入!A44</f>
-        <v>${t.budgetcode}</v>
-      </c>
-      <c r="G31" s="111"/>
-      <c r="H31" s="40" t="e">
+      <c r="B31" s="147"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="179" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="179"/>
+      <c r="H31" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="39" t="str">
+        <f>記入!C44</f>
+        <v>-</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="194">
+        <f>記入!G44</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="195"/>
+      <c r="M31" s="172" t="e">
+        <f>記入!H44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="172"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B32" s="147"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="179" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I31" s="40" t="str">
-        <f>記入!C44</f>
-        <v>-</v>
-      </c>
-      <c r="J31" s="40" t="str">
-        <f>記入!E44</f>
-        <v>${t.outsource}</v>
-      </c>
-      <c r="K31" s="112">
-        <f>記入!G44</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="118" t="e">
-        <f>記入!H44</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" s="118"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="159"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="111" t="e">
+      <c r="G32" s="179"/>
+      <c r="H32" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="40" t="e">
+      <c r="I32" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I32" s="40" t="e">
+      <c r="J32" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J32" s="40" t="e">
+      <c r="K32" s="196"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="172" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="114"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="118" t="e">
+      <c r="N32" s="172"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B33" s="147"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="179" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="159"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="111" t="e">
+      <c r="G33" s="179"/>
+      <c r="H33" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="40" t="e">
+      <c r="I33" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I33" s="40" t="e">
+      <c r="J33" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J33" s="40" t="e">
+      <c r="K33" s="196"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="172" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="114"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="118" t="e">
+      <c r="N33" s="172"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B34" s="147"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="179" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="118"/>
-      <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="159"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="111" t="e">
+      <c r="G34" s="179"/>
+      <c r="H34" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="111"/>
-      <c r="H34" s="40" t="e">
+      <c r="I34" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I34" s="40" t="e">
+      <c r="J34" s="39" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J34" s="40" t="e">
+      <c r="K34" s="198"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="172" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="118"/>
-      <c r="O34" s="17"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="159"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="111" t="str">
+      <c r="B35" s="147"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="179" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="111"/>
-      <c r="H35" s="40" t="str">
+      <c r="G35" s="179"/>
+      <c r="H35" s="39" t="str">
         <f>記入!B45</f>
         <v>-</v>
       </c>
-      <c r="I35" s="40" t="str">
+      <c r="I35" s="39" t="str">
         <f>記入!C45</f>
         <v>-</v>
       </c>
-      <c r="J35" s="40" t="str">
+      <c r="J35" s="39" t="str">
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="111" t="str">
+      <c r="K35" s="179" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="111"/>
-      <c r="M35" s="118">
+      <c r="L35" s="179"/>
+      <c r="M35" s="172">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N35" s="118"/>
-      <c r="O35" s="17"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="159"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="119" t="s">
+      <c r="B36" s="147"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="34" t="s">
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="34" t="e">
+      <c r="J36" s="33" t="e">
         <f>SUM(J31:J35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="161">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="119"/>
-      <c r="M36" s="146" t="e">
+      <c r="L36" s="161"/>
+      <c r="M36" s="175" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="146"/>
-      <c r="O36" s="17"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="159"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="150" t="s">
+      <c r="B37" s="147"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="109" t="s">
+      <c r="E37" s="162"/>
+      <c r="F37" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="150" t="str">
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="162" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="17"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="159"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="119" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="121" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="118" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="17"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="161" t="str">
+        <f>IF(F38="","","第一回")</f>
+        <v>第一回</v>
+      </c>
+      <c r="E38" s="161"/>
+      <c r="F38" s="201" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="172" t="str">
+        <f>IF(記入!F29="","",記入!F29)</f>
+        <v>${num[0].claimamount}</v>
+      </c>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="159"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="119" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="119"/>
-      <c r="F39" s="121" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="118" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="17"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="161" t="str">
+        <f>IF(F39="","","第二回")</f>
+        <v>第二回</v>
+      </c>
+      <c r="E39" s="161"/>
+      <c r="F39" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="172" t="str">
+        <f>IF(記入!F30="","",記入!F30)</f>
+        <v>${num[1].claimamount}</v>
+      </c>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="16"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="159"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="119" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="119"/>
-      <c r="F40" s="121" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="118" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="17"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="161" t="str">
+        <f>IF(F40="","","第三回")</f>
+        <v>第三回</v>
+      </c>
+      <c r="E40" s="161"/>
+      <c r="F40" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="172" t="str">
+        <f>IF(記入!F31="","",記入!F31)</f>
+        <v>${num[2].claimamount}</v>
+      </c>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="16"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="159"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="119" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="119"/>
-      <c r="F41" s="121" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="118" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="17"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="161" t="str">
+        <f>IF(F41="","","第四回")</f>
+        <v>第四回</v>
+      </c>
+      <c r="E41" s="161"/>
+      <c r="F41" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="172" t="str">
+        <f>IF(記入!F32="","",記入!F32)</f>
+        <v>${num[3].claimamount}</v>
+      </c>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="16"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="159"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="141" t="e">
+      <c r="B42" s="147"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="169">
         <f>SUM(J38:N41)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="142"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="159"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="26" t="s">
+      <c r="B43" s="147"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="17"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="159"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="169" t="s">
+      <c r="B44" s="147"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="169"/>
-      <c r="G44" s="20" t="str">
+      <c r="F44" s="139"/>
+      <c r="G44" s="19" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="17"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="159"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="169" t="s">
+      <c r="B45" s="147"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="169"/>
-      <c r="G45" s="20" t="str">
+      <c r="F45" s="139"/>
+      <c r="G45" s="19" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="17"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="16"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="159"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="17"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="16"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="159"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="26" t="s">
+      <c r="B47" s="147"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="196" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196" t="s">
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="111" t="str">
+        <f>記入!E35</f>
+        <v>${aw.extrinsic}</v>
+      </c>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="196"/>
-      <c r="K47" s="196"/>
-      <c r="L47" s="196"/>
-      <c r="M47" s="196"/>
-      <c r="N47" s="196"/>
-      <c r="O47" s="17"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="16"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="159"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="196" t="s">
+      <c r="B48" s="147"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="196"/>
-      <c r="I48" s="203" t="e">
+      <c r="H48" s="111"/>
+      <c r="I48" s="118" t="str">
         <f>IF(G47="有",記入!B7,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="205"/>
-      <c r="O48" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="J48" s="119"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="16"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="159"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="198" t="s">
+      <c r="B49" s="147"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="199"/>
-      <c r="I49" s="200" t="e">
+      <c r="H49" s="114"/>
+      <c r="I49" s="115" t="str">
         <f>IF(G47="有",F27,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J49" s="201"/>
-      <c r="K49" s="56" t="s">
+        <v>-</v>
+      </c>
+      <c r="J49" s="116"/>
+      <c r="K49" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="202" t="e">
+      <c r="L49" s="117" t="str">
         <f>IF(G47="有",J27,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="201"/>
-      <c r="N49" s="199"/>
-      <c r="O49" s="17"/>
-      <c r="R49" s="54"/>
+        <v>-</v>
+      </c>
+      <c r="M49" s="116"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="16"/>
+      <c r="R49" s="53"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="159"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="196" t="s">
+      <c r="B50" s="147"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197" t="e">
+      <c r="H50" s="111"/>
+      <c r="I50" s="112" t="str">
         <f>IF(G47="有",記入!E36,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J50" s="197"/>
-      <c r="K50" s="197"/>
-      <c r="L50" s="197"/>
-      <c r="M50" s="197"/>
-      <c r="N50" s="197"/>
-      <c r="O50" s="17"/>
-      <c r="R50" s="54"/>
+        <v>-</v>
+      </c>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="16"/>
+      <c r="R50" s="53"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="159"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="196" t="s">
+      <c r="B51" s="147"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="196"/>
-      <c r="I51" s="197" t="e">
+      <c r="H51" s="111"/>
+      <c r="I51" s="112" t="str">
         <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J51" s="197"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="197"/>
-      <c r="M51" s="197"/>
-      <c r="N51" s="197"/>
-      <c r="O51" s="17"/>
-      <c r="R51" s="55"/>
+        <v>-</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="16"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="159"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="54" t="s">
+      <c r="B52" s="147"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="17"/>
-      <c r="R52" s="55"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="16"/>
+      <c r="R52" s="54"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="159"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="54" t="s">
+      <c r="B53" s="147"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="17"/>
-      <c r="R53" s="55"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="16"/>
+      <c r="R53" s="54"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="159"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="17"/>
-      <c r="R54" s="55"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="16"/>
+      <c r="R54" s="54"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="159"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="26" t="s">
+      <c r="B55" s="147"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="194" t="str">
+      <c r="E55" s="56"/>
+      <c r="F55" s="109" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="194"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="194"/>
-      <c r="N55" s="194"/>
-      <c r="O55" s="17"/>
-      <c r="R55" s="55"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="16"/>
+      <c r="R55" s="54"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="159"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="195"/>
-      <c r="H56" s="195"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="195"/>
-      <c r="K56" s="195"/>
-      <c r="L56" s="195"/>
-      <c r="M56" s="195"/>
-      <c r="N56" s="195"/>
-      <c r="O56" s="17"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="16"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="159"/>
-      <c r="C57" s="158" t="s">
+      <c r="B57" s="147"/>
+      <c r="C57" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158" t="s">
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158" t="s">
+      <c r="G57" s="159"/>
+      <c r="H57" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158" t="s">
+      <c r="I57" s="159"/>
+      <c r="J57" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158" t="s">
+      <c r="K57" s="159"/>
+      <c r="L57" s="159"/>
+      <c r="M57" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="159"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="159"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="157"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="159"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="159"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="158"/>
+      <c r="K61" s="158"/>
+      <c r="L61" s="158"/>
+      <c r="M61" s="158"/>
+      <c r="N61" s="158"/>
+      <c r="O61" s="158"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="159"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="158"/>
+      <c r="K62" s="158"/>
+      <c r="L62" s="158"/>
+      <c r="M62" s="158"/>
+      <c r="N62" s="158"/>
+      <c r="O62" s="158"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="159"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="158"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="159"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="159"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="158"/>
+      <c r="M65" s="158"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="158"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="159"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="27" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M64:O66"/>
+    <mergeCell ref="C57:E66"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J61:L63"/>
+    <mergeCell ref="J64:L66"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="M61:O63"/>
     <mergeCell ref="B14:B66"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -5009,68 +5070,29 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D29:E36"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="F55:N56"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -16,9 +16,10 @@
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -39,20 +40,6 @@
             <family val="2"/>
           </rPr>
           <t>jx:area(lastCell="H50")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="H44")</t>
         </r>
       </text>
     </comment>
@@ -85,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="193">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -517,22 +504,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -560,13 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>経費</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,10 +647,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>委託先</t>
     <rPh sb="0" eb="2">
       <t>イタク</t>
@@ -694,10 +654,6 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>－</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -874,6 +830,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>实施借出</t>
     </r>
@@ -1298,22 +1256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${t.budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outcommunity}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${num[0].claimdate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1414,18 +1356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${t.budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${num[0].supportdate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1439,6 +1369,129 @@
   </si>
   <si>
     <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].depart}</t>
+  </si>
+  <si>
+    <t>${alist[0].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[0].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[1].depart}</t>
+  </si>
+  <si>
+    <t>${alist[1].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[1].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[2].depart}</t>
+  </si>
+  <si>
+    <t>${alist[2].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[2].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[3].depart}</t>
+  </si>
+  <si>
+    <t>${alist[3].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[3].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[4].depart}</t>
+  </si>
+  <si>
+    <t>${alist[4].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[4].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[5].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[5].depart}</t>
+  </si>
+  <si>
+    <t>${alist[5].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[5].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[6].depart}</t>
+  </si>
+  <si>
+    <t>${alist[6].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[6].outcommunity}</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1645,6 +1698,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1916,7 +1971,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2018,18 +2073,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2043,12 +2092,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2104,9 +2147,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2121,411 +2161,432 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2836,10 +2897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2853,447 +2914,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="G1" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="76"/>
+      <c r="A1" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="G1" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>105</v>
+      <c r="A2" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="59" t="s">
-        <v>106</v>
+      <c r="A3" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="58" t="s">
-        <v>107</v>
+      <c r="A4" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="58" t="s">
-        <v>108</v>
+      <c r="A5" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="60" t="s">
-        <v>109</v>
+      <c r="A6" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>110</v>
+      <c r="A7" s="56" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="59" t="s">
-        <v>80</v>
+      <c r="A9" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="206" t="s">
-        <v>162</v>
+      <c r="B14" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="206" t="s">
-        <v>163</v>
+      <c r="B15" s="68" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>131</v>
+      <c r="B17" s="60" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="41"/>
+      <c r="A18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="65" t="s">
-        <v>118</v>
+      <c r="B20" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="41"/>
+      <c r="A21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="39"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="41"/>
+      <c r="A22" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="59" t="s">
-        <v>82</v>
+      <c r="A23" s="55" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="59" t="s">
-        <v>83</v>
+      <c r="A24" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>86</v>
+      <c r="B25" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="68" t="str">
+      <c r="B28" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="63" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>140</v>
+      <c r="B29" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="68" t="str">
+        <v>130</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+    </row>
+    <row r="30" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="63" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>145</v>
+      <c r="B30" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:8" s="69" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="68" t="str">
+        <v>135</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="63" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>149</v>
+      <c r="E31" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-    </row>
-    <row r="32" spans="1:8" s="69" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="68" t="str">
+        <v>139</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:8" s="64" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="63" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>154</v>
+      <c r="B32" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
+        <v>144</v>
+      </c>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3302,244 +3363,388 @@
         <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+        <v>109</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
+        <v>112</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="82"/>
+      <c r="E36" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
+      <c r="B37" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="82"/>
+      <c r="E37" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="88"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
+      <c r="B38" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
+        <v>115</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
+        <v>116</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
+        <v>117</v>
+      </c>
+      <c r="C41" s="97"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="74" t="s">
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="73" t="s">
+      <c r="H42" s="74" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="38" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="38" t="s">
+      <c r="D43" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="67">
-        <f>SUM(E44:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="46" t="e">
+      <c r="F43" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+    </row>
+    <row r="44" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A44" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="70" t="str">
+        <f>E44</f>
+        <v>${alist[0].outsource}</v>
+      </c>
+      <c r="H44" s="69" t="e">
         <f>E44*F44</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="39" t="s">
+    <row r="45" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A45" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="70" t="str">
+        <f t="shared" ref="G45:G50" si="0">E45</f>
+        <v>${alist[1].outsource}</v>
+      </c>
+      <c r="H45" s="69" t="e">
+        <f t="shared" ref="H45:H50" si="1">E45*F45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A46" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>${alist[2].outsource}</v>
+      </c>
+      <c r="H46" s="69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A47" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>${alist[3].outsource}</v>
+      </c>
+      <c r="H47" s="69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A48" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>${alist[4].outsource}</v>
+      </c>
+      <c r="H48" s="69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A49" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>${alist[5].outsource}</v>
+      </c>
+      <c r="H49" s="69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="64" customFormat="1" ht="14.25">
+      <c r="A50" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>${alist[6].outsource}</v>
+      </c>
+      <c r="H50" s="69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15">
+      <c r="A51" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="40" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="42">
+        <f>SUM(E44:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="44">
-        <f>SUM(C44:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="44">
-        <f>SUM(E44:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="44">
-        <f>SUM(G44:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="48" t="e">
-        <f>SUM(H44:H45)</f>
+      <c r="G51" s="71" t="e">
+        <f>G45+G46+G47+G48+G49+G50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="44" t="e">
+        <f>SUM(H44:H50)</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C44:F44 A44" name="範囲3"/>
-    <protectedRange sqref="H45" name="範囲4"/>
+    <protectedRange sqref="A44:A50" name="範囲3_1"/>
+    <protectedRange sqref="E44:F50" name="範囲3_2"/>
+    <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
@@ -3559,7 +3764,7 @@
     <mergeCell ref="E39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
     </dataValidation>
@@ -3579,10 +3784,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:N56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3592,7 +3797,7 @@
     <col min="3" max="3" width="4.125" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="43.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
@@ -3614,7 +3819,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -3628,12 +3833,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="13"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="134" t="s">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="182" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -3643,104 +3848,104 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="123"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="135"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="144" t="str">
+      <c r="C4" s="178"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="191" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="146"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="121" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="135"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="13"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="135" t="str">
+      <c r="G6" s="172"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="183" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="137"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="138" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="13"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="143"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="13"/>
@@ -3751,76 +3956,76 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="157" t="s">
+      <c r="H9" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="186" t="s">
+      <c r="K9" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="121" t="s">
+      <c r="L9" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="190" t="str">
+      <c r="M9" s="134"/>
+      <c r="N9" s="131" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="191"/>
+      <c r="O9" s="132"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="13"/>
-      <c r="C10" s="148" t="str">
+      <c r="C10" s="160" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="121" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="135"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157" t="str">
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="189" t="str">
+      <c r="K11" s="130" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="187" t="str">
+      <c r="L11" s="128" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="188"/>
-      <c r="N11" s="173" t="str">
+      <c r="M11" s="129"/>
+      <c r="N11" s="136" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="174"/>
+      <c r="O11" s="137"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="13"/>
@@ -3831,44 +4036,44 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="176" t="s">
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="178"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="141"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="13"/>
-      <c r="C13" s="154" t="str">
+      <c r="C13" s="166" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="187" t="str">
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="128" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="188"/>
-      <c r="N13" s="173" t="str">
+      <c r="M13" s="129"/>
+      <c r="N13" s="136" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="174"/>
+      <c r="O13" s="137"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="159" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="21"/>
@@ -3886,7 +4091,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="21"/>
       <c r="D15" s="24" t="s">
         <v>49</v>
@@ -3904,7 +4109,7 @@
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="147"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="21"/>
       <c r="D16" s="24"/>
       <c r="E16" s="22" t="str">
@@ -3923,7 +4128,7 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="21"/>
       <c r="D17" s="24"/>
       <c r="E17" s="22" t="str">
@@ -3942,7 +4147,7 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="147"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="str">
@@ -3961,7 +4166,7 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="147"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13"/>
       <c r="E19" s="24"/>
@@ -3977,7 +4182,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="147"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
         <v>31</v>
@@ -3995,587 +4200,579 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="161"/>
-      <c r="F21" s="179" t="str">
+      <c r="D21" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="145" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="147"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="147"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="179" t="str">
+      <c r="E23" s="111"/>
+      <c r="F23" s="145" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="147"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="179" t="str">
+      <c r="E25" s="111"/>
+      <c r="F25" s="145" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="147"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="162" t="s">
+      <c r="D27" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="182" t="str">
+      <c r="E27" s="142"/>
+      <c r="F27" s="146" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="160" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="184" t="str">
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="148" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="185"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="147"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="185"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="163" t="s">
+      <c r="D29" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="164"/>
-      <c r="F29" s="163" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="164"/>
-      <c r="H29" s="203" t="s">
+      <c r="G29" s="119"/>
+      <c r="H29" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="192" t="s">
+      <c r="I29" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="193"/>
-      <c r="K29" s="205" t="s">
+      <c r="J29" s="114"/>
+      <c r="K29" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="164"/>
-      <c r="M29" s="163" t="s">
+      <c r="L29" s="119"/>
+      <c r="M29" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="164"/>
+      <c r="N29" s="119"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="147"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="204"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="123"/>
       <c r="I30" s="33" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="167"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="180" t="str">
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="143" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="181"/>
+      <c r="N30" s="144"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="147"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="179" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="179"/>
-      <c r="H31" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="39" t="str">
-        <f>記入!C44</f>
-        <v>-</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="194">
-        <f>記入!G44</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="195"/>
-      <c r="M31" s="172" t="e">
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="125"/>
+      <c r="H31" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="150" t="e">
+        <f>記入!G51</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="151"/>
+      <c r="M31" s="110" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="172"/>
+      <c r="N31" s="110"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="147"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="179" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="179"/>
-      <c r="H32" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="196"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="172" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" s="172"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="125"/>
+      <c r="H32" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="110" t="e">
+        <f>記入!H45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="110"/>
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="147"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="179" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="179"/>
-      <c r="H33" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="196"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="172" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" s="172"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="124" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="125"/>
+      <c r="H33" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="110" t="e">
+        <f>記入!H46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="110"/>
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="147"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="179" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="179"/>
-      <c r="H34" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" s="39" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="198"/>
-      <c r="L34" s="199"/>
-      <c r="M34" s="172" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="172"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="125"/>
+      <c r="H34" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="110" t="e">
+        <f>記入!H47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="110"/>
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="147"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="179" t="str">
-        <f>記入!A45</f>
-        <v>経費</v>
-      </c>
-      <c r="G35" s="179"/>
-      <c r="H35" s="39" t="str">
-        <f>記入!B45</f>
-        <v>-</v>
-      </c>
-      <c r="I35" s="39" t="str">
-        <f>記入!C45</f>
-        <v>-</v>
-      </c>
-      <c r="J35" s="39" t="str">
-        <f>記入!E45</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="179" t="str">
-        <f>記入!G45</f>
-        <v>-</v>
-      </c>
-      <c r="L35" s="179"/>
-      <c r="M35" s="172">
-        <f>記入!H45</f>
+      <c r="D35" s="170"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="125"/>
+      <c r="H35" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="110" t="e">
+        <f>記入!H48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" s="110"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B36" s="159"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="124" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="125"/>
+      <c r="H36" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J36" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="110" t="e">
+        <f>記入!H49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="110"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B37" s="159"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="125"/>
+      <c r="H37" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="154"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="110" t="e">
+        <f>記入!H50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" s="110"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B38" s="159"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="33">
+        <f>SUM(J31:J37)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="172"/>
-      <c r="O35" s="16"/>
-    </row>
-    <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="147"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="33" t="e">
-        <f>SUM(J31:J35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="161">
-        <f>SUM(K31:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="161"/>
-      <c r="M36" s="175" t="e">
-        <f>SUM(M31:N35)</f>
+      <c r="K38" s="111" t="e">
+        <f>SUM(K31:L37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="175"/>
-      <c r="O36" s="16"/>
-    </row>
-    <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="147"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="162" t="s">
+      <c r="L38" s="111"/>
+      <c r="M38" s="138" t="e">
+        <f>SUM(M31:N37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" s="138"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B39" s="159"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="162"/>
-      <c r="F37" s="192" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="162" t="str">
+      <c r="E39" s="142"/>
+      <c r="F39" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="142" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="147"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="161" t="str">
-        <f>IF(F38="","","第一回")</f>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1">
+      <c r="B40" s="159"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="111" t="str">
+        <f>IF(F40="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E38" s="161"/>
-      <c r="F38" s="201" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="172" t="str">
+      <c r="E40" s="111"/>
+      <c r="F40" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="110" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="147"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="161" t="str">
-        <f>IF(F39="","","第二回")</f>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1">
+      <c r="B41" s="159"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="111" t="str">
+        <f>IF(F41="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="201" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="172" t="str">
+      <c r="E41" s="111"/>
+      <c r="F41" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="110" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="16"/>
-    </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="147"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="161" t="str">
-        <f>IF(F40="","","第三回")</f>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="2:15" ht="18" customHeight="1">
+      <c r="B42" s="159"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="111" t="str">
+        <f>IF(F42="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E40" s="161"/>
-      <c r="F40" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="172" t="str">
+      <c r="E42" s="111"/>
+      <c r="F42" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="110" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="147"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="161" t="str">
-        <f>IF(F41="","","第四回")</f>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="2:15" ht="18" customHeight="1">
+      <c r="B43" s="159"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="111" t="str">
+        <f>IF(F43="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E41" s="161"/>
-      <c r="F41" s="201" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="172" t="str">
+      <c r="E43" s="111"/>
+      <c r="F43" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="110" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="147"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="169">
-        <f>SUM(J38:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="16"/>
-    </row>
-    <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="147"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
+      <c r="N43" s="110"/>
       <c r="O43" s="16"/>
     </row>
-    <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="147"/>
+    <row r="44" spans="2:15" ht="18" customHeight="1">
+      <c r="B44" s="159"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="19" t="str">
-        <f>記入!B40</f>
-        <v>${aw.valuation}</v>
-      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="25"/>
+      <c r="J44" s="206">
+        <f>SUM(J40:N43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="207"/>
+      <c r="L44" s="207"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="208"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="147"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="19" t="str">
-        <f>記入!B41</f>
-        <v>${aw.individual}</v>
-      </c>
+      <c r="D45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -4583,13 +4780,18 @@
       <c r="N45" s="25"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="147"/>
+    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="159"/>
       <c r="C46" s="21"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="169"/>
+      <c r="G46" s="19" t="str">
+        <f>記入!B40</f>
+        <v>${aw.valuation}</v>
+      </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -4600,476 +4802,438 @@
       <c r="O46" s="16"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="147"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="111" t="str">
+      <c r="D47" s="25"/>
+      <c r="E47" s="169" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="169"/>
+      <c r="G47" s="19" t="str">
+        <f>記入!B41</f>
+        <v>${aw.individual}</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="2:15" ht="9.75" customHeight="1">
+      <c r="B48" s="159"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="159"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="196" t="str">
         <f>記入!E35</f>
         <v>${aw.extrinsic}</v>
       </c>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="16"/>
-    </row>
-    <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="147"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="H48" s="111"/>
-      <c r="I48" s="118" t="str">
-        <f>IF(G47="有",記入!B7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="147"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="114"/>
-      <c r="I49" s="115" t="str">
-        <f>IF(G47="有",F27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J49" s="116"/>
-      <c r="K49" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="L49" s="117" t="str">
-        <f>IF(G47="有",J27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M49" s="116"/>
-      <c r="N49" s="114"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196"/>
       <c r="O49" s="16"/>
-      <c r="R49" s="53"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="147"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="21"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="111"/>
-      <c r="I50" s="112" t="str">
-        <f>IF(G47="有",記入!E36,"-")</f>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="196"/>
+      <c r="I50" s="203" t="str">
+        <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="205"/>
       <c r="O50" s="16"/>
-      <c r="R50" s="53"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="147"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="21"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="111"/>
-      <c r="I51" s="112" t="str">
-        <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="199"/>
+      <c r="I51" s="200" t="str">
+        <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="202" t="str">
+        <f>IF(G49="有",J27,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="M51" s="201"/>
+      <c r="N51" s="199"/>
       <c r="O51" s="16"/>
-      <c r="R51" s="54"/>
+      <c r="R51" s="49"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="147"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="196" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197" t="str">
+        <f>IF(G49="有",記入!E36,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J52" s="197"/>
+      <c r="K52" s="197"/>
+      <c r="L52" s="197"/>
+      <c r="M52" s="197"/>
+      <c r="N52" s="197"/>
       <c r="O52" s="16"/>
-      <c r="R52" s="54"/>
+      <c r="R52" s="49"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="147"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="196" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197" t="str">
+        <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J53" s="197"/>
+      <c r="K53" s="197"/>
+      <c r="L53" s="197"/>
+      <c r="M53" s="197"/>
+      <c r="N53" s="197"/>
       <c r="O53" s="16"/>
-      <c r="R53" s="54"/>
-    </row>
-    <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="147"/>
+      <c r="R53" s="50"/>
+    </row>
+    <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="159"/>
       <c r="C54" s="21"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
       <c r="O54" s="16"/>
-      <c r="R54" s="54"/>
+      <c r="R54" s="50"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="147"/>
+      <c r="B55" s="159"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="109" t="str">
+      <c r="D55" s="25"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="16"/>
+      <c r="R55" s="50"/>
+    </row>
+    <row r="56" spans="2:18" ht="9" customHeight="1">
+      <c r="B56" s="159"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="16"/>
+      <c r="R56" s="50"/>
+    </row>
+    <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="159"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="194" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="109"/>
-      <c r="O55" s="16"/>
-      <c r="R55" s="54"/>
-    </row>
-    <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="147"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="110"/>
-      <c r="N56" s="110"/>
-      <c r="O56" s="16"/>
-    </row>
-    <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="147"/>
-      <c r="C57" s="159" t="s">
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="194"/>
+      <c r="K57" s="194"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="194"/>
+      <c r="O57" s="16"/>
+      <c r="R57" s="50"/>
+    </row>
+    <row r="58" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B58" s="159"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="195"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="159"/>
+      <c r="C59" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159" t="s">
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159" t="s">
+      <c r="G59" s="158"/>
+      <c r="H59" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159" t="s">
+      <c r="I59" s="158"/>
+      <c r="J59" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159" t="s">
-        <v>34</v>
-      </c>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
-    </row>
-    <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="147"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="158"/>
-      <c r="M58" s="158"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="158"/>
-    </row>
-    <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="147"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158"/>
       <c r="K59" s="158"/>
       <c r="L59" s="158"/>
-      <c r="M59" s="158"/>
+      <c r="M59" s="158" t="s">
+        <v>34</v>
+      </c>
       <c r="N59" s="158"/>
       <c r="O59" s="158"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="147"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="158"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="147"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="159"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="158"/>
-      <c r="K61" s="158"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="158"/>
-      <c r="N61" s="158"/>
-      <c r="O61" s="158"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="147"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="158"/>
-      <c r="N62" s="158"/>
-      <c r="O62" s="158"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="147"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="158"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="147"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="158"/>
-      <c r="N64" s="158"/>
-      <c r="O64" s="158"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="157"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="147"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="158"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="158"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="147"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="158"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="158"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="158"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="158"/>
-      <c r="O66" s="158"/>
-    </row>
-    <row r="67" spans="2:15" ht="14.25">
-      <c r="C67" s="27" t="s">
+      <c r="B66" s="159"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="157"/>
+    </row>
+    <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="159"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="157"/>
+    </row>
+    <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="159"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
+    </row>
+    <row r="69" spans="2:15" ht="14.25">
+      <c r="C69" s="27" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
+  <protectedRanges>
+    <protectedRange sqref="J31:J37" name="範囲3_2"/>
+  </protectedRanges>
+  <mergeCells count="112">
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="J44:N44"/>
     <mergeCell ref="J40:N40"/>
     <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M64:O66"/>
-    <mergeCell ref="C57:E66"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J61:L63"/>
-    <mergeCell ref="J64:L66"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="M61:O63"/>
-    <mergeCell ref="B14:B66"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F61:G63"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H61:I63"/>
-    <mergeCell ref="F64:G66"/>
-    <mergeCell ref="H64:I66"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="C3:C8"/>
@@ -5081,22 +5245,103 @@
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="F55:N56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="B14:B68"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F63:G65"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H63:I65"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="H66:I68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K31:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M66:O68"/>
+    <mergeCell ref="C59:E68"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="J63:L65"/>
+    <mergeCell ref="J66:L68"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="M63:O65"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="F57:N58"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:N53"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:N51"/>
     <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$69</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -39,7 +38,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="H50")</t>
+          <t>jx:area(lastCell="H51")</t>
         </r>
       </text>
     </comment>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="207">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -1492,6 +1491,57 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].awardmoney}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[1].awardmoney}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[2].awardmoney}</t>
+  </si>
+  <si>
+    <t>${alist[3].awardmoney}</t>
+  </si>
+  <si>
+    <t>${alist[4].awardmoney}</t>
+  </si>
+  <si>
+    <t>${alist[5].awardmoney}</t>
+  </si>
+  <si>
+    <t>${alist[6].awardmoney}</t>
+  </si>
+  <si>
+    <t>${alist[1].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[2].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[3].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[4].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[5].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[6].outsource}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1971,7 +2021,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,9 +2221,6 @@
     <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2291,10 +2338,259 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,87 +2605,15 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2410,183 +2634,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2899,8 +2946,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2914,14 +2961,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="72"/>
+      <c r="G1" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="77"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="54" t="s">
@@ -2934,8 +2981,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="55" t="s">
@@ -2945,8 +2992,8 @@
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="54" t="s">
@@ -2958,8 +3005,8 @@
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="54" t="s">
@@ -2969,8 +3016,8 @@
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="79"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="56" t="s">
@@ -2982,8 +3029,8 @@
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="56" t="s">
@@ -2995,8 +3042,8 @@
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="54" t="s">
@@ -3006,8 +3053,8 @@
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="55" t="s">
@@ -3020,8 +3067,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="54" t="s">
@@ -3033,8 +3080,8 @@
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="54" t="s">
@@ -3046,8 +3093,8 @@
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="54" t="s">
@@ -3059,8 +3106,8 @@
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="54" t="s">
@@ -3070,8 +3117,8 @@
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="54" t="s">
@@ -3083,8 +3130,8 @@
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="54" t="s">
@@ -3096,8 +3143,8 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="54" t="s">
@@ -3107,8 +3154,8 @@
       <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="54" t="s">
@@ -3120,8 +3167,8 @@
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="54" t="s">
@@ -3131,8 +3178,8 @@
       <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="54" t="s">
@@ -3144,8 +3191,8 @@
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="54" t="s">
@@ -3157,8 +3204,8 @@
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="54" t="s">
@@ -3168,8 +3215,8 @@
       <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="54" t="s">
@@ -3179,8 +3226,8 @@
       <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="55" t="s">
@@ -3190,8 +3237,8 @@
       <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="55" t="s">
@@ -3201,8 +3248,8 @@
       <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="55" t="s">
@@ -3214,8 +3261,8 @@
       <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -3227,14 +3274,14 @@
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="57"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="58" t="s">
@@ -3255,8 +3302,8 @@
       <c r="F28" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="63" t="str">
@@ -3278,8 +3325,8 @@
       <c r="F29" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="63" t="str">
@@ -3301,8 +3348,8 @@
       <c r="F30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="63" t="str">
@@ -3324,8 +3371,8 @@
       <c r="F31" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" spans="1:8" s="64" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="63" t="str">
@@ -3347,8 +3394,8 @@
       <c r="F32" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="2"/>
@@ -3365,16 +3412,16 @@
       <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="83" t="s">
+      <c r="D35" s="80"/>
+      <c r="E35" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
@@ -3383,16 +3430,16 @@
       <c r="B36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="86" t="s">
+      <c r="D36" s="81"/>
+      <c r="E36" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
@@ -3401,16 +3448,16 @@
       <c r="B37" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="86" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="88"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="36" t="s">
@@ -3419,16 +3466,16 @@
       <c r="B38" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="36" t="s">
@@ -3437,16 +3484,16 @@
       <c r="B39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="99" t="s">
+      <c r="D39" s="93"/>
+      <c r="E39" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="36" t="s">
@@ -3455,12 +3502,12 @@
       <c r="B40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="36" t="s">
@@ -3469,36 +3516,36 @@
       <c r="B41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="75" t="s">
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="74" t="s">
+      <c r="H42" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="37" t="s">
         <v>59</v>
       </c>
@@ -3511,8 +3558,8 @@
       <c r="F43" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
     </row>
     <row r="44" spans="1:8" s="64" customFormat="1" ht="14.25">
       <c r="A44" s="67" t="s">
@@ -3527,19 +3574,17 @@
       <c r="D44" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="72" t="s">
-        <v>160</v>
+      <c r="E44" s="71" t="s">
+        <v>193</v>
       </c>
       <c r="F44" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="70" t="str">
-        <f>E44</f>
-        <v>${alist[0].outsource}</v>
-      </c>
-      <c r="H44" s="69" t="e">
-        <f>E44*F44</f>
-        <v>#VALUE!</v>
+      <c r="G44" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3555,19 +3600,17 @@
       <c r="D45" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="71" t="s">
         <v>165</v>
       </c>
       <c r="F45" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="G45" s="70" t="str">
-        <f t="shared" ref="G45:G50" si="0">E45</f>
-        <v>${alist[1].outsource}</v>
-      </c>
-      <c r="H45" s="69" t="e">
-        <f t="shared" ref="H45:H50" si="1">E45*F45</f>
-        <v>#VALUE!</v>
+      <c r="G45" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="69" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3583,19 +3626,17 @@
       <c r="D46" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="71" t="s">
         <v>170</v>
       </c>
       <c r="F46" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="G46" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>${alist[2].outsource}</v>
-      </c>
-      <c r="H46" s="69" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G46" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="69" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3611,19 +3652,17 @@
       <c r="D47" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="71" t="s">
         <v>175</v>
       </c>
       <c r="F47" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>${alist[3].outsource}</v>
-      </c>
-      <c r="H47" s="69" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G47" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="69" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3639,19 +3678,17 @@
       <c r="D48" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="71" t="s">
         <v>180</v>
       </c>
       <c r="F48" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>${alist[4].outsource}</v>
-      </c>
-      <c r="H48" s="69" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G48" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3667,19 +3704,17 @@
       <c r="D49" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="71" t="s">
         <v>184</v>
       </c>
       <c r="F49" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>${alist[5].outsource}</v>
-      </c>
-      <c r="H49" s="69" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G49" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="69" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="64" customFormat="1" ht="14.25">
@@ -3695,52 +3730,41 @@
       <c r="D50" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F50" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>${alist[6].outsource}</v>
-      </c>
-      <c r="H50" s="69" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G50" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="106"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="42" t="s">
         <v>191</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="42">
-        <f>SUM(E44:E50)</f>
-        <v>0</v>
-      </c>
+      <c r="E51" s="42"/>
       <c r="F51" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="71" t="e">
-        <f>G45+G46+G47+G48+G49+G50</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="44" t="e">
-        <f>SUM(H44:H50)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="G51" s="70"/>
+      <c r="H51" s="44"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A44:A50" name="範囲3_1"/>
-    <protectedRange sqref="E44:F50" name="範囲3_2"/>
+    <protectedRange sqref="E44:G50" name="範囲3_2"/>
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
@@ -3764,7 +3788,7 @@
     <mergeCell ref="E39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
     </dataValidation>
@@ -3786,8 +3810,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38:N38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3833,12 +3857,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="13"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="182" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="119" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -3848,104 +3872,104 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="191" t="str">
+      <c r="C4" s="115"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="129" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="133" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="135"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="13"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="182" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="183" t="str">
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="120" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="185"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="122"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="186" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="187"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="125"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="13"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="190"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="128"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="13"/>
@@ -3956,76 +3980,76 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="127" t="s">
+      <c r="K9" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="133" t="s">
+      <c r="L9" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="134"/>
-      <c r="N9" s="131" t="str">
+      <c r="M9" s="112"/>
+      <c r="N9" s="109" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="132"/>
+      <c r="O9" s="110"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="13"/>
-      <c r="C10" s="160" t="str">
+      <c r="C10" s="138" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="133" t="s">
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="135"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126" t="str">
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="130" t="str">
+      <c r="K11" s="193" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="128" t="str">
+      <c r="L11" s="191" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="129"/>
-      <c r="N11" s="136" t="str">
+      <c r="M11" s="192"/>
+      <c r="N11" s="183" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="137"/>
+      <c r="O11" s="184"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="13"/>
@@ -4036,44 +4060,44 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="139" t="s">
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="141"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="13"/>
-      <c r="C13" s="166" t="str">
+      <c r="C13" s="144" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="128" t="str">
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="191" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="129"/>
-      <c r="N13" s="136" t="str">
+      <c r="M13" s="192"/>
+      <c r="N13" s="183" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="137"/>
+      <c r="O13" s="184"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="21"/>
@@ -4091,7 +4115,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="159"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="21"/>
       <c r="D15" s="24" t="s">
         <v>49</v>
@@ -4109,7 +4133,7 @@
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="159"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="21"/>
       <c r="D16" s="24"/>
       <c r="E16" s="22" t="str">
@@ -4128,7 +4152,7 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="159"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="21"/>
       <c r="D17" s="24"/>
       <c r="E17" s="22" t="str">
@@ -4147,7 +4171,7 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="159"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="str">
@@ -4166,7 +4190,7 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="159"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13"/>
       <c r="E19" s="24"/>
@@ -4182,7 +4206,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="159"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
         <v>31</v>
@@ -4200,411 +4224,411 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="159"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="145" t="str">
+      <c r="E21" s="151"/>
+      <c r="F21" s="203" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="159"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="203"/>
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="159"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="145" t="str">
+      <c r="E23" s="151"/>
+      <c r="F23" s="203" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="159"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="203"/>
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="159"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="145" t="str">
+      <c r="E25" s="151"/>
+      <c r="F25" s="203" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="203"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="159"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="159"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="142" t="s">
+      <c r="D27" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="146" t="str">
+      <c r="E27" s="152"/>
+      <c r="F27" s="204" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="116" t="s">
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="148" t="str">
+      <c r="J27" s="206" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="149"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="206"/>
+      <c r="N27" s="207"/>
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="159"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="149"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
+      <c r="N28" s="207"/>
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="159"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="118" t="s">
+      <c r="E29" s="154"/>
+      <c r="F29" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="122" t="s">
+      <c r="G29" s="154"/>
+      <c r="H29" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="114"/>
-      <c r="K29" s="156" t="s">
+      <c r="J29" s="196"/>
+      <c r="K29" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="119"/>
-      <c r="M29" s="118" t="s">
+      <c r="L29" s="154"/>
+      <c r="M29" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="119"/>
+      <c r="N29" s="154"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="159"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="123"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="189"/>
       <c r="I30" s="33" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="120"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="143" t="str">
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="201" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="144"/>
+      <c r="N30" s="202"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="159"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="124" t="s">
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="125"/>
+      <c r="G31" s="160"/>
       <c r="H31" s="66" t="s">
         <v>159</v>
       </c>
       <c r="I31" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="150" t="e">
+      <c r="K31" s="177">
         <f>記入!G51</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="151"/>
-      <c r="M31" s="110" t="e">
+        <v>0</v>
+      </c>
+      <c r="L31" s="178"/>
+      <c r="M31" s="176" t="str">
         <f>記入!H44</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" s="110"/>
+        <v>${alist[0].awardmoney}</v>
+      </c>
+      <c r="N31" s="176"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="159"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="124" t="s">
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="125"/>
+      <c r="G32" s="160"/>
       <c r="H32" s="66" t="s">
         <v>164</v>
       </c>
       <c r="I32" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="152"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="110" t="e">
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="176" t="str">
         <f>記入!H45</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N32" s="110"/>
+        <v>${alist[1].awardmoney}</v>
+      </c>
+      <c r="N32" s="176"/>
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="159"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="124" t="s">
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="125"/>
+      <c r="G33" s="160"/>
       <c r="H33" s="66" t="s">
         <v>169</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="110" t="e">
+      <c r="K33" s="179"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="176" t="str">
         <f>記入!H46</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N33" s="110"/>
+        <v>${alist[2].awardmoney}</v>
+      </c>
+      <c r="N33" s="176"/>
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="159"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="124" t="s">
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="159" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="160"/>
       <c r="H34" s="66" t="s">
         <v>174</v>
       </c>
       <c r="I34" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="152"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="110" t="e">
+      <c r="K34" s="179"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="176" t="str">
         <f>記入!H47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N34" s="110"/>
+        <v>${alist[3].awardmoney}</v>
+      </c>
+      <c r="N34" s="176"/>
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="159"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="124" t="s">
+      <c r="D35" s="155"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="66" t="s">
         <v>179</v>
       </c>
       <c r="I35" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="152"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="110" t="e">
+      <c r="K35" s="179"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="176" t="str">
         <f>記入!H48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N35" s="110"/>
+        <v>${alist[4].awardmoney}</v>
+      </c>
+      <c r="N35" s="176"/>
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="159"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="124" t="s">
+      <c r="D36" s="155"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="159" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="160"/>
       <c r="H36" s="66" t="s">
         <v>183</v>
       </c>
       <c r="I36" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="K36" s="152"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="110" t="e">
+      <c r="K36" s="179"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="176" t="str">
         <f>記入!H49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N36" s="110"/>
+        <v>${alist[5].awardmoney}</v>
+      </c>
+      <c r="N36" s="176"/>
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="159"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="124" t="s">
+      <c r="D37" s="155"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="125"/>
+      <c r="G37" s="160"/>
       <c r="H37" s="66" t="s">
         <v>188</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="K37" s="154"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="110" t="e">
+      <c r="K37" s="181"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="176" t="str">
         <f>記入!H50</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N37" s="110"/>
+        <v>${alist[6].awardmoney}</v>
+      </c>
+      <c r="N37" s="176"/>
       <c r="O37" s="16"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="159"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="111" t="s">
+      <c r="D38" s="157"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
       <c r="I38" s="38" t="s">
         <v>192</v>
       </c>
@@ -4612,139 +4636,139 @@
         <f>SUM(J31:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="111" t="e">
+      <c r="K38" s="151">
         <f>SUM(K31:L37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" s="111"/>
-      <c r="M38" s="138" t="e">
+        <v>0</v>
+      </c>
+      <c r="L38" s="151"/>
+      <c r="M38" s="199">
         <f>SUM(M31:N37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N38" s="138"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="199"/>
       <c r="O38" s="16"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="159"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="112" t="s">
+      <c r="E39" s="152"/>
+      <c r="F39" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="142" t="str">
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="152" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
       <c r="O39" s="16"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="159"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="111" t="str">
+      <c r="D40" s="151" t="str">
         <f>IF(F40="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="115" t="s">
+      <c r="E40" s="151"/>
+      <c r="F40" s="197" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="110" t="str">
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="176" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
       <c r="O40" s="16"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="159"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="111" t="str">
+      <c r="D41" s="151" t="str">
         <f>IF(F41="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="115" t="s">
+      <c r="E41" s="151"/>
+      <c r="F41" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="110" t="str">
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="176" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
       <c r="O41" s="16"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="159"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="111" t="str">
+      <c r="D42" s="151" t="str">
         <f>IF(F42="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="115" t="s">
+      <c r="E42" s="151"/>
+      <c r="F42" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="110" t="str">
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="176" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
       <c r="O42" s="16"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="159"/>
+      <c r="B43" s="137"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="111" t="str">
+      <c r="D43" s="151" t="str">
         <f>IF(F43="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="115" t="s">
+      <c r="E43" s="151"/>
+      <c r="F43" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="110" t="str">
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="176" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
       <c r="O43" s="16"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="159"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="21"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -4752,18 +4776,18 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="206">
+      <c r="J44" s="173">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="207"/>
-      <c r="L44" s="207"/>
-      <c r="M44" s="207"/>
-      <c r="N44" s="208"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="175"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="159"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="21"/>
       <c r="D45" s="25" t="s">
         <v>32</v>
@@ -4781,13 +4805,13 @@
       <c r="O45" s="16"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="159"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="21"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="169" t="s">
+      <c r="E46" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="169"/>
+      <c r="F46" s="124"/>
       <c r="G46" s="19" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4802,13 +4826,13 @@
       <c r="O46" s="16"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="159"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="21"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="169" t="s">
+      <c r="E47" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="169"/>
+      <c r="F47" s="124"/>
       <c r="G47" s="19" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4823,7 +4847,7 @@
       <c r="O47" s="16"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="159"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="21"/>
       <c r="D48" s="25"/>
       <c r="E48" s="45"/>
@@ -4839,122 +4863,122 @@
       <c r="O48" s="16"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="159"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="21"/>
       <c r="D49" s="25" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
-      <c r="G49" s="196" t="str">
+      <c r="G49" s="163" t="str">
         <f>記入!E35</f>
         <v>${aw.extrinsic}</v>
       </c>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196" t="s">
+      <c r="H49" s="163"/>
+      <c r="I49" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
-      <c r="N49" s="196"/>
+      <c r="J49" s="163"/>
+      <c r="K49" s="163"/>
+      <c r="L49" s="163"/>
+      <c r="M49" s="163"/>
+      <c r="N49" s="163"/>
       <c r="O49" s="16"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="159"/>
+      <c r="B50" s="137"/>
       <c r="C50" s="21"/>
       <c r="D50" s="25"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
-      <c r="G50" s="196" t="s">
+      <c r="G50" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="196"/>
-      <c r="I50" s="203" t="str">
+      <c r="H50" s="163"/>
+      <c r="I50" s="170" t="str">
         <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="204"/>
-      <c r="K50" s="204"/>
-      <c r="L50" s="204"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="205"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="172"/>
       <c r="O50" s="16"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="159"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="21"/>
       <c r="D51" s="25"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="198" t="s">
+      <c r="G51" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="199"/>
-      <c r="I51" s="200" t="str">
+      <c r="H51" s="166"/>
+      <c r="I51" s="167" t="str">
         <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="201"/>
+      <c r="J51" s="168"/>
       <c r="K51" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L51" s="202" t="str">
+      <c r="L51" s="169" t="str">
         <f>IF(G49="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M51" s="201"/>
-      <c r="N51" s="199"/>
+      <c r="M51" s="168"/>
+      <c r="N51" s="166"/>
       <c r="O51" s="16"/>
       <c r="R51" s="49"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="159"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
-      <c r="G52" s="196" t="s">
+      <c r="G52" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="196"/>
-      <c r="I52" s="197" t="str">
+      <c r="H52" s="163"/>
+      <c r="I52" s="164" t="str">
         <f>IF(G49="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J52" s="197"/>
-      <c r="K52" s="197"/>
-      <c r="L52" s="197"/>
-      <c r="M52" s="197"/>
-      <c r="N52" s="197"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
       <c r="O52" s="16"/>
       <c r="R52" s="49"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="159"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="196" t="s">
+      <c r="G53" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="196"/>
-      <c r="I53" s="197" t="str">
+      <c r="H53" s="163"/>
+      <c r="I53" s="164" t="str">
         <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J53" s="197"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="197"/>
-      <c r="M53" s="197"/>
-      <c r="N53" s="197"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
       <c r="O53" s="16"/>
       <c r="R53" s="50"/>
     </row>
     <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="159"/>
+      <c r="B54" s="137"/>
       <c r="C54" s="21"/>
       <c r="D54" s="25"/>
       <c r="E54" s="45"/>
@@ -4973,7 +4997,7 @@
       <c r="R54" s="50"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="159"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="21"/>
       <c r="D55" s="25"/>
       <c r="E55" s="45"/>
@@ -4992,7 +5016,7 @@
       <c r="R55" s="50"/>
     </row>
     <row r="56" spans="2:18" ht="9" customHeight="1">
-      <c r="B56" s="159"/>
+      <c r="B56" s="137"/>
       <c r="C56" s="21"/>
       <c r="D56" s="25"/>
       <c r="E56" s="52"/>
@@ -5009,212 +5033,212 @@
       <c r="R56" s="50"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="159"/>
+      <c r="B57" s="137"/>
       <c r="C57" s="21"/>
       <c r="D57" s="25" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="52"/>
-      <c r="F57" s="194" t="str">
+      <c r="F57" s="161" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G57" s="194"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="194"/>
-      <c r="J57" s="194"/>
-      <c r="K57" s="194"/>
-      <c r="L57" s="194"/>
-      <c r="M57" s="194"/>
-      <c r="N57" s="194"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
       <c r="O57" s="16"/>
       <c r="R57" s="50"/>
     </row>
     <row r="58" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B58" s="159"/>
+      <c r="B58" s="137"/>
       <c r="C58" s="21"/>
       <c r="D58" s="25"/>
       <c r="E58" s="53"/>
-      <c r="F58" s="195"/>
-      <c r="G58" s="195"/>
-      <c r="H58" s="195"/>
-      <c r="I58" s="195"/>
-      <c r="J58" s="195"/>
-      <c r="K58" s="195"/>
-      <c r="L58" s="195"/>
-      <c r="M58" s="195"/>
-      <c r="N58" s="195"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="162"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="162"/>
       <c r="O58" s="16"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="159"/>
-      <c r="C59" s="158" t="s">
+      <c r="B59" s="137"/>
+      <c r="C59" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158" t="s">
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158" t="s">
+      <c r="G59" s="149"/>
+      <c r="H59" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158" t="s">
+      <c r="I59" s="149"/>
+      <c r="J59" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-      <c r="M59" s="158" t="s">
+      <c r="K59" s="149"/>
+      <c r="L59" s="149"/>
+      <c r="M59" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="N59" s="158"/>
-      <c r="O59" s="158"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="149"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="159"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="148"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="148"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="159"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="148"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="159"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="148"/>
+      <c r="N62" s="148"/>
+      <c r="O62" s="148"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="159"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
+      <c r="N63" s="148"/>
+      <c r="O63" s="148"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="159"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="148"/>
+      <c r="N64" s="148"/>
+      <c r="O64" s="148"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="159"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="148"/>
+      <c r="M65" s="148"/>
+      <c r="N65" s="148"/>
+      <c r="O65" s="148"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="159"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="148"/>
+      <c r="N66" s="148"/>
+      <c r="O66" s="148"/>
     </row>
     <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="159"/>
-      <c r="C67" s="158"/>
-      <c r="D67" s="158"/>
-      <c r="E67" s="158"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="148"/>
+      <c r="M67" s="148"/>
+      <c r="N67" s="148"/>
+      <c r="O67" s="148"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="159"/>
-      <c r="C68" s="158"/>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
-      <c r="N68" s="157"/>
-      <c r="O68" s="157"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
+      <c r="N68" s="148"/>
+      <c r="O68" s="148"/>
     </row>
     <row r="69" spans="2:15" ht="14.25">
       <c r="C69" s="27" t="s">
@@ -5226,6 +5250,60 @@
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
   </protectedRanges>
   <mergeCells count="112">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F57:N58"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:N50"/>
@@ -5234,17 +5312,18 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="J43:N43"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K31:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M66:O68"/>
+    <mergeCell ref="C59:E68"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="J63:L65"/>
+    <mergeCell ref="J66:L68"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="M63:O65"/>
     <mergeCell ref="B14:B68"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -5269,75 +5348,20 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D29:E38"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K31:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M66:O68"/>
-    <mergeCell ref="C59:E68"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="J63:L65"/>
-    <mergeCell ref="J66:L68"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="M63:O65"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F57:N58"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -2227,13 +2227,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,36 +2272,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2323,19 +2311,220 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2383,9 +2572,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2422,218 +2608,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2946,8 +2946,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:H35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2961,14 +2961,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="78"/>
+      <c r="G1" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="76"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="54" t="s">
@@ -2981,8 +2981,8 @@
         <v>13</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="55" t="s">
@@ -2992,8 +2992,8 @@
       <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="54" t="s">
@@ -3005,8 +3005,8 @@
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="54" t="s">
@@ -3016,8 +3016,8 @@
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="56" t="s">
@@ -3029,8 +3029,8 @@
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="56" t="s">
@@ -3042,8 +3042,8 @@
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="54" t="s">
@@ -3053,8 +3053,8 @@
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="55" t="s">
@@ -3067,8 +3067,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="54" t="s">
@@ -3080,8 +3080,8 @@
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="54" t="s">
@@ -3093,8 +3093,8 @@
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="54" t="s">
@@ -3106,8 +3106,8 @@
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="54" t="s">
@@ -3117,8 +3117,8 @@
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="54" t="s">
@@ -3130,8 +3130,8 @@
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="54" t="s">
@@ -3143,8 +3143,8 @@
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="54" t="s">
@@ -3154,8 +3154,8 @@
       <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="54" t="s">
@@ -3167,8 +3167,8 @@
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="54" t="s">
@@ -3178,8 +3178,8 @@
       <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="54" t="s">
@@ -3191,8 +3191,8 @@
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="54" t="s">
@@ -3204,8 +3204,8 @@
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="54" t="s">
@@ -3215,8 +3215,8 @@
       <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="54" t="s">
@@ -3226,8 +3226,8 @@
       <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="55" t="s">
@@ -3237,8 +3237,8 @@
       <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="55" t="s">
@@ -3248,8 +3248,8 @@
       <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="55" t="s">
@@ -3261,8 +3261,8 @@
       <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -3274,14 +3274,14 @@
       <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="57"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="58" t="s">
@@ -3302,8 +3302,8 @@
       <c r="F28" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="63" t="str">
@@ -3325,8 +3325,8 @@
       <c r="F29" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="63" t="str">
@@ -3348,8 +3348,8 @@
       <c r="F30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="63" t="str">
@@ -3371,8 +3371,8 @@
       <c r="F31" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
     </row>
     <row r="32" spans="1:8" s="64" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="63" t="str">
@@ -3394,8 +3394,8 @@
       <c r="F32" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="2"/>
@@ -3412,16 +3412,16 @@
       <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="82" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="201"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
@@ -3430,16 +3430,16 @@
       <c r="B36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="85" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="204"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
@@ -3448,16 +3448,16 @@
       <c r="B37" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="85" t="s">
+      <c r="D37" s="86"/>
+      <c r="E37" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="36" t="s">
@@ -3466,16 +3466,16 @@
       <c r="B38" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89" t="s">
+      <c r="D38" s="87"/>
+      <c r="E38" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="207"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A39" s="36" t="s">
@@ -3484,16 +3484,16 @@
       <c r="B39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="98" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A40" s="36" t="s">
@@ -3502,12 +3502,12 @@
       <c r="B40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A41" s="36" t="s">
@@ -3516,36 +3516,36 @@
       <c r="B41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="74" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="73" t="s">
+      <c r="H42" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="37" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3558,8 @@
       <c r="F43" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
     </row>
     <row r="44" spans="1:8" s="64" customFormat="1" ht="14.25">
       <c r="A44" s="67" t="s">
@@ -3744,10 +3744,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="105"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="42" t="s">
         <v>191</v>
       </c>
@@ -3768,6 +3768,8 @@
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="E39:H41"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
@@ -3784,8 +3786,6 @@
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="E39:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3857,12 +3857,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="13"/>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="119" t="s">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="182" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -3872,104 +3872,104 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="176"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="129" t="str">
+      <c r="C4" s="178"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="191" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="13"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="111" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="113"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="176"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="13"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="120" t="str">
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="183" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="122"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="123" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="125"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="13"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="128"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="13"/>
@@ -3980,76 +3980,76 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="200" t="s">
+      <c r="K9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="109" t="str">
+      <c r="M9" s="175"/>
+      <c r="N9" s="172" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="110"/>
+      <c r="O9" s="173"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="13"/>
-      <c r="C10" s="138" t="str">
+      <c r="C10" s="160" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="111" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="176"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147" t="str">
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="193" t="str">
+      <c r="K11" s="135" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="191" t="str">
+      <c r="L11" s="133" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="183" t="str">
+      <c r="M11" s="134"/>
+      <c r="N11" s="123" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="184"/>
+      <c r="O11" s="124"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="13"/>
@@ -4060,44 +4060,44 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="185" t="s">
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="127"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="13"/>
-      <c r="C13" s="144" t="str">
+      <c r="C13" s="166" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="191" t="str">
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="133" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="192"/>
-      <c r="N13" s="183" t="str">
+      <c r="M13" s="134"/>
+      <c r="N13" s="123" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="184"/>
+      <c r="O13" s="124"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="159" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="21"/>
@@ -4115,7 +4115,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="137"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="21"/>
       <c r="D15" s="24" t="s">
         <v>49</v>
@@ -4133,7 +4133,7 @@
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="137"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="21"/>
       <c r="D16" s="24"/>
       <c r="E16" s="22" t="str">
@@ -4152,7 +4152,7 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="137"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="21"/>
       <c r="D17" s="24"/>
       <c r="E17" s="22" t="str">
@@ -4171,7 +4171,7 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="137"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13"/>
       <c r="E18" s="22" t="str">
@@ -4190,7 +4190,7 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="137"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13"/>
       <c r="E19" s="24"/>
@@ -4206,7 +4206,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="137"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
         <v>31</v>
@@ -4224,218 +4224,218 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="137"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="151" t="s">
+      <c r="D21" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="151"/>
-      <c r="F21" s="203" t="str">
+      <c r="E21" s="100"/>
+      <c r="F21" s="116" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="137"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="203"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="137"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="151" t="s">
+      <c r="D23" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="151"/>
-      <c r="F23" s="203" t="str">
+      <c r="E23" s="100"/>
+      <c r="F23" s="116" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="137"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="137"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="151" t="s">
+      <c r="D25" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="151"/>
-      <c r="F25" s="203" t="str">
+      <c r="E25" s="100"/>
+      <c r="F25" s="116" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="137"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="137"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="152"/>
-      <c r="F27" s="204" t="str">
+      <c r="E27" s="110"/>
+      <c r="F27" s="117" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="150" t="s">
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="206" t="str">
+      <c r="J27" s="119" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="207"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="137"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="207"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="120"/>
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="137"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="153" t="s">
+      <c r="D29" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="153" t="s">
+      <c r="E29" s="113"/>
+      <c r="F29" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="154"/>
-      <c r="H29" s="188" t="s">
+      <c r="G29" s="113"/>
+      <c r="H29" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="194" t="s">
+      <c r="I29" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="196"/>
-      <c r="K29" s="190" t="s">
+      <c r="J29" s="103"/>
+      <c r="K29" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="154"/>
-      <c r="M29" s="153" t="s">
+      <c r="L29" s="113"/>
+      <c r="M29" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="154"/>
+      <c r="N29" s="113"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="137"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="189"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="33" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="201" t="str">
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="114" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="202"/>
+      <c r="N30" s="115"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="137"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="159" t="s">
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="160"/>
+      <c r="G31" s="122"/>
       <c r="H31" s="66" t="s">
         <v>159</v>
       </c>
@@ -4445,27 +4445,27 @@
       <c r="J31" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="177">
+      <c r="K31" s="151">
         <f>記入!G51</f>
         <v>0</v>
       </c>
-      <c r="L31" s="178"/>
-      <c r="M31" s="176" t="str">
+      <c r="L31" s="152"/>
+      <c r="M31" s="111" t="str">
         <f>記入!H44</f>
         <v>${alist[0].awardmoney}</v>
       </c>
-      <c r="N31" s="176"/>
+      <c r="N31" s="111"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="137"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="159" t="s">
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="160"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="66" t="s">
         <v>164</v>
       </c>
@@ -4475,24 +4475,24 @@
       <c r="J32" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="176" t="str">
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="111" t="str">
         <f>記入!H45</f>
         <v>${alist[1].awardmoney}</v>
       </c>
-      <c r="N32" s="176"/>
+      <c r="N32" s="111"/>
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="137"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="159" t="s">
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="160"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="66" t="s">
         <v>169</v>
       </c>
@@ -4502,24 +4502,24 @@
       <c r="J33" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="179"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="176" t="str">
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="111" t="str">
         <f>記入!H46</f>
         <v>${alist[2].awardmoney}</v>
       </c>
-      <c r="N33" s="176"/>
+      <c r="N33" s="111"/>
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="137"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="159" t="s">
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="160"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="66" t="s">
         <v>174</v>
       </c>
@@ -4529,24 +4529,24 @@
       <c r="J34" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="179"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="176" t="str">
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="111" t="str">
         <f>記入!H47</f>
         <v>${alist[3].awardmoney}</v>
       </c>
-      <c r="N34" s="176"/>
+      <c r="N34" s="111"/>
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="137"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="159" t="s">
+      <c r="D35" s="170"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="160"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="66" t="s">
         <v>179</v>
       </c>
@@ -4556,24 +4556,24 @@
       <c r="J35" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="179"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="176" t="str">
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="111" t="str">
         <f>記入!H48</f>
         <v>${alist[4].awardmoney}</v>
       </c>
-      <c r="N35" s="176"/>
+      <c r="N35" s="111"/>
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="137"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="159" t="s">
+      <c r="D36" s="170"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="160"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="66" t="s">
         <v>183</v>
       </c>
@@ -4583,24 +4583,24 @@
       <c r="J36" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="K36" s="179"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="176" t="str">
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="111" t="str">
         <f>記入!H49</f>
         <v>${alist[5].awardmoney}</v>
       </c>
-      <c r="N36" s="176"/>
+      <c r="N36" s="111"/>
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="137"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="159" t="s">
+      <c r="D37" s="170"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="160"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="66" t="s">
         <v>188</v>
       </c>
@@ -4610,25 +4610,25 @@
       <c r="J37" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="K37" s="181"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="176" t="str">
+      <c r="K37" s="155"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="111" t="str">
         <f>記入!H50</f>
         <v>${alist[6].awardmoney}</v>
       </c>
-      <c r="N37" s="176"/>
+      <c r="N37" s="111"/>
       <c r="O37" s="16"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="137"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="151" t="s">
+      <c r="D38" s="128"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
       <c r="I38" s="38" t="s">
         <v>192</v>
       </c>
@@ -4636,139 +4636,139 @@
         <f>SUM(J31:J37)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="151">
+      <c r="K38" s="100">
         <f>SUM(K31:L37)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="151"/>
-      <c r="M38" s="199">
+      <c r="L38" s="100"/>
+      <c r="M38" s="107">
         <f>SUM(M31:N37)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="199"/>
+      <c r="N38" s="107"/>
       <c r="O38" s="16"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="137"/>
+      <c r="B39" s="159"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="152" t="s">
+      <c r="D39" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="152"/>
-      <c r="F39" s="194" t="s">
+      <c r="E39" s="110"/>
+      <c r="F39" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="152" t="str">
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="110" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
       <c r="O39" s="16"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="137"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="151" t="str">
+      <c r="D40" s="100" t="str">
         <f>IF(F40="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="197" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="176" t="str">
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="111" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
       <c r="O40" s="16"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="137"/>
+      <c r="B41" s="159"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="151" t="str">
+      <c r="D41" s="100" t="str">
         <f>IF(F41="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="197" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="176" t="str">
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="111" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="176"/>
-      <c r="L41" s="176"/>
-      <c r="M41" s="176"/>
-      <c r="N41" s="176"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="16"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="137"/>
+      <c r="B42" s="159"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="151" t="str">
+      <c r="D42" s="100" t="str">
         <f>IF(F42="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="197" t="s">
+      <c r="E42" s="100"/>
+      <c r="F42" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="176" t="str">
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="111" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
       <c r="O42" s="16"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="137"/>
+      <c r="B43" s="159"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="151" t="str">
+      <c r="D43" s="100" t="str">
         <f>IF(F43="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="197" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="176" t="str">
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="111" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
       <c r="O43" s="16"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="137"/>
+      <c r="B44" s="159"/>
       <c r="C44" s="21"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -4776,18 +4776,18 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="173">
+      <c r="J44" s="148">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="174"/>
-      <c r="L44" s="174"/>
-      <c r="M44" s="174"/>
-      <c r="N44" s="175"/>
+      <c r="K44" s="149"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="150"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="137"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="21"/>
       <c r="D45" s="25" t="s">
         <v>32</v>
@@ -4805,13 +4805,13 @@
       <c r="O45" s="16"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="137"/>
+      <c r="B46" s="159"/>
       <c r="C46" s="21"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="124" t="s">
+      <c r="E46" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="124"/>
+      <c r="F46" s="169"/>
       <c r="G46" s="19" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4826,13 +4826,13 @@
       <c r="O46" s="16"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="137"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="21"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="124" t="s">
+      <c r="E47" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="124"/>
+      <c r="F47" s="169"/>
       <c r="G47" s="19" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4847,7 +4847,7 @@
       <c r="O47" s="16"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="137"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="21"/>
       <c r="D48" s="25"/>
       <c r="E48" s="45"/>
@@ -4863,122 +4863,122 @@
       <c r="O48" s="16"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="137"/>
+      <c r="B49" s="159"/>
       <c r="C49" s="21"/>
       <c r="D49" s="25" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
-      <c r="G49" s="163" t="str">
+      <c r="G49" s="138" t="str">
         <f>記入!E35</f>
         <v>${aw.extrinsic}</v>
       </c>
-      <c r="H49" s="163"/>
-      <c r="I49" s="163" t="s">
+      <c r="H49" s="138"/>
+      <c r="I49" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="J49" s="163"/>
-      <c r="K49" s="163"/>
-      <c r="L49" s="163"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="163"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
       <c r="O49" s="16"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="137"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="21"/>
       <c r="D50" s="25"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
-      <c r="G50" s="163" t="s">
+      <c r="G50" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="163"/>
-      <c r="I50" s="170" t="str">
+      <c r="H50" s="138"/>
+      <c r="I50" s="145" t="str">
         <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="172"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="146"/>
+      <c r="N50" s="147"/>
       <c r="O50" s="16"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="137"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="21"/>
       <c r="D51" s="25"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="165" t="s">
+      <c r="G51" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167" t="str">
+      <c r="H51" s="141"/>
+      <c r="I51" s="142" t="str">
         <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="168"/>
+      <c r="J51" s="143"/>
       <c r="K51" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L51" s="169" t="str">
+      <c r="L51" s="144" t="str">
         <f>IF(G49="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M51" s="168"/>
-      <c r="N51" s="166"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="141"/>
       <c r="O51" s="16"/>
       <c r="R51" s="49"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="137"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
-      <c r="G52" s="163" t="s">
+      <c r="G52" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="163"/>
-      <c r="I52" s="164" t="str">
+      <c r="H52" s="138"/>
+      <c r="I52" s="139" t="str">
         <f>IF(G49="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
       <c r="O52" s="16"/>
       <c r="R52" s="49"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="137"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="163" t="s">
+      <c r="G53" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="163"/>
-      <c r="I53" s="164" t="str">
+      <c r="H53" s="138"/>
+      <c r="I53" s="139" t="str">
         <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
       <c r="O53" s="16"/>
       <c r="R53" s="50"/>
     </row>
     <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="137"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="21"/>
       <c r="D54" s="25"/>
       <c r="E54" s="45"/>
@@ -4997,7 +4997,7 @@
       <c r="R54" s="50"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="137"/>
+      <c r="B55" s="159"/>
       <c r="C55" s="21"/>
       <c r="D55" s="25"/>
       <c r="E55" s="45"/>
@@ -5016,7 +5016,7 @@
       <c r="R55" s="50"/>
     </row>
     <row r="56" spans="2:18" ht="9" customHeight="1">
-      <c r="B56" s="137"/>
+      <c r="B56" s="159"/>
       <c r="C56" s="21"/>
       <c r="D56" s="25"/>
       <c r="E56" s="52"/>
@@ -5033,212 +5033,212 @@
       <c r="R56" s="50"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="137"/>
+      <c r="B57" s="159"/>
       <c r="C57" s="21"/>
       <c r="D57" s="25" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="52"/>
-      <c r="F57" s="161" t="str">
+      <c r="F57" s="136" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="161"/>
-      <c r="N57" s="161"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
       <c r="O57" s="16"/>
       <c r="R57" s="50"/>
     </row>
     <row r="58" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B58" s="137"/>
+      <c r="B58" s="159"/>
       <c r="C58" s="21"/>
       <c r="D58" s="25"/>
       <c r="E58" s="53"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="162"/>
-      <c r="K58" s="162"/>
-      <c r="L58" s="162"/>
-      <c r="M58" s="162"/>
-      <c r="N58" s="162"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="137"/>
       <c r="O58" s="16"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="137"/>
-      <c r="C59" s="149" t="s">
+      <c r="B59" s="159"/>
+      <c r="C59" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149" t="s">
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149" t="s">
+      <c r="G59" s="158"/>
+      <c r="H59" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149" t="s">
+      <c r="I59" s="158"/>
+      <c r="J59" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="K59" s="149"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="149" t="s">
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="137"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
-      <c r="M60" s="148"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="148"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="137"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
-      <c r="M61" s="148"/>
-      <c r="N61" s="148"/>
-      <c r="O61" s="148"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="137"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="148"/>
-      <c r="M62" s="148"/>
-      <c r="N62" s="148"/>
-      <c r="O62" s="148"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="137"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="148"/>
-      <c r="N63" s="148"/>
-      <c r="O63" s="148"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="137"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="148"/>
-      <c r="N64" s="148"/>
-      <c r="O64" s="148"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="157"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="137"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="148"/>
-      <c r="L65" s="148"/>
-      <c r="M65" s="148"/>
-      <c r="N65" s="148"/>
-      <c r="O65" s="148"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="137"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="148"/>
-      <c r="M66" s="148"/>
-      <c r="N66" s="148"/>
-      <c r="O66" s="148"/>
+      <c r="B66" s="159"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="157"/>
     </row>
     <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="137"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="148"/>
-      <c r="M67" s="148"/>
-      <c r="N67" s="148"/>
-      <c r="O67" s="148"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="157"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="137"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
-      <c r="N68" s="148"/>
-      <c r="O68" s="148"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
     </row>
     <row r="69" spans="2:15" ht="14.25">
       <c r="C69" s="27" t="s">
@@ -5250,6 +5250,94 @@
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
   </protectedRanges>
   <mergeCells count="112">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="B14:B68"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F63:G65"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H63:I65"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="H66:I68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M66:O68"/>
+    <mergeCell ref="C59:E68"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="J63:L65"/>
+    <mergeCell ref="J66:L68"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="M63:O65"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F57:N58"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K31:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F39:I39"/>
@@ -5274,94 +5362,6 @@
     <mergeCell ref="J27:N28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F57:N58"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K31:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M66:O68"/>
-    <mergeCell ref="C59:E68"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="J63:L65"/>
-    <mergeCell ref="J66:L68"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="M63:O65"/>
-    <mergeCell ref="B14:B68"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F63:G65"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H63:I65"/>
-    <mergeCell ref="F66:G68"/>
-    <mergeCell ref="H66:I68"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="F60:G62"/>
-    <mergeCell ref="H60:I62"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D29:E38"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870" tabRatio="570"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -628,6 +628,12 @@
   </si>
   <si>
     <t>1．目的</t>
+  </si>
+  <si>
+    <t>${aw.deployment}は</t>
+  </si>
+  <si>
+    <t>${aw.pjnamejapanese}において、外注開発経験活用・コストダウンのため"</t>
   </si>
   <si>
     <t>2．内容</t>
@@ -1024,16 +1030,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,13 +1063,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1072,13 +1071,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="128"/>
@@ -1154,14 +1146,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1169,7 +1188,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1182,8 +1216,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,82 +1248,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,7 +1264,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1296,22 +1272,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1319,8 +1280,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1386,7 +1364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,13 +1418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,19 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,19 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,25 +1520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,49 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,8 +1770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1813,6 +1791,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1824,21 +1813,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,20 +1834,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,165 +1849,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2060,82 +2038,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2144,262 +2119,241 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2423,214 +2377,214 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="12" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="5" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2987,820 +2941,820 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" style="131" customWidth="1"/>
-    <col min="2" max="2" width="45.1272727272727" style="130" customWidth="1"/>
-    <col min="3" max="3" width="9.87272727272727" style="131" customWidth="1"/>
-    <col min="4" max="7" width="9" style="131"/>
-    <col min="8" max="8" width="10.1272727272727" style="131" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="131"/>
+    <col min="1" max="1" width="14" style="123" customWidth="1"/>
+    <col min="2" max="2" width="45.1272727272727" style="122" customWidth="1"/>
+    <col min="3" max="3" width="9.87272727272727" style="123" customWidth="1"/>
+    <col min="4" max="7" width="9" style="123"/>
+    <col min="8" max="8" width="10.1272727272727" style="123" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="123"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="G1" s="133" t="s">
+      <c r="B1" s="124"/>
+      <c r="G1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="134"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="139"/>
+      <c r="D2" s="129"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="131"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142" t="s">
+      <c r="B5" s="133"/>
+      <c r="C5" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="139"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-    </row>
-    <row r="9" s="128" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A9" s="140" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+    </row>
+    <row r="9" s="120" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A9" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
+      <c r="D9" s="123"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="139"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="139"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="139"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="142" t="s">
+      <c r="B16" s="137"/>
+      <c r="C16" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="139"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="142" t="s">
+      <c r="B18" s="137"/>
+      <c r="C18" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
-    </row>
-    <row r="20" s="128" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A20" s="135" t="s">
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+    </row>
+    <row r="20" s="120" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A20" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="139"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="142" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131"/>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="142" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="139"/>
-    </row>
-    <row r="23" s="128" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A23" s="140" t="s">
+      <c r="G22" s="130"/>
+      <c r="H22" s="131"/>
+    </row>
+    <row r="23" s="120" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A23" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="142" t="s">
+      <c r="B23" s="141"/>
+      <c r="C23" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="139"/>
-    </row>
-    <row r="24" s="128" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A24" s="140" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+    </row>
+    <row r="24" s="120" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A24" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="142" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="138"/>
-      <c r="H24" s="139"/>
-    </row>
-    <row r="25" s="128" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A25" s="140" t="s">
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+    </row>
+    <row r="25" s="120" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A25" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="139"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="138"/>
-      <c r="H26" s="139"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131"/>
     </row>
     <row r="27" ht="3" customHeight="1" spans="1:8">
-      <c r="A27" s="152"/>
-      <c r="B27" s="131"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="139"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="123"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="154" t="s">
+      <c r="D28" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="154" t="s">
+      <c r="E28" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="154" t="s">
+      <c r="F28" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="139"/>
-    </row>
-    <row r="29" s="129" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A29" s="155" t="s">
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+    </row>
+    <row r="29" s="121" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A29" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="156" t="s">
+      <c r="D29" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="156" t="s">
+      <c r="E29" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="157" t="s">
+      <c r="F29" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-    </row>
-    <row r="30" s="129" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A30" s="155" t="s">
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+    </row>
+    <row r="30" s="121" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A30" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="156" t="s">
+      <c r="E30" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="157" t="s">
+      <c r="F30" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
-    </row>
-    <row r="31" s="129" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A31" s="155" t="s">
+      <c r="G30" s="130"/>
+      <c r="H30" s="131"/>
+    </row>
+    <row r="31" s="121" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A31" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E31" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="157" t="s">
+      <c r="F31" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="138"/>
-      <c r="H31" s="139"/>
-    </row>
-    <row r="32" s="129" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A32" s="155" t="s">
+      <c r="G31" s="130"/>
+      <c r="H31" s="131"/>
+    </row>
+    <row r="32" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
+      <c r="A32" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="156" t="s">
+      <c r="E32" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="157" t="s">
+      <c r="F32" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="131"/>
     </row>
     <row r="33" ht="7.5" customHeight="1" spans="1:1">
-      <c r="A33" s="158"/>
+      <c r="A33" s="150"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="151" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="161" t="s">
+      <c r="C35" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="162"/>
-      <c r="E35" s="163" t="s">
+      <c r="D35" s="154"/>
+      <c r="E35" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="165"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
     </row>
     <row r="36" ht="13" spans="1:8">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="166" t="s">
+      <c r="C36" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="166"/>
-      <c r="E36" s="167" t="s">
+      <c r="D36" s="158"/>
+      <c r="E36" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="169"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="161"/>
     </row>
     <row r="37" ht="13" spans="1:8">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="170" t="s">
+      <c r="B37" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="166"/>
-      <c r="E37" s="167" t="s">
+      <c r="D37" s="158"/>
+      <c r="E37" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="169"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="161"/>
     </row>
     <row r="38" ht="13" spans="1:8">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173" t="s">
+      <c r="D38" s="164"/>
+      <c r="E38" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="175"/>
-    </row>
-    <row r="39" s="130" customFormat="1" spans="1:8">
-      <c r="A39" s="171" t="s">
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="167"/>
+    </row>
+    <row r="39" s="122" customFormat="1" spans="1:8">
+      <c r="A39" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="136" t="s">
+      <c r="B39" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="176" t="s">
+      <c r="C39" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="177"/>
-      <c r="E39" s="178" t="s">
+      <c r="D39" s="169"/>
+      <c r="E39" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-    </row>
-    <row r="40" s="130" customFormat="1" spans="1:8">
-      <c r="A40" s="171" t="s">
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+    </row>
+    <row r="40" s="122" customFormat="1" spans="1:8">
+      <c r="A40" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="180"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-    </row>
-    <row r="41" s="130" customFormat="1" spans="1:8">
-      <c r="A41" s="171" t="s">
+      <c r="C40" s="172"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+    </row>
+    <row r="41" s="122" customFormat="1" spans="1:8">
+      <c r="A41" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="184"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-    </row>
-    <row r="42" s="130" customFormat="1" ht="15" spans="1:8">
-      <c r="A42" s="188" t="s">
+      <c r="C41" s="176"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+    </row>
+    <row r="42" s="122" customFormat="1" ht="15" spans="1:8">
+      <c r="A42" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192" t="s">
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="188" t="s">
+      <c r="H42" s="180" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:8">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="180"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="188" t="s">
+      <c r="E43" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="188" t="s">
+      <c r="F43" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-    </row>
-    <row r="44" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A44" s="37" t="s">
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+    </row>
+    <row r="44" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A44" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="193" t="s">
+      <c r="C44" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="193" t="s">
+      <c r="D44" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="193" t="s">
+      <c r="F44" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="194" t="s">
+      <c r="G44" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="194" t="s">
+      <c r="H44" s="186" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A45" s="37" t="s">
+    <row r="45" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A45" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="193" t="s">
+      <c r="D45" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="193" t="s">
+      <c r="F45" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="G45" s="194" t="s">
+      <c r="G45" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="194" t="s">
+      <c r="H45" s="186" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A46" s="37" t="s">
+    <row r="46" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A46" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="193" t="s">
+      <c r="D46" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="106" t="s">
+      <c r="E46" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="193" t="s">
+      <c r="F46" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="194" t="s">
+      <c r="G46" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="194" t="s">
+      <c r="H46" s="186" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A47" s="37" t="s">
+    <row r="47" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A47" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="193" t="s">
+      <c r="C47" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="193" t="s">
+      <c r="D47" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="193" t="s">
+      <c r="F47" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="194" t="s">
+      <c r="G47" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="194" t="s">
+      <c r="H47" s="186" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A48" s="37" t="s">
+    <row r="48" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="193" t="s">
+      <c r="C48" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="193" t="s">
+      <c r="D48" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="193" t="s">
+      <c r="F48" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="194" t="s">
+      <c r="G48" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="194" t="s">
+      <c r="H48" s="186" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A49" s="37" t="s">
+    <row r="49" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A49" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="193" t="s">
+      <c r="C49" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="193" t="s">
+      <c r="D49" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="106" t="s">
+      <c r="E49" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="193" t="s">
+      <c r="F49" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="194" t="s">
+      <c r="G49" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="194" t="s">
+      <c r="H49" s="186" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" s="129" customFormat="1" ht="15" spans="1:8">
-      <c r="A50" s="37" t="s">
+    <row r="50" s="121" customFormat="1" ht="15" spans="1:8">
+      <c r="A50" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="193" t="s">
+      <c r="C50" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="193" t="s">
+      <c r="D50" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="193" t="s">
+      <c r="F50" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="194" t="s">
+      <c r="G50" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="H50" s="194" t="s">
+      <c r="H50" s="186" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:8">
-      <c r="A51" s="195" t="s">
+      <c r="A51" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="196"/>
-      <c r="C51" s="197" t="s">
+      <c r="B51" s="188"/>
+      <c r="C51" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="197" t="s">
+      <c r="D51" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="197" t="s">
+      <c r="E51" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="197" t="s">
+      <c r="F51" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="198" t="s">
+      <c r="G51" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="H51" s="199" t="s">
+      <c r="H51" s="191" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3852,8 +3806,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:H49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3891,10 +3845,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="68"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
@@ -3905,1387 +3859,1344 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:15">
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74" t="str">
-        <f>記入!B37</f>
-        <v>${aw.draftingdate}</v>
-      </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:15">
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="70" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:15">
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="77" t="str">
-        <f>記入!B38</f>
-        <v>${aw.scheduleddate}</v>
-      </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="79"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:15">
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="80" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="81"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:15">
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:15">
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="87" t="str">
-        <f>記入!B39</f>
-        <v>${aw.plan}</v>
-      </c>
-      <c r="O9" s="88"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:15">
       <c r="B10" s="2"/>
-      <c r="C10" s="19" t="str">
-        <f>記入!B9</f>
-        <v>${aw.deployment}</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="70" t="s">
+      <c r="C10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:15">
       <c r="B11" s="2"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="str">
-        <f>記入!B35</f>
-        <v>${aw.user_id}</v>
-      </c>
-      <c r="K11" s="89" t="str">
-        <f>記入!B36</f>
-        <v>${aw.telephone}</v>
-      </c>
-      <c r="L11" s="90" t="str">
-        <f>記入!B20</f>
-        <v>${aw.claimamount}</v>
-      </c>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92" t="str">
-        <f>記入!B19</f>
-        <v>${aw.currencyposition}</v>
-      </c>
-      <c r="O11" s="93"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="88"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:15">
       <c r="B12" s="2"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="94" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:15">
       <c r="B13" s="2"/>
-      <c r="C13" s="28" t="str">
-        <f>記入!B10</f>
-        <v>${aw.pjnamejapanese}</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90" t="str">
-        <f>記入!B20</f>
-        <v>${aw.claimamount}</v>
-      </c>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92" t="str">
-        <f>記入!B19</f>
-        <v>${aw.currencyposition}</v>
-      </c>
-      <c r="O13" s="93"/>
+      <c r="C13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="86"/>
+      <c r="N13" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="88"/>
     </row>
     <row r="14" ht="7.5" customHeight="1" spans="2:15">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="97"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="92"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="98"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="93"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35" t="str">
-        <f>C10&amp;"は"</f>
-        <v>${aw.deployment}は</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="98"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="93"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35" t="str">
-        <f>記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
-        <v>${aw.pjnamejapanese}において、外注開発経験活用・コストダウンのため</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="98"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="93"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="35" t="str">
-        <f>"本プロジェクトの一部開発を"&amp;記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
+      <c r="E18" s="33" t="str">
+        <f>"本プロジェクトの一部開発を${aw.custojapanese}へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
         <v>本プロジェクトの一部開発を${aw.custojapanese}へ委託するので、以下内容の通り委託個別契約書を締結する。</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="98"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="93"/>
     </row>
     <row r="19" ht="6" customHeight="1" spans="2:15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="98"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="93"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="98"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="93"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="str">
-        <f>記入!B2</f>
-        <v>${aw.custojapanese}</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="98"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="93"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="98"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="93"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="str">
-        <f>C13</f>
-        <v>${aw.pjnamejapanese}</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="98"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="93"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="98"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="93"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="36" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="str">
-        <f>記入!B12</f>
-        <v>${aw.contractnumber}</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="98"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="93"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:15">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="98"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="93"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:15">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="str">
-        <f>記入!B14</f>
-        <v>${statime[0]}</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="99" t="str">
-        <f>記入!B15</f>
-        <v>${statime[1]}</v>
-      </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="98"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="93"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:15">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="98"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="93"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="2:15">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="41" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="41" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102" t="s">
+      <c r="I29" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41" t="s">
+      <c r="L29" s="39"/>
+      <c r="M29" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="98"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="93"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="2:15">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="38" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="103" t="str">
-        <f>"("&amp;記入!B19&amp;")"</f>
-        <v>(${aw.currencyposition})</v>
-      </c>
-      <c r="N30" s="104"/>
-      <c r="O30" s="98"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="93"/>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="49" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51" t="s">
+      <c r="G31" s="47"/>
+      <c r="H31" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="105" t="s">
+      <c r="I31" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="106" t="s">
+      <c r="J31" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="107" t="str">
-        <f>記入!G51</f>
-        <v>${aw.membercost}</v>
-      </c>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109" t="str">
-        <f>記入!H44</f>
-        <v>${alist[0].awardmoney}</v>
-      </c>
-      <c r="N31" s="109"/>
-      <c r="O31" s="98"/>
+      <c r="K31" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="103"/>
+      <c r="O31" s="93"/>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="49" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="105" t="s">
+      <c r="I32" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="106" t="s">
+      <c r="J32" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="109" t="str">
-        <f>記入!H45</f>
-        <v>${alist[1].awardmoney}</v>
-      </c>
-      <c r="N32" s="109"/>
-      <c r="O32" s="98"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="93"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="49" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51" t="s">
+      <c r="G33" s="47"/>
+      <c r="H33" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="105" t="s">
+      <c r="I33" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="109" t="str">
-        <f>記入!H46</f>
-        <v>${alist[2].awardmoney}</v>
-      </c>
-      <c r="N33" s="109"/>
-      <c r="O33" s="98"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="93"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="49" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51" t="s">
+      <c r="G34" s="47"/>
+      <c r="H34" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="105" t="s">
+      <c r="I34" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="109" t="str">
-        <f>記入!H47</f>
-        <v>${alist[3].awardmoney}</v>
-      </c>
-      <c r="N34" s="109"/>
-      <c r="O34" s="98"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="103"/>
+      <c r="O34" s="93"/>
     </row>
     <row r="35" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="49" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51" t="s">
+      <c r="G35" s="47"/>
+      <c r="H35" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="105" t="s">
+      <c r="I35" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="106" t="s">
+      <c r="J35" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="109" t="str">
-        <f>記入!H48</f>
-        <v>${alist[4].awardmoney}</v>
-      </c>
-      <c r="N35" s="109"/>
-      <c r="O35" s="98"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="N35" s="103"/>
+      <c r="O35" s="93"/>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="49" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="105" t="s">
+      <c r="I36" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="106" t="s">
+      <c r="J36" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="109" t="str">
-        <f>記入!H49</f>
-        <v>${alist[5].awardmoney}</v>
-      </c>
-      <c r="N36" s="109"/>
-      <c r="O36" s="98"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="103"/>
+      <c r="O36" s="93"/>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="49" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="47"/>
+      <c r="H37" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="I37" s="105" t="s">
+      <c r="I37" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="106" t="s">
+      <c r="J37" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="112"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="109" t="str">
-        <f>記入!H50</f>
-        <v>${alist[6].awardmoney}</v>
-      </c>
-      <c r="N37" s="109"/>
-      <c r="O37" s="98"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="N37" s="103"/>
+      <c r="O37" s="93"/>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="36" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="105" t="s">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="38">
-        <f>SUM(J31:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="36">
-        <f>SUM(K31:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="114">
-        <f>SUM(M31:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="114"/>
-      <c r="O38" s="98"/>
+      <c r="J38" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="106"/>
+      <c r="O38" s="93"/>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="38" t="str">
-        <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
-        <v>請求金額(${aw.currencyposition})</v>
-      </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="98"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="34" t="str">
+        <f>"請求金額"&amp;"${aw.currencyposition}"</f>
+        <v>請求金額${aw.currencyposition}</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="93"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="2:15">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="36" t="str">
-        <f>IF(F40="","","第一回")</f>
-        <v>第一回</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="54" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="109" t="str">
-        <f>IF(記入!F29="","",記入!F29)</f>
-        <v>${num[0].claimamount}</v>
-      </c>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="98"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="93"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="2:15">
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="36" t="str">
-        <f>IF(F41="","","第二回")</f>
-        <v>第二回</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="54" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="109" t="str">
-        <f>IF(記入!F30="","",記入!F30)</f>
-        <v>${num[1].claimamount}</v>
-      </c>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="98"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="93"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="2:15">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="36" t="str">
-        <f>IF(F42="","","第三回")</f>
-        <v>第三回</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="54" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="109" t="str">
-        <f>IF(記入!F31="","",記入!F31)</f>
-        <v>${num[2].claimamount}</v>
-      </c>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="98"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="93"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="2:15">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="36" t="str">
-        <f>IF(F43="","","第四回")</f>
-        <v>第四回</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="54" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="109" t="str">
-        <f>IF(記入!F32="","",記入!F32)</f>
-        <v>${num[3].claimamount}</v>
-      </c>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="98"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="93"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="2:15">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="116">
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="108">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="98"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="93"/>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="98"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="93"/>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="26" t="str">
-        <f>記入!B40</f>
-        <v>${aw.valuation}</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="98"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="93"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="26" t="str">
-        <f>記入!B41</f>
-        <v>${aw.individual}</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="98"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="93"/>
     </row>
     <row r="48" ht="9.75" customHeight="1" spans="2:15">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="98"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="93"/>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58" t="str">
-        <f>記入!E35</f>
-        <v>${aw.extrinsic}</v>
-      </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="98"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="93"/>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="119" t="str">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="111" t="str">
         <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="98"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="113"/>
+      <c r="O50" s="93"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="122" t="str">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="56"/>
+      <c r="I51" s="114" t="str">
         <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" s="124" t="str">
+      <c r="J51" s="115"/>
+      <c r="K51" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="116" t="str">
         <f>IF(G49="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M51" s="123"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="98"/>
-      <c r="R51" s="61"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="93"/>
+      <c r="R51" s="57"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="125" t="str">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="54"/>
+      <c r="I52" s="117" t="str">
         <f>IF(G49="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="98"/>
-      <c r="R52" s="61"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="93"/>
+      <c r="R52" s="57"/>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="125" t="str">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="54"/>
+      <c r="I53" s="117" t="str">
         <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="98"/>
-      <c r="R53" s="126"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="93"/>
+      <c r="R53" s="118"/>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="98"/>
-      <c r="R54" s="126"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="93"/>
+      <c r="R54" s="118"/>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="98"/>
-      <c r="R55" s="126"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="93"/>
+      <c r="R55" s="118"/>
     </row>
     <row r="56" ht="9" customHeight="1" spans="2:18">
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="98"/>
-      <c r="R56" s="126"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="93"/>
+      <c r="R56" s="118"/>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="2:18">
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="63" t="str">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="58" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="98"/>
-      <c r="R57" s="126"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="93"/>
+      <c r="R57" s="118"/>
     </row>
     <row r="58" ht="18.75" customHeight="1" spans="2:15">
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="98"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="93"/>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B59" s="31"/>
-      <c r="C59" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B60" s="31"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B61" s="31"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B62" s="31"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
     </row>
     <row r="63" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B63" s="31"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
     </row>
     <row r="64" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B64" s="31"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
     </row>
     <row r="65" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B65" s="31"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B66" s="31"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
     </row>
     <row r="67" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B67" s="31"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B68" s="31"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="67"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
     </row>
     <row r="69" ht="15" spans="3:3">
-      <c r="C69" s="127" t="s">
-        <v>182</v>
+      <c r="C69" s="119" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5407,7 +5318,7 @@
     <mergeCell ref="J27:N28"/>
   </mergeCells>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.354330708661417" bottom="0.354330708661417" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="182">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -464,18 +464,9 @@
     <t>${alist[0].budgetcode}</t>
   </si>
   <si>
-    <t>${alist[0].depart}</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>${alist[0].outsource}</t>
-  </si>
-  <si>
-    <t>${alist[0].outcommunity}</t>
-  </si>
-  <si>
     <t>${alist[0].awardmoney}</t>
   </si>
   <si>
@@ -491,6 +482,9 @@
     <t>${alist[1].outcommunity}</t>
   </si>
   <si>
+    <t>${aw.membercost}</t>
+  </si>
+  <si>
     <t>${alist[1].awardmoney}</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
   </si>
   <si>
     <t>${aw.investorspeopor}</t>
-  </si>
-  <si>
-    <t>${aw.membercost}</t>
   </si>
   <si>
     <t>${aw.numbermoth}</t>
@@ -1030,10 +1021,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
@@ -1146,34 +1137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,6 +1151,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1195,7 +1189,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,7 +1216,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1246,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,72 +1284,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1364,13 +1355,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,49 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,13 +1469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,19 +1505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,55 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,15 +1758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1793,11 +1775,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1818,6 +1816,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1831,198 +1855,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,6 +2561,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2941,8 +2941,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
@@ -3556,215 +3556,205 @@
       <c r="A44" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="185" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="186" t="s">
         <v>105</v>
-      </c>
-      <c r="D44" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="185" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="186" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="186" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A45" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="G45" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="100" t="s">
+      <c r="H45" s="186" t="s">
         <v>111</v>
-      </c>
-      <c r="F45" s="185" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="186" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="186" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A46" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="F46" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="100" t="s">
+      <c r="G46" s="188"/>
+      <c r="H46" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="F46" s="185" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="186" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="186" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A47" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="F47" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="100" t="s">
+      <c r="G47" s="188"/>
+      <c r="H47" s="186" t="s">
         <v>121</v>
-      </c>
-      <c r="F47" s="185" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="186" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="186" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A48" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="F48" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="100" t="s">
+      <c r="G48" s="188"/>
+      <c r="H48" s="186" t="s">
         <v>126</v>
-      </c>
-      <c r="F48" s="185" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="186" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A49" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="F49" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="100" t="s">
+      <c r="G49" s="188"/>
+      <c r="H49" s="186" t="s">
         <v>131</v>
-      </c>
-      <c r="F49" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="186" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="186" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" s="121" customFormat="1" ht="15" spans="1:8">
       <c r="A50" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="F50" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="100" t="s">
+      <c r="G50" s="189"/>
+      <c r="H50" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="185" t="s">
+    </row>
+    <row r="51" ht="15" spans="1:8">
+      <c r="A51" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="186" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="186" t="s">
+      <c r="B51" s="191"/>
+      <c r="C51" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="192" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" ht="15" spans="1:8">
-      <c r="A51" s="187" t="s">
+      <c r="F51" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="194" t="s">
         <v>139</v>
-      </c>
-      <c r="B51" s="188"/>
-      <c r="C51" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="189" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="190" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="191" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A44:A50" name="範囲3_1"/>
-    <protectedRange sqref="E44:G50" name="範囲3_2"/>
-    <protectedRange sqref="C44:D50" name="範囲3_3"/>
+    <protectedRange sqref="E45:G50" name="範囲3_2"/>
+    <protectedRange sqref="C44:D50 E44 F44 G44 B44" name="範囲3_3"/>
   </protectedRanges>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:H35"/>
@@ -3779,6 +3769,7 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
@@ -3806,8 +3797,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3840,13 +3831,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M2" s="63"/>
       <c r="N2" s="2"/>
@@ -3855,15 +3846,15 @@
     <row r="3" ht="20.1" customHeight="1" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3918,7 +3909,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
@@ -3944,7 +3935,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="68"/>
       <c r="L7" s="75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -3969,23 +3960,23 @@
     <row r="9" ht="20.1" customHeight="1" spans="2:15">
       <c r="B9" s="2"/>
       <c r="C9" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L9" s="65" t="s">
         <v>86</v>
@@ -4010,7 +4001,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="81"/>
       <c r="L10" s="65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
@@ -4043,7 +4034,7 @@
     <row r="12" ht="20.1" customHeight="1" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -4054,7 +4045,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="84"/>
       <c r="L12" s="89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M12" s="90"/>
       <c r="N12" s="90"/>
@@ -4084,7 +4075,7 @@
     </row>
     <row r="14" ht="7.5" customHeight="1" spans="2:15">
       <c r="B14" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="7"/>
@@ -4104,7 +4095,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -4123,7 +4114,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -4141,7 +4132,7 @@
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -4193,7 +4184,7 @@
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -4211,7 +4202,7 @@
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="35" t="s">
@@ -4247,7 +4238,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="35" t="s">
@@ -4319,7 +4310,7 @@
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="36" t="s">
@@ -4328,7 +4319,7 @@
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J27" s="94" t="s">
         <v>27</v>
@@ -4370,7 +4361,7 @@
         <v>95</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J29" s="96"/>
       <c r="K29" s="97" t="s">
@@ -4412,21 +4403,21 @@
         <v>103</v>
       </c>
       <c r="G31" s="47"/>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="35" t="s">
         <v>104</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K31" s="101" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L31" s="102"/>
       <c r="M31" s="103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="93"/>
@@ -4437,22 +4428,22 @@
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
       <c r="F32" s="46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" s="100" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K32" s="104"/>
       <c r="L32" s="105"/>
       <c r="M32" s="103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="93"/>
@@ -4463,22 +4454,22 @@
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
       <c r="F33" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" s="100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K33" s="104"/>
       <c r="L33" s="105"/>
       <c r="M33" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="93"/>
@@ -4489,22 +4480,22 @@
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
       <c r="F34" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K34" s="104"/>
       <c r="L34" s="105"/>
       <c r="M34" s="103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="93"/>
@@ -4515,22 +4506,22 @@
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J35" s="100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K35" s="104"/>
       <c r="L35" s="105"/>
       <c r="M35" s="103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="93"/>
@@ -4541,22 +4532,22 @@
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
       <c r="F36" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" s="100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K36" s="104"/>
       <c r="L36" s="105"/>
       <c r="M36" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="93"/>
@@ -4567,22 +4558,22 @@
       <c r="D37" s="41"/>
       <c r="E37" s="42"/>
       <c r="F37" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" s="100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K37" s="27"/>
       <c r="L37" s="29"/>
       <c r="M37" s="103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="93"/>
@@ -4593,22 +4584,22 @@
       <c r="D38" s="43"/>
       <c r="E38" s="44"/>
       <c r="F38" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="106" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N38" s="106"/>
       <c r="O38" s="93"/>
@@ -4617,11 +4608,11 @@
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
@@ -4733,9 +4724,8 @@
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="108">
-        <f>SUM(J40:N43)</f>
-        <v>0</v>
+      <c r="J44" s="108" t="s">
+        <v>35</v>
       </c>
       <c r="K44" s="109"/>
       <c r="L44" s="109"/>
@@ -4747,7 +4737,7 @@
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -4766,7 +4756,7 @@
       <c r="C46" s="31"/>
       <c r="D46" s="32"/>
       <c r="E46" s="53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="25" t="s">
@@ -4786,7 +4776,7 @@
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
       <c r="E47" s="53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="25" t="s">
@@ -4821,7 +4811,7 @@
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
@@ -4830,7 +4820,7 @@
       </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
@@ -4846,7 +4836,7 @@
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
       <c r="G50" s="54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="111" t="str">
@@ -4867,7 +4857,7 @@
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
       <c r="G51" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H51" s="56"/>
       <c r="I51" s="114" t="str">
@@ -4876,7 +4866,7 @@
       </c>
       <c r="J51" s="115"/>
       <c r="K51" s="115" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L51" s="116" t="str">
         <f>IF(G49="有",J27,"-")</f>
@@ -4894,7 +4884,7 @@
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
       <c r="G52" s="54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="117" t="str">
@@ -4916,7 +4906,7 @@
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
       <c r="G53" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="117" t="str">
@@ -4938,7 +4928,7 @@
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
       <c r="G54" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4957,7 +4947,7 @@
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
       <c r="G55" s="57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4990,7 +4980,7 @@
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="58" t="str">
@@ -5027,25 +5017,25 @@
     <row r="59" ht="20.1" customHeight="1" spans="2:15">
       <c r="B59" s="30"/>
       <c r="C59" s="61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="61"/>
       <c r="E59" s="61"/>
       <c r="F59" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I59" s="61"/>
       <c r="J59" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
       <c r="M59" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N59" s="61"/>
       <c r="O59" s="61"/>
@@ -5196,7 +5186,7 @@
     </row>
     <row r="69" ht="15" spans="3:3">
       <c r="C69" s="119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>支払予定日</t>
+  </si>
+  <si>
+    <t>請求金額${aw.currencyposition}</t>
   </si>
   <si>
     <t>3．添付ファイル</t>
@@ -1021,14 +1024,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1143,90 +1146,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,7 +1161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,7 +1177,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,9 +1213,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,6 +1272,26 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1361,61 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1490,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,61 +1538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,44 +1761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1811,6 +1781,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,6 +1826,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1841,17 +1844,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,10 +1866,10 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1876,140 +1879,140 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2323,7 +2326,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2332,19 +2335,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,10 +2425,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2557,19 +2560,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,13 +2581,13 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2941,7 +2944,7 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A25" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3776,11 +3779,11 @@
     <mergeCell ref="G1:H32"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
+      <formula1>"和文1通,無し"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
-      <formula1>"和文1通,無し"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3797,8 +3800,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4390,7 +4393,9 @@
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="98"/>
+      <c r="M30" s="98" t="s">
+        <v>33</v>
+      </c>
       <c r="N30" s="99"/>
       <c r="O30" s="93"/>
     </row>
@@ -4617,9 +4622,8 @@
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
       <c r="I39" s="96"/>
-      <c r="J39" s="34" t="str">
-        <f>"請求金額"&amp;"${aw.currencyposition}"</f>
-        <v>請求金額${aw.currencyposition}</v>
+      <c r="J39" s="34" t="s">
+        <v>166</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
@@ -4737,7 +4741,7 @@
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -4756,7 +4760,7 @@
       <c r="C46" s="31"/>
       <c r="D46" s="32"/>
       <c r="E46" s="53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="25" t="s">
@@ -4776,7 +4780,7 @@
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
       <c r="E47" s="53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="25" t="s">
@@ -4811,7 +4815,7 @@
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
@@ -4820,7 +4824,7 @@
       </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
@@ -4836,7 +4840,7 @@
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
       <c r="G50" s="54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="111" t="str">
@@ -4857,7 +4861,7 @@
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
       <c r="G51" s="55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H51" s="56"/>
       <c r="I51" s="114" t="str">
@@ -4884,7 +4888,7 @@
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
       <c r="G52" s="54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="117" t="str">
@@ -4906,7 +4910,7 @@
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
       <c r="G53" s="54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="117" t="str">
@@ -4928,7 +4932,7 @@
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
       <c r="G54" s="57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4947,7 +4951,7 @@
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
       <c r="G55" s="57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4980,7 +4984,7 @@
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="58" t="str">
@@ -5017,25 +5021,25 @@
     <row r="59" ht="20.1" customHeight="1" spans="2:15">
       <c r="B59" s="30"/>
       <c r="C59" s="61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="61"/>
       <c r="E59" s="61"/>
       <c r="F59" s="61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G59" s="61"/>
       <c r="H59" s="61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I59" s="61"/>
       <c r="J59" s="61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K59" s="61"/>
       <c r="L59" s="61"/>
       <c r="M59" s="61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N59" s="61"/>
       <c r="O59" s="61"/>
@@ -5186,7 +5190,7 @@
     </row>
     <row r="69" ht="15" spans="3:3">
       <c r="C69" s="119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="134"/>
+            <family val="3"/>
           </rPr>
           <t>jx:area(lastCell="H51")</t>
         </r>
@@ -58,7 +58,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="134"/>
+            <family val="3"/>
           </rPr>
           <t>jx:area(lastCell="o67")</t>
         </r>
@@ -1024,12 +1024,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="mm/dd/yy;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1166,7 +1164,7 @@
       <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1451,7 +1449,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,10 +1569,7 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,20 +1607,110 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1645,96 +1730,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1747,6 +1742,237 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1759,9 +1985,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1771,282 +1994,51 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2113,7 +2105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,7 +2140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2359,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2374,14 +2366,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="92"/>
+      <c r="G1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="100"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2394,8 +2386,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="36"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -2405,8 +2397,8 @@
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34" t="s">
@@ -2418,8 +2410,8 @@
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2429,8 +2421,8 @@
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="41" t="s">
@@ -2442,8 +2434,8 @@
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="41" t="s">
@@ -2455,8 +2447,8 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -2466,8 +2458,8 @@
       <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2480,8 +2472,8 @@
         <v>4</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -2493,8 +2485,8 @@
       <c r="C10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -2506,8 +2498,8 @@
       <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="34" t="s">
@@ -2519,8 +2511,8 @@
       <c r="C12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="34" t="s">
@@ -2530,8 +2522,8 @@
       <c r="C13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="34" t="s">
@@ -2543,8 +2535,8 @@
       <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="34" t="s">
@@ -2556,8 +2548,8 @@
       <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2567,21 +2559,21 @@
       <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="188" t="s">
         <v>183</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2591,8 +2583,8 @@
       <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2604,21 +2596,21 @@
       <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="102"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="34" t="s">
@@ -2628,8 +2620,8 @@
       <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="102"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="34" t="s">
@@ -2639,201 +2631,201 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="102"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="102"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="101"/>
-      <c r="H25" s="102"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="33"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="102"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="188" t="s">
+      <c r="E29" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="102"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="188" t="s">
+      <c r="E30" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
     </row>
     <row r="31" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="188" t="s">
+      <c r="E31" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="101"/>
-      <c r="H31" s="102"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
     </row>
     <row r="32" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="188" t="s">
+      <c r="E32" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="102"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="97"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="54" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -2851,10 +2843,10 @@
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="186" t="s">
         <v>78</v>
       </c>
       <c r="C37" s="69" t="s">
@@ -2869,10 +2861,10 @@
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="73" t="s">
@@ -2887,56 +2879,56 @@
       <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="93" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
     </row>
     <row r="40" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
     </row>
     <row r="41" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="64" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="77" t="s">
@@ -2945,54 +2937,54 @@
       <c r="D42" s="78"/>
       <c r="E42" s="78"/>
       <c r="F42" s="79"/>
-      <c r="G42" s="83" t="s">
+      <c r="G42" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H42" s="64" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A44" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="58" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3003,22 +2995,22 @@
       <c r="B45" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="G45" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="58" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3029,20 +3021,20 @@
       <c r="B46" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="85"/>
-      <c r="H46" s="59" t="s">
+      <c r="G46" s="67"/>
+      <c r="H46" s="58" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3053,20 +3045,20 @@
       <c r="B47" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="59" t="s">
+      <c r="G47" s="67"/>
+      <c r="H47" s="58" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3077,20 +3069,20 @@
       <c r="B48" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="85"/>
-      <c r="H48" s="59" t="s">
+      <c r="G48" s="67"/>
+      <c r="H48" s="58" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3101,20 +3093,20 @@
       <c r="B49" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="85"/>
-      <c r="H49" s="59" t="s">
+      <c r="G49" s="67"/>
+      <c r="H49" s="58" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3125,44 +3117,44 @@
       <c r="B50" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="86"/>
-      <c r="H50" s="59" t="s">
+      <c r="G50" s="68"/>
+      <c r="H50" s="58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="60" t="s">
+      <c r="B51" s="63"/>
+      <c r="C51" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="61" t="s">
+      <c r="G51" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3173,11 +3165,12 @@
     <protectedRange sqref="C44:D50 E44:G44 B44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="G1:H32"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="C38:D38"/>
@@ -3186,12 +3179,11 @@
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G50"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="2">
@@ -3216,8 +3208,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3263,12 +3255,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="142" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3278,102 +3270,102 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="191" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="194"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="103" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="105"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="149" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="194" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="197"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="106" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="202"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="200"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
@@ -3384,70 +3376,70 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="152" t="s">
+      <c r="J9" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="155" t="s">
+      <c r="K9" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="109" t="s">
+      <c r="M9" s="180"/>
+      <c r="N9" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="110"/>
+      <c r="O9" s="185"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="103" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="105"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="156" t="s">
+      <c r="K11" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="111" t="s">
+      <c r="L11" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="M11" s="112"/>
-      <c r="N11" s="113" t="s">
+      <c r="M11" s="170"/>
+      <c r="N11" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="114"/>
+      <c r="O11" s="172"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
@@ -3458,41 +3450,41 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="115" t="s">
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="117"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="111" t="s">
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113" t="s">
+      <c r="M13" s="170"/>
+      <c r="N13" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="114"/>
+      <c r="O13" s="172"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="141" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="13"/>
@@ -3510,7 +3502,7 @@
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="148"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
         <v>153</v>
@@ -3528,7 +3520,7 @@
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="148"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
@@ -3546,7 +3538,7 @@
       <c r="O16" s="25"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="148"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
@@ -3564,7 +3556,7 @@
       <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="148"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="13"/>
       <c r="D18" s="2"/>
       <c r="E18" s="15" t="str">
@@ -3583,7 +3575,7 @@
       <c r="O18" s="25"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="148"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="13"/>
       <c r="D19" s="2"/>
       <c r="E19" s="14"/>
@@ -3599,7 +3591,7 @@
       <c r="O19" s="25"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="148"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
         <v>156</v>
@@ -3617,212 +3609,212 @@
       <c r="O20" s="25"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="148"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="182" t="s">
+      <c r="E21" s="128"/>
+      <c r="F21" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
       <c r="O21" s="25"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="148"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="148"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="182" t="s">
+      <c r="E23" s="128"/>
+      <c r="F23" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
       <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="148"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
       <c r="O24" s="25"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="148"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="130" t="s">
+      <c r="D25" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="182" t="s">
+      <c r="E25" s="128"/>
+      <c r="F25" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
       <c r="O25" s="25"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="148"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
       <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="148"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="183" t="s">
+      <c r="E27" s="128"/>
+      <c r="F27" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="133" t="s">
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="185" t="s">
+      <c r="J27" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="185"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="186"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
       <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="148"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="186"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
       <c r="O28" s="25"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="148"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="123" t="s">
+      <c r="E29" s="130"/>
+      <c r="F29" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="153" t="s">
+      <c r="G29" s="130"/>
+      <c r="H29" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="121" t="s">
+      <c r="I29" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="122"/>
-      <c r="K29" s="181" t="s">
+      <c r="J29" s="168"/>
+      <c r="K29" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="124"/>
-      <c r="M29" s="123" t="s">
+      <c r="L29" s="130"/>
+      <c r="M29" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="124"/>
+      <c r="N29" s="130"/>
       <c r="O29" s="25"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="148"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="154"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="16" t="s">
         <v>97</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="173"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="125" t="s">
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="126"/>
+      <c r="N30" s="178"/>
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="148"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="127" t="s">
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="128"/>
+      <c r="G31" s="164"/>
       <c r="H31" s="17" t="s">
         <v>102</v>
       </c>
@@ -3832,25 +3824,25 @@
       <c r="J31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="177" t="s">
+      <c r="K31" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="178"/>
-      <c r="M31" s="129" t="s">
+      <c r="L31" s="107"/>
+      <c r="M31" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="N31" s="129"/>
+      <c r="N31" s="155"/>
       <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="148"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="127" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="128"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="18" t="s">
         <v>105</v>
       </c>
@@ -3860,23 +3852,23 @@
       <c r="J32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="129" t="s">
+      <c r="K32" s="108"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="129"/>
+      <c r="N32" s="155"/>
       <c r="O32" s="25"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="148"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="127" t="s">
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="128"/>
+      <c r="G33" s="164"/>
       <c r="H33" s="18" t="s">
         <v>111</v>
       </c>
@@ -3886,23 +3878,23 @@
       <c r="J33" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="179"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="129" t="s">
+      <c r="K33" s="108"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="N33" s="129"/>
+      <c r="N33" s="155"/>
       <c r="O33" s="25"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="148"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="127" t="s">
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="164"/>
       <c r="H34" s="18" t="s">
         <v>116</v>
       </c>
@@ -3912,23 +3904,23 @@
       <c r="J34" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K34" s="179"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="129" t="s">
+      <c r="K34" s="108"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="129"/>
+      <c r="N34" s="155"/>
       <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="148"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="127" t="s">
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="128"/>
+      <c r="G35" s="164"/>
       <c r="H35" s="18" t="s">
         <v>121</v>
       </c>
@@ -3938,23 +3930,23 @@
       <c r="J35" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="179"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="129" t="s">
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="N35" s="129"/>
+      <c r="N35" s="155"/>
       <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="148"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="127" t="s">
+      <c r="D36" s="131"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="128"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="18" t="s">
         <v>126</v>
       </c>
@@ -3964,23 +3956,23 @@
       <c r="J36" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="179"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="129" t="s">
+      <c r="K36" s="108"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="N36" s="129"/>
+      <c r="N36" s="155"/>
       <c r="O36" s="25"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="148"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="127" t="s">
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="128"/>
+      <c r="G37" s="164"/>
       <c r="H37" s="18" t="s">
         <v>131</v>
       </c>
@@ -3990,152 +3982,152 @@
       <c r="J37" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K37" s="118"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="129" t="s">
+      <c r="K37" s="110"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="129"/>
+      <c r="N37" s="155"/>
       <c r="O37" s="25"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="148"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="130" t="s">
+      <c r="D38" s="133"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
       <c r="I38" s="17" t="s">
         <v>102</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="130" t="s">
+      <c r="K38" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="130"/>
-      <c r="M38" s="131" t="s">
+      <c r="L38" s="128"/>
+      <c r="M38" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="N38" s="131"/>
+      <c r="N38" s="165"/>
       <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="148"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="130" t="s">
+      <c r="D39" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="121" t="s">
+      <c r="E39" s="128"/>
+      <c r="F39" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="130" t="s">
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
       <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="148"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="130" t="s">
+      <c r="D40" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="197" t="s">
+      <c r="E40" s="128"/>
+      <c r="F40" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="129" t="s">
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
       <c r="O40" s="25"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="148"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="197" t="s">
+      <c r="E41" s="128"/>
+      <c r="F41" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="129" t="s">
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
       <c r="O41" s="25"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="148"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="197" t="s">
+      <c r="E42" s="128"/>
+      <c r="F42" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="129" t="s">
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="148"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="197" t="s">
+      <c r="E43" s="128"/>
+      <c r="F43" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="129" t="s">
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="148"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4143,17 +4135,17 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="134" t="s">
+      <c r="J44" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="135"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
-      <c r="N44" s="136"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="158"/>
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="148"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
         <v>165</v>
@@ -4171,13 +4163,13 @@
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="148"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="107" t="s">
+      <c r="E46" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="107"/>
+      <c r="F46" s="159"/>
       <c r="G46" s="11" t="s">
         <v>89</v>
       </c>
@@ -4191,13 +4183,13 @@
       <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="148"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="107"/>
+      <c r="F47" s="159"/>
       <c r="G47" s="11" t="s">
         <v>91</v>
       </c>
@@ -4211,7 +4203,7 @@
       <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="148"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="19"/>
@@ -4227,121 +4219,121 @@
       <c r="O48" s="25"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="148"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="137" t="s">
+      <c r="G49" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137" t="s">
+      <c r="H49" s="153"/>
+      <c r="I49" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="137"/>
-      <c r="M49" s="137"/>
-      <c r="N49" s="137"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
       <c r="O49" s="25"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="148"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="137" t="s">
+      <c r="G50" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="137"/>
-      <c r="I50" s="138" t="str">
+      <c r="H50" s="153"/>
+      <c r="I50" s="160" t="str">
         <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="140"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="162"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="148"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="141" t="s">
+      <c r="G51" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="142"/>
-      <c r="I51" s="143" t="str">
+      <c r="H51" s="149"/>
+      <c r="I51" s="150" t="str">
         <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="144"/>
+      <c r="J51" s="151"/>
       <c r="K51" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L51" s="145" t="str">
+      <c r="L51" s="152" t="str">
         <f>IF(G49="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M51" s="144"/>
-      <c r="N51" s="142"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="149"/>
       <c r="O51" s="25"/>
       <c r="R51" s="20"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="148"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="137" t="s">
+      <c r="G52" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="H52" s="137"/>
-      <c r="I52" s="146" t="str">
+      <c r="H52" s="153"/>
+      <c r="I52" s="154" t="str">
         <f>IF(G49="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J52" s="146"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146"/>
-      <c r="M52" s="146"/>
-      <c r="N52" s="146"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="25"/>
       <c r="R52" s="20"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="148"/>
+      <c r="B53" s="141"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="137" t="s">
+      <c r="G53" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="H53" s="137"/>
-      <c r="I53" s="146" t="str">
+      <c r="H53" s="153"/>
+      <c r="I53" s="154" t="str">
         <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146"/>
-      <c r="N53" s="146"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="25"/>
       <c r="R53" s="28"/>
     </row>
     <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="148"/>
+      <c r="B54" s="141"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
       <c r="E54" s="19"/>
@@ -4360,7 +4352,7 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="148"/>
+      <c r="B55" s="141"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
       <c r="E55" s="19"/>
@@ -4379,7 +4371,7 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56" spans="2:18" ht="9" customHeight="1">
-      <c r="B56" s="148"/>
+      <c r="B56" s="141"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
       <c r="E56" s="19"/>
@@ -4396,212 +4388,212 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="148"/>
+      <c r="B57" s="141"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
         <v>176</v>
       </c>
       <c r="E57" s="19"/>
-      <c r="F57" s="175" t="str">
+      <c r="F57" s="104" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G57" s="175"/>
-      <c r="H57" s="175"/>
-      <c r="I57" s="175"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="175"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
       <c r="O57" s="25"/>
       <c r="R57" s="28"/>
     </row>
     <row r="58" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B58" s="148"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="13"/>
       <c r="D58" s="14"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="176"/>
-      <c r="M58" s="176"/>
-      <c r="N58" s="176"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
       <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="148"/>
-      <c r="C59" s="147" t="s">
+      <c r="B59" s="141"/>
+      <c r="C59" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147" t="s">
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147" t="s">
+      <c r="G59" s="103"/>
+      <c r="H59" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147" t="s">
+      <c r="I59" s="103"/>
+      <c r="J59" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147" t="s">
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="N59" s="147"/>
-      <c r="O59" s="147"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="148"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="148"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="170"/>
-      <c r="J61" s="170"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="170"/>
-      <c r="M61" s="170"/>
-      <c r="N61" s="170"/>
-      <c r="O61" s="170"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="148"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="170"/>
-      <c r="J62" s="170"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="170"/>
-      <c r="M62" s="170"/>
-      <c r="N62" s="170"/>
-      <c r="O62" s="170"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="148"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
-      <c r="I63" s="170"/>
-      <c r="J63" s="170"/>
-      <c r="K63" s="170"/>
-      <c r="L63" s="170"/>
-      <c r="M63" s="170"/>
-      <c r="N63" s="170"/>
-      <c r="O63" s="170"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="148"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="170"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="170"/>
-      <c r="N64" s="170"/>
-      <c r="O64" s="170"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="148"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="170"/>
-      <c r="J65" s="170"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="170"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="170"/>
-      <c r="O65" s="170"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="102"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="148"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="170"/>
-      <c r="J66" s="170"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="170"/>
-      <c r="M66" s="170"/>
-      <c r="N66" s="170"/>
-      <c r="O66" s="170"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
     </row>
     <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="148"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
-      <c r="J67" s="170"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="170"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="170"/>
-      <c r="O67" s="170"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="148"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="170"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="170"/>
-      <c r="J68" s="170"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="170"/>
-      <c r="M68" s="170"/>
-      <c r="N68" s="170"/>
-      <c r="O68" s="170"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
     </row>
     <row r="69" spans="2:15" ht="14.25">
       <c r="C69" s="29" t="s">
@@ -4613,15 +4605,70 @@
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
   </protectedRanges>
   <mergeCells count="112">
-    <mergeCell ref="J66:L68"/>
-    <mergeCell ref="M66:O68"/>
-    <mergeCell ref="C59:E68"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="J63:L65"/>
-    <mergeCell ref="M63:O65"/>
-    <mergeCell ref="F57:N58"/>
-    <mergeCell ref="K31:L37"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B14:B68"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="H66:I68"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K9:K10"/>
@@ -4645,31 +4692,16 @@
     <mergeCell ref="F25:N26"/>
     <mergeCell ref="F27:H28"/>
     <mergeCell ref="J27:N28"/>
-    <mergeCell ref="B14:B68"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F66:G68"/>
-    <mergeCell ref="H66:I68"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:N51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J66:L68"/>
+    <mergeCell ref="M66:O68"/>
+    <mergeCell ref="C59:E68"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="J63:L65"/>
+    <mergeCell ref="M63:O65"/>
+    <mergeCell ref="F57:N58"/>
+    <mergeCell ref="K31:L37"/>
     <mergeCell ref="J43:N43"/>
     <mergeCell ref="J44:N44"/>
     <mergeCell ref="E46:F46"/>
@@ -4685,46 +4717,6 @@
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L10:O10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.35433070866141703" bottom="0.35433070866141703" header="0.31496062992126" footer="0.31496062992126"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -1024,10 +1024,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1449,7 +1450,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1569,7 +1570,7 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,20 +1608,122 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1629,123 +1732,219 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,155 +1965,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1925,121 +1983,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2352,7 +2359,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2366,14 +2373,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="G1" s="98" t="s">
+      <c r="B1" s="62"/>
+      <c r="G1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="99"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2386,8 +2393,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="36"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -2397,8 +2404,8 @@
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34" t="s">
@@ -2410,8 +2417,8 @@
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2421,8 +2428,8 @@
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="41" t="s">
@@ -2434,8 +2441,8 @@
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="41" t="s">
@@ -2447,8 +2454,8 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -2458,8 +2465,8 @@
       <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2472,8 +2479,8 @@
         <v>4</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -2485,8 +2492,8 @@
       <c r="C10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -2498,8 +2505,8 @@
       <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="34" t="s">
@@ -2511,8 +2518,8 @@
       <c r="C12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="34" t="s">
@@ -2522,34 +2529,34 @@
       <c r="C13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="182" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="182" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2559,21 +2566,21 @@
       <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="183" t="s">
         <v>183</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2583,8 +2590,8 @@
       <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2596,8 +2603,8 @@
       <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="34" t="s">
@@ -2609,8 +2616,8 @@
       <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="34" t="s">
@@ -2620,8 +2627,8 @@
       <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="34" t="s">
@@ -2631,8 +2638,8 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="37" t="s">
@@ -2642,8 +2649,8 @@
       <c r="C23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="37" t="s">
@@ -2653,8 +2660,8 @@
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="37" t="s">
@@ -2666,8 +2673,8 @@
       <c r="C25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37" t="s">
@@ -2679,14 +2686,14 @@
       <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="101"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="33"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="48" t="s">
@@ -2707,96 +2714,96 @@
       <c r="F28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="187" t="s">
+      <c r="E29" s="185" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="101"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="187" t="s">
+      <c r="E30" s="185" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="101"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="187" t="s">
+      <c r="E31" s="185" t="s">
         <v>60</v>
       </c>
       <c r="F31" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="101"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="187" t="s">
+      <c r="E32" s="185" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="52"/>
@@ -2813,16 +2820,16 @@
       <c r="B35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="97"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="54" t="s">
@@ -2831,16 +2838,16 @@
       <c r="B36" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70" t="s">
+      <c r="D36" s="68"/>
+      <c r="E36" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="54" t="s">
@@ -2849,16 +2856,16 @@
       <c r="B37" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="55" t="s">
@@ -2867,16 +2874,16 @@
       <c r="B38" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="79"/>
     </row>
     <row r="39" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A39" s="55" t="s">
@@ -2885,16 +2892,16 @@
       <c r="B39" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="86" t="s">
+      <c r="D39" s="85"/>
+      <c r="E39" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A40" s="55" t="s">
@@ -2903,12 +2910,12 @@
       <c r="B40" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
     </row>
     <row r="41" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A41" s="55" t="s">
@@ -2917,36 +2924,36 @@
       <c r="B41" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
     </row>
     <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="65" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="83" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="56" t="s">
         <v>97</v>
       </c>
@@ -2959,8 +2966,8 @@
       <c r="F43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
     </row>
     <row r="44" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A44" s="17" t="s">
@@ -3007,7 +3014,7 @@
       <c r="F45" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="99" t="s">
         <v>108</v>
       </c>
       <c r="H45" s="58" t="s">
@@ -3033,7 +3040,7 @@
       <c r="F46" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="67"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="58" t="s">
         <v>114</v>
       </c>
@@ -3057,7 +3064,7 @@
       <c r="F47" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="67"/>
+      <c r="G47" s="100"/>
       <c r="H47" s="58" t="s">
         <v>119</v>
       </c>
@@ -3081,7 +3088,7 @@
       <c r="F48" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="67"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="58" t="s">
         <v>124</v>
       </c>
@@ -3105,7 +3112,7 @@
       <c r="F49" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="67"/>
+      <c r="G49" s="100"/>
       <c r="H49" s="58" t="s">
         <v>129</v>
       </c>
@@ -3129,16 +3136,16 @@
       <c r="F50" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="68"/>
+      <c r="G50" s="101"/>
       <c r="H50" s="58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="59" t="s">
         <v>102</v>
       </c>
@@ -3165,12 +3172,11 @@
     <protectedRange sqref="C44:D50 E44:G44 B44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="C38:D38"/>
@@ -3179,11 +3185,12 @@
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="G1:H32"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="2">
@@ -3208,8 +3215,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3255,12 +3262,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="142" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="134" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3270,102 +3277,102 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="179" t="s">
+      <c r="L3" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="192" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="194"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="179" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="181"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="142" t="s">
+      <c r="C6" s="135"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="195" t="s">
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="197"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="199"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="182" t="s">
+      <c r="C7" s="135"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="183"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="200"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="196"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
@@ -3376,70 +3383,70 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="112" t="s">
+      <c r="H9" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="112" t="s">
+      <c r="J9" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="179" t="s">
+      <c r="L9" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="180"/>
-      <c r="N9" s="184" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="185"/>
+      <c r="O9" s="109"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="179" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="181"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112" t="s">
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="169" t="s">
+      <c r="L11" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="171" t="s">
+      <c r="M11" s="111"/>
+      <c r="N11" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="172"/>
+      <c r="O11" s="113"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
@@ -3450,41 +3457,41 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="173" t="s">
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="116"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="169" t="s">
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="171" t="s">
+      <c r="M13" s="111"/>
+      <c r="N13" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="172"/>
+      <c r="O13" s="113"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="133" t="s">
         <v>152</v>
       </c>
       <c r="C14" s="13"/>
@@ -3502,7 +3509,7 @@
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="141"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
         <v>153</v>
@@ -3520,7 +3527,7 @@
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="141"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
@@ -3538,7 +3545,7 @@
       <c r="O16" s="25"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="141"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
@@ -3556,7 +3563,7 @@
       <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="141"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="13"/>
       <c r="D18" s="2"/>
       <c r="E18" s="15" t="str">
@@ -3575,7 +3582,7 @@
       <c r="O18" s="25"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="141"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="13"/>
       <c r="D19" s="2"/>
       <c r="E19" s="14"/>
@@ -3591,7 +3598,7 @@
       <c r="O19" s="25"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="141"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
         <v>156</v>
@@ -3609,212 +3616,212 @@
       <c r="O20" s="25"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="141"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="136" t="s">
+      <c r="E21" s="126"/>
+      <c r="F21" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
       <c r="O21" s="25"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="141"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="141"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="136" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
       <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="141"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
       <c r="O24" s="25"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="141"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="128" t="s">
+      <c r="D25" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="128"/>
-      <c r="F25" s="136" t="s">
+      <c r="E25" s="126"/>
+      <c r="F25" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
       <c r="O25" s="25"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="141"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
       <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="141"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="137" t="s">
+      <c r="E27" s="126"/>
+      <c r="F27" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="147" t="s">
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="139" t="s">
+      <c r="J27" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="193"/>
       <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="141"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="193"/>
       <c r="O28" s="25"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="141"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="129" t="s">
+      <c r="E29" s="123"/>
+      <c r="F29" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="145" t="s">
+      <c r="G29" s="123"/>
+      <c r="H29" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="166" t="s">
+      <c r="I29" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="168"/>
-      <c r="K29" s="135" t="s">
+      <c r="J29" s="121"/>
+      <c r="K29" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="130"/>
-      <c r="M29" s="129" t="s">
+      <c r="L29" s="123"/>
+      <c r="M29" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="130"/>
+      <c r="N29" s="123"/>
       <c r="O29" s="25"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="141"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="146"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="139"/>
       <c r="I30" s="16" t="s">
         <v>97</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="133"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="177" t="s">
+      <c r="K30" s="165"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="178"/>
+      <c r="N30" s="125"/>
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="141"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="163" t="s">
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="164"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="17" t="s">
         <v>102</v>
       </c>
@@ -3824,25 +3831,25 @@
       <c r="J31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="106" t="s">
+      <c r="K31" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="155" t="s">
+      <c r="L31" s="173"/>
+      <c r="M31" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="N31" s="155"/>
+      <c r="N31" s="130"/>
       <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="141"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="163" t="s">
+      <c r="D32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="164"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="18" t="s">
         <v>105</v>
       </c>
@@ -3852,23 +3859,23 @@
       <c r="J32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="108"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="155" t="s">
+      <c r="K32" s="174"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="155"/>
+      <c r="N32" s="130"/>
       <c r="O32" s="25"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="141"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="163" t="s">
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="164"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="18" t="s">
         <v>111</v>
       </c>
@@ -3878,23 +3885,23 @@
       <c r="J33" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="108"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="155" t="s">
+      <c r="K33" s="174"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="N33" s="155"/>
+      <c r="N33" s="130"/>
       <c r="O33" s="25"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="141"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="163" t="s">
+      <c r="D34" s="163"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="164"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="18" t="s">
         <v>116</v>
       </c>
@@ -3904,23 +3911,23 @@
       <c r="J34" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K34" s="108"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="155" t="s">
+      <c r="K34" s="174"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="155"/>
+      <c r="N34" s="130"/>
       <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="141"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="163" t="s">
+      <c r="D35" s="163"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="164"/>
+      <c r="G35" s="129"/>
       <c r="H35" s="18" t="s">
         <v>121</v>
       </c>
@@ -3930,23 +3937,23 @@
       <c r="J35" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="155" t="s">
+      <c r="K35" s="174"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="N35" s="155"/>
+      <c r="N35" s="130"/>
       <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="141"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="163" t="s">
+      <c r="D36" s="163"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="164"/>
+      <c r="G36" s="129"/>
       <c r="H36" s="18" t="s">
         <v>126</v>
       </c>
@@ -3956,23 +3963,23 @@
       <c r="J36" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="108"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="155" t="s">
+      <c r="K36" s="174"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="N36" s="155"/>
+      <c r="N36" s="130"/>
       <c r="O36" s="25"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="141"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="163" t="s">
+      <c r="D37" s="163"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="164"/>
+      <c r="G37" s="129"/>
       <c r="H37" s="18" t="s">
         <v>131</v>
       </c>
@@ -3982,152 +3989,152 @@
       <c r="J37" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="155" t="s">
+      <c r="K37" s="117"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="155"/>
+      <c r="N37" s="130"/>
       <c r="O37" s="25"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="141"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="128" t="s">
+      <c r="D38" s="165"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="17" t="s">
         <v>102</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="128" t="s">
+      <c r="K38" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="128"/>
-      <c r="M38" s="165" t="s">
+      <c r="L38" s="126"/>
+      <c r="M38" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="N38" s="165"/>
+      <c r="N38" s="132"/>
       <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="141"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="128"/>
-      <c r="F39" s="166" t="s">
+      <c r="E39" s="126"/>
+      <c r="F39" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="128" t="s">
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
       <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="141"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="128"/>
-      <c r="F40" s="190" t="s">
+      <c r="E40" s="126"/>
+      <c r="F40" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="155" t="s">
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
       <c r="O40" s="25"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="141"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="128" t="s">
+      <c r="D41" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="128"/>
-      <c r="F41" s="190" t="s">
+      <c r="E41" s="126"/>
+      <c r="F41" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="155" t="s">
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
       <c r="O41" s="25"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="141"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="128"/>
-      <c r="F42" s="190" t="s">
+      <c r="E42" s="126"/>
+      <c r="F42" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="155" t="s">
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="141"/>
+      <c r="B43" s="133"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="128" t="s">
+      <c r="D43" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="128"/>
-      <c r="F43" s="190" t="s">
+      <c r="E43" s="126"/>
+      <c r="F43" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="155" t="s">
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="141"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4135,17 +4142,17 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="156" t="s">
+      <c r="J44" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="158"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="178"/>
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="141"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
         <v>165</v>
@@ -4163,13 +4170,13 @@
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="141"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="159" t="s">
+      <c r="E46" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="159"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="11" t="s">
         <v>89</v>
       </c>
@@ -4183,13 +4190,13 @@
       <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="141"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="159" t="s">
+      <c r="E47" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="159"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="11" t="s">
         <v>91</v>
       </c>
@@ -4203,7 +4210,7 @@
       <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="141"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="19"/>
@@ -4219,121 +4226,121 @@
       <c r="O48" s="25"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="141"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="153" t="s">
+      <c r="G49" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153" t="s">
+      <c r="H49" s="145"/>
+      <c r="I49" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
       <c r="O49" s="25"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="141"/>
+      <c r="B50" s="133"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="153" t="s">
+      <c r="G50" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="153"/>
-      <c r="I50" s="160" t="str">
+      <c r="H50" s="145"/>
+      <c r="I50" s="179" t="str">
         <f>IF(G49="有",記入!B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="161"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="162"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="180"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="181"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="141"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="148" t="s">
+      <c r="G51" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="149"/>
-      <c r="I51" s="150" t="str">
+      <c r="H51" s="142"/>
+      <c r="I51" s="143" t="str">
         <f>IF(G49="有",F27,"-")</f>
         <v>-</v>
       </c>
-      <c r="J51" s="151"/>
+      <c r="J51" s="144"/>
       <c r="K51" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="169" t="str">
         <f>IF(G49="有",J27,"-")</f>
         <v>-</v>
       </c>
-      <c r="M51" s="151"/>
-      <c r="N51" s="149"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="142"/>
       <c r="O51" s="25"/>
       <c r="R51" s="20"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="141"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="153" t="s">
+      <c r="G52" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="H52" s="153"/>
-      <c r="I52" s="154" t="str">
+      <c r="H52" s="145"/>
+      <c r="I52" s="146" t="str">
         <f>IF(G49="有",記入!E36,"-")</f>
         <v>-</v>
       </c>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="154"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="146"/>
+      <c r="N52" s="146"/>
       <c r="O52" s="25"/>
       <c r="R52" s="20"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="141"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="153" t="s">
+      <c r="G53" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="H53" s="153"/>
-      <c r="I53" s="154" t="str">
+      <c r="H53" s="145"/>
+      <c r="I53" s="146" t="str">
         <f>IF(G49="有",記入!E37&amp;記入!E38,"-")</f>
         <v>-</v>
       </c>
-      <c r="J53" s="154"/>
-      <c r="K53" s="154"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
       <c r="O53" s="25"/>
       <c r="R53" s="28"/>
     </row>
     <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="141"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
       <c r="E54" s="19"/>
@@ -4352,7 +4359,7 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="141"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
       <c r="E55" s="19"/>
@@ -4371,7 +4378,7 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56" spans="2:18" ht="9" customHeight="1">
-      <c r="B56" s="141"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
       <c r="E56" s="19"/>
@@ -4388,212 +4395,212 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="141"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
         <v>176</v>
       </c>
       <c r="E57" s="19"/>
-      <c r="F57" s="104" t="str">
+      <c r="F57" s="170" t="str">
         <f>記入!E39</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="170"/>
       <c r="O57" s="25"/>
       <c r="R57" s="28"/>
     </row>
     <row r="58" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B58" s="141"/>
+      <c r="B58" s="133"/>
       <c r="C58" s="13"/>
       <c r="D58" s="14"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
       <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="141"/>
-      <c r="C59" s="103" t="s">
+      <c r="B59" s="133"/>
+      <c r="C59" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103" t="s">
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103" t="s">
+      <c r="G59" s="147"/>
+      <c r="H59" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103" t="s">
+      <c r="I59" s="147"/>
+      <c r="J59" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103" t="s">
+      <c r="K59" s="147"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="141"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="102"/>
-      <c r="L60" s="102"/>
-      <c r="M60" s="102"/>
-      <c r="N60" s="102"/>
-      <c r="O60" s="102"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="141"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="102"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="141"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
+      <c r="O62" s="140"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="141"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="102"/>
-      <c r="O63" s="102"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="140"/>
+      <c r="O63" s="140"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="141"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="102"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="140"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="141"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="102"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="102"/>
-      <c r="O65" s="102"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="140"/>
+      <c r="O65" s="140"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="141"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="102"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
     </row>
     <row r="67" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="141"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="140"/>
+      <c r="O67" s="140"/>
     </row>
     <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="141"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="102"/>
-      <c r="N68" s="102"/>
-      <c r="O68" s="102"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="140"/>
+      <c r="O68" s="140"/>
     </row>
     <row r="69" spans="2:15" ht="14.25">
       <c r="C69" s="29" t="s">
@@ -4605,46 +4612,54 @@
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
   </protectedRanges>
   <mergeCells count="112">
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J66:L68"/>
+    <mergeCell ref="M66:O68"/>
+    <mergeCell ref="C59:E68"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="J63:L65"/>
+    <mergeCell ref="M63:O65"/>
+    <mergeCell ref="F57:N58"/>
+    <mergeCell ref="K31:L37"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="F63:G65"/>
+    <mergeCell ref="H63:I65"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="L51:N51"/>
     <mergeCell ref="B14:B68"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="F3:F5"/>
@@ -4669,54 +4684,46 @@
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="F63:G65"/>
-    <mergeCell ref="H63:I65"/>
-    <mergeCell ref="F60:G62"/>
-    <mergeCell ref="H60:I62"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D29:E38"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="J66:L68"/>
-    <mergeCell ref="M66:O68"/>
-    <mergeCell ref="C59:E68"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="J63:L65"/>
-    <mergeCell ref="M63:O65"/>
-    <mergeCell ref="F57:N58"/>
-    <mergeCell ref="K31:L37"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:O10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.35433070866141703" bottom="0.35433070866141703" header="0.31496062992126" footer="0.31496062992126"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_weituo.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>請求金額</t>
-  </si>
-  <si>
-    <t>${aw.claimamount}</t>
   </si>
   <si>
     <t>請求日</t>
@@ -1019,6 +1016,14 @@
     <t>${deliverydate}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>${claimamo}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${numbermoth}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1028,7 +1033,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1623,6 +1628,113 @@
     <xf numFmtId="176" fontId="16" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1641,18 +1753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1665,83 +1765,245 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1752,301 +2014,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2358,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2373,14 +2378,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="G1" s="72" t="s">
+      <c r="B1" s="97"/>
+      <c r="G1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2393,8 +2398,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="36"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -2404,8 +2409,8 @@
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34" t="s">
@@ -2417,8 +2422,8 @@
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2428,8 +2433,8 @@
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="41" t="s">
@@ -2441,8 +2446,8 @@
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="41" t="s">
@@ -2454,8 +2459,8 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -2465,8 +2470,8 @@
       <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2479,8 +2484,8 @@
         <v>4</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -2492,8 +2497,8 @@
       <c r="C10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -2505,8 +2510,8 @@
       <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="34" t="s">
@@ -2518,8 +2523,8 @@
       <c r="C12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="34" t="s">
@@ -2529,34 +2534,34 @@
       <c r="C13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="62" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2566,21 +2571,21 @@
       <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="183" t="s">
-        <v>183</v>
+      <c r="B17" s="63" t="s">
+        <v>182</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2590,8 +2595,8 @@
       <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2603,101 +2608,101 @@
       <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>40</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="33"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>29</v>
@@ -2706,463 +2711,463 @@
         <v>30</v>
       </c>
       <c r="D28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>35</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>36</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="184" t="s">
+      <c r="C29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="184" t="s">
+      <c r="D29" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="185" t="s">
+      <c r="E29" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="185" t="s">
+      <c r="F29" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="184" t="s">
+      <c r="C30" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="184" t="s">
+      <c r="D30" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="E30" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="185" t="s">
+      <c r="F30" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="184" t="s">
+      <c r="C31" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="184" t="s">
+      <c r="D31" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="185" t="s">
+      <c r="E31" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="185" t="s">
+      <c r="F31" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="184" t="s">
+      <c r="C32" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="184" t="s">
+      <c r="D32" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="185" t="s">
+      <c r="E32" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="185" t="s">
+      <c r="F32" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="1:8" ht="7.5" customHeight="1">
       <c r="A33" s="52"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
       <c r="A34" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1">
       <c r="A35" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="C35" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="99"/>
+      <c r="E35" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="C36" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="D36" s="74"/>
+      <c r="E36" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="186" t="s">
+      <c r="C37" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="D37" s="74"/>
+      <c r="E37" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="186" t="s">
+      <c r="C38" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
     </row>
     <row r="39" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A39" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="C39" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A40" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
     </row>
     <row r="41" spans="1:8" s="32" customFormat="1" ht="13.5">
       <c r="A41" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+    </row>
+    <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
+      <c r="A42" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-    </row>
-    <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="83" t="s">
+      <c r="B42" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="C42" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="98" t="s">
+      <c r="H42" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="83" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="56" t="s">
+      <c r="D43" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="E43" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="F43" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A44" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="C44" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="58" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A45" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C45" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="26" t="s">
+      <c r="F45" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="G45" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="H45" s="58" t="s">
         <v>108</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A46" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="26" t="s">
+      <c r="F46" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="G46" s="72"/>
+      <c r="H46" s="58" t="s">
         <v>113</v>
-      </c>
-      <c r="G46" s="100"/>
-      <c r="H46" s="58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A47" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C47" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="26" t="s">
+      <c r="F47" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="G47" s="72"/>
+      <c r="H47" s="58" t="s">
         <v>118</v>
-      </c>
-      <c r="G47" s="100"/>
-      <c r="H47" s="58" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A48" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="C48" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="26" t="s">
+      <c r="F48" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="G48" s="72"/>
+      <c r="H48" s="58" t="s">
         <v>123</v>
-      </c>
-      <c r="G48" s="100"/>
-      <c r="H48" s="58" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A49" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="C49" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="F49" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="G49" s="72"/>
+      <c r="H49" s="58" t="s">
         <v>128</v>
-      </c>
-      <c r="G49" s="100"/>
-      <c r="H49" s="58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="31" customFormat="1" ht="14.25">
       <c r="A50" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="26" t="s">
+      <c r="F50" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="G50" s="73"/>
+      <c r="H50" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="101"/>
-      <c r="H50" s="58" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="15">
+      <c r="A51" s="67" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="96" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>136</v>
-      </c>
       <c r="F51" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G51" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3172,11 +3177,12 @@
     <protectedRange sqref="C44:D50 E44:G44 B44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="G1:H32"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="C38:D38"/>
@@ -3185,12 +3191,11 @@
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G50"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="2">
@@ -3215,8 +3220,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:I43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3248,13 +3253,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="2"/>
@@ -3262,237 +3267,237 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="134" t="s">
+      <c r="G3" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
+      <c r="L3" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="189"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="202"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="192"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="104"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="187" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="189"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="134" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="197" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="199"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="195"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="107"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="196" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="196"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="200"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="137" t="s">
+      <c r="H9" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="137" t="s">
+      <c r="J9" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="188"/>
+      <c r="N9" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="109"/>
+      <c r="O9" s="202"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="104"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="189"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="112" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="177" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="178"/>
+      <c r="N11" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="113"/>
+      <c r="O11" s="180"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="116"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="183"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112" t="s">
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="177" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="178"/>
+      <c r="N13" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="180"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="B14" s="133" t="s">
-        <v>152</v>
+      <c r="B14" s="161" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -3509,10 +3514,10 @@
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="133"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3527,11 +3532,11 @@
       <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="133"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -3545,11 +3550,11 @@
       <c r="O16" s="25"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="133"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -3563,7 +3568,7 @@
       <c r="O17" s="25"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="133"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="13"/>
       <c r="D18" s="2"/>
       <c r="E18" s="15" t="str">
@@ -3582,7 +3587,7 @@
       <c r="O18" s="25"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="133"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="13"/>
       <c r="D19" s="2"/>
       <c r="E19" s="14"/>
@@ -3598,10 +3603,10 @@
       <c r="O19" s="25"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="133"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -3616,428 +3621,428 @@
       <c r="O20" s="25"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="133"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="13"/>
       <c r="D21" s="126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="126"/>
-      <c r="F21" s="168" t="s">
+      <c r="F21" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
       <c r="O21" s="25"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="133"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="13"/>
       <c r="D22" s="126"/>
       <c r="E22" s="126"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="133"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="13"/>
       <c r="D23" s="126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="126"/>
-      <c r="F23" s="168" t="s">
+      <c r="F23" s="153" t="s">
       